--- a/results/Model_Output.xlsx
+++ b/results/Model_Output.xlsx
@@ -652,7 +652,7 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>10932277541250</v>
+        <v>12329505926250</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>7857181487969</v>
       </c>
       <c r="E2" t="n">
-        <v>18789459029219</v>
+        <v>20186687414219</v>
       </c>
       <c r="F2" t="n">
-        <v>70181949.26280002</v>
+        <v>70181949.26280001</v>
       </c>
       <c r="G2" t="n">
         <v>511244799</v>
@@ -810,7 +810,7 @@
         <v>58962468.29268292</v>
       </c>
       <c r="V3" t="n">
-        <v>3103287.804878046</v>
+        <v>3103287.804878047</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>58962468.29268292</v>
       </c>
       <c r="V4" t="n">
-        <v>3103287.804878048</v>
+        <v>3103287.804878046</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>58962468.29268292</v>
       </c>
       <c r="V5" t="n">
-        <v>3103287.804878048</v>
+        <v>3103287.804878046</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>2029</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-1.894196570011683e-06</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>7771036017206</v>
       </c>
       <c r="F6" t="n">
-        <v>71702078.22884192</v>
+        <v>71702078.22884193</v>
       </c>
       <c r="G6" t="n">
         <v>466000226.5974442</v>
       </c>
       <c r="H6" t="n">
-        <v>38833352.21645368</v>
+        <v>38833352.21645369</v>
       </c>
       <c r="I6" t="n">
-        <v>22190486.98083068</v>
+        <v>22190486.98083069</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>58962468.29268292</v>
       </c>
       <c r="V6" t="n">
-        <v>3103287.80487805</v>
+        <v>3103287.804878048</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1145,43 +1145,43 @@
         <v>3404760000000</v>
       </c>
       <c r="C7" t="n">
-        <v>1060558634595</v>
+        <v>602403031395</v>
       </c>
       <c r="D7" t="n">
         <v>7558265481206</v>
       </c>
       <c r="E7" t="n">
-        <v>12023584115801</v>
+        <v>11565428512601</v>
       </c>
       <c r="F7" t="n">
-        <v>67001448.79682652</v>
+        <v>64800000</v>
       </c>
       <c r="G7" t="n">
         <v>353789842.0286216</v>
       </c>
       <c r="H7" t="n">
-        <v>8844746.050715528</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17689492.10143106</v>
+        <v>17689492.10143107</v>
       </c>
       <c r="J7" t="n">
-        <v>22111865.12678886</v>
+        <v>22111865.12678887</v>
       </c>
       <c r="K7" t="n">
-        <v>4.11545414439162e-09</v>
+        <v>10581507.28596534</v>
       </c>
       <c r="L7" t="n">
-        <v>39801357.22821993</v>
+        <v>38064595.99297012</v>
       </c>
       <c r="M7" t="n">
-        <v>164436553.7534522</v>
+        <v>174091897.2719037</v>
       </c>
       <c r="N7" t="n">
-        <v>20554569.21918152</v>
+        <v>9452984.345832439</v>
       </c>
       <c r="O7" t="n">
-        <v>20554569.21918153</v>
+        <v>20393875.73530402</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>23433300</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.19467674777275e-09</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1252,34 +1252,34 @@
         <v>7558265481206</v>
       </c>
       <c r="F8" t="n">
-        <v>67001448.79682652</v>
+        <v>64799999.99999999</v>
       </c>
       <c r="G8" t="n">
-        <v>353789842.0286216</v>
+        <v>353789842.0286217</v>
       </c>
       <c r="H8" t="n">
-        <v>8844746.050715538</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>17689492.10143107</v>
       </c>
       <c r="J8" t="n">
-        <v>22111865.12678887</v>
+        <v>22111865.12678886</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.88205060542198e-09</v>
+        <v>9675786.301782571</v>
       </c>
       <c r="L8" t="n">
-        <v>39801357.22821993</v>
+        <v>38970316.97715291</v>
       </c>
       <c r="M8" t="n">
-        <v>164436553.7534522</v>
+        <v>174091897.2719038</v>
       </c>
       <c r="N8" t="n">
-        <v>20554569.21918152</v>
+        <v>9452984.345832439</v>
       </c>
       <c r="O8" t="n">
-        <v>20554569.21918152</v>
+        <v>20393875.73530402</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>23433300</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.19467674777275e-09</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>7558265481206</v>
       </c>
       <c r="F9" t="n">
-        <v>67001448.79682653</v>
+        <v>64800000.00000002</v>
       </c>
       <c r="G9" t="n">
-        <v>353789842.0286216</v>
+        <v>353789842.0286217</v>
       </c>
       <c r="H9" t="n">
-        <v>8844746.050715528</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>17689492.10143107</v>
@@ -1365,19 +1365,19 @@
         <v>22111865.12678887</v>
       </c>
       <c r="K9" t="n">
-        <v>-7.23661291375921e-09</v>
+        <v>10637083.64549334</v>
       </c>
       <c r="L9" t="n">
-        <v>39801357.22821993</v>
+        <v>38009019.63344212</v>
       </c>
       <c r="M9" t="n">
-        <v>164436553.7534522</v>
+        <v>174091897.2719038</v>
       </c>
       <c r="N9" t="n">
-        <v>20554569.21918152</v>
+        <v>9452984.345832521</v>
       </c>
       <c r="O9" t="n">
-        <v>20554569.21918153</v>
+        <v>20393875.73530402</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>46728321.95121951</v>
       </c>
       <c r="V9" t="n">
-        <v>2459385.365853655</v>
+        <v>2459385.365853658</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>23433300</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.19467674777275e-09</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         <v>18698952660366</v>
       </c>
       <c r="F10" t="n">
-        <v>53565144.86178257</v>
+        <v>53135379.82059754</v>
       </c>
       <c r="G10" t="n">
         <v>252802965.4029625</v>
       </c>
       <c r="H10" t="n">
-        <v>6320074.135074059</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>12640148.27014812</v>
@@ -1463,10 +1463,10 @@
         <v>15800185.33768518</v>
       </c>
       <c r="K10" t="n">
-        <v>1.68422831958061e-10</v>
+        <v>10516523.46974643</v>
       </c>
       <c r="L10" t="n">
-        <v>28440333.60783329</v>
+        <v>24243884.27316093</v>
       </c>
       <c r="M10" t="n">
         <v>164436553.7534522</v>
@@ -1496,7 +1496,7 @@
         <v>33390043.90243902</v>
       </c>
       <c r="V10" t="n">
-        <v>1757370.731707316</v>
+        <v>1757370.731707315</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1546,34 +1546,34 @@
         <v>9104752660366</v>
       </c>
       <c r="F11" t="n">
-        <v>53565144.86178258</v>
+        <v>54295230.65576701</v>
       </c>
       <c r="G11" t="n">
         <v>252802965.4029625</v>
       </c>
       <c r="H11" t="n">
-        <v>6320074.135074068</v>
+        <v>7852621.19507909</v>
       </c>
       <c r="I11" t="n">
-        <v>12640148.27014812</v>
+        <v>10250943.73085613</v>
       </c>
       <c r="J11" t="n">
-        <v>15800185.33768518</v>
+        <v>13960520.99924681</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>11385338.27768015</v>
       </c>
       <c r="L11" t="n">
-        <v>28440333.60783329</v>
+        <v>19751317.14787849</v>
       </c>
       <c r="M11" t="n">
         <v>164436553.7534522</v>
       </c>
       <c r="N11" t="n">
-        <v>20554569.21918153</v>
+        <v>20554569.21918152</v>
       </c>
       <c r="O11" t="n">
-        <v>20554569.21918153</v>
+        <v>20554569.21918152</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>33390043.90243902</v>
       </c>
       <c r="V11" t="n">
-        <v>1757370.731707316</v>
+        <v>1757370.731707317</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1632,25 +1632,25 @@
         <v>2035</v>
       </c>
       <c r="B12" t="n">
-        <v>2105400000000</v>
+        <v>3513400000000</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>9444121665286</v>
+        <v>9705120189446</v>
       </c>
       <c r="E12" t="n">
-        <v>11549521665286</v>
+        <v>13218520189446</v>
       </c>
       <c r="F12" t="n">
-        <v>50616614.05099674</v>
+        <v>48820386.11105198</v>
       </c>
       <c r="G12" t="n">
         <v>230641892.0411749</v>
       </c>
       <c r="H12" t="n">
-        <v>5766047.30102937</v>
+        <v>5766047.301029379</v>
       </c>
       <c r="I12" t="n">
         <v>11532094.60205874</v>
@@ -1665,22 +1665,22 @@
         <v>25947212.85463219</v>
       </c>
       <c r="M12" t="n">
-        <v>164436553.7534522</v>
+        <v>149616191.2126538</v>
       </c>
       <c r="N12" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="O12" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>84582781.64099351</v>
+        <v>94761980.63502041</v>
       </c>
       <c r="R12" t="n">
-        <v>84582781.64099351</v>
+        <v>94761980.63502051</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>30463024.3902439</v>
       </c>
       <c r="V12" t="n">
-        <v>1603317.07317073</v>
+        <v>1603317.073170731</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>23433300</v>
+        <v>21321300</v>
       </c>
       <c r="Y12" t="n">
-        <v>17549400</v>
+        <v>19661400</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10195378966146</v>
+        <v>10456377490306</v>
       </c>
       <c r="E13" t="n">
-        <v>14856078966146</v>
+        <v>15117077490306</v>
       </c>
       <c r="F13" t="n">
-        <v>44089484.97821744</v>
+        <v>42293257.03827267</v>
       </c>
       <c r="G13" t="n">
         <v>181584176.3494852</v>
       </c>
       <c r="H13" t="n">
-        <v>4539604.40873713</v>
+        <v>4539604.40873714</v>
       </c>
       <c r="I13" t="n">
         <v>9079208.817474261</v>
@@ -1763,22 +1763,22 @@
         <v>20428219.8393171</v>
       </c>
       <c r="M13" t="n">
-        <v>164436553.7534522</v>
+        <v>149616191.2126538</v>
       </c>
       <c r="N13" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="O13" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>118277520.8110657</v>
+        <v>128456719.8050927</v>
       </c>
       <c r="R13" t="n">
-        <v>118277520.8110658</v>
+        <v>128456719.8050928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1790,16 +1790,16 @@
         <v>23983514.63414634</v>
       </c>
       <c r="V13" t="n">
-        <v>1262290.24390244</v>
+        <v>1262290.243902439</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>23433300</v>
+        <v>21321300</v>
       </c>
       <c r="Y13" t="n">
-        <v>24540450</v>
+        <v>26652450</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="AD13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE13" t="n">
         <v>5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>4</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
@@ -1834,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>10927309609986</v>
+        <v>11188308134146</v>
       </c>
       <c r="E14" t="n">
-        <v>15468109609986</v>
+        <v>15729108134146</v>
       </c>
       <c r="F14" t="n">
-        <v>37730271.19194577</v>
+        <v>35934043.252001</v>
       </c>
       <c r="G14" t="n">
         <v>133788507.1554104</v>
@@ -1861,22 +1861,22 @@
         <v>15051207.05498368</v>
       </c>
       <c r="M14" t="n">
-        <v>164436553.7534522</v>
+        <v>149616191.2126538</v>
       </c>
       <c r="N14" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="O14" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>151105437.566803</v>
+        <v>161284636.5608299</v>
       </c>
       <c r="R14" t="n">
-        <v>151105437.566803</v>
+        <v>161284636.56083</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>17670695.12195122</v>
       </c>
       <c r="V14" t="n">
-        <v>930036.585365853</v>
+        <v>930036.585365854</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>23433300</v>
+        <v>21321300</v>
       </c>
       <c r="Y14" t="n">
-        <v>31351650</v>
+        <v>33463650</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>3</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -1932,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>10927309609986</v>
+        <v>11188308134146</v>
       </c>
       <c r="E15" t="n">
-        <v>10927309609986</v>
+        <v>11188308134146</v>
       </c>
       <c r="F15" t="n">
-        <v>37730271.19194577</v>
+        <v>35934043.252001</v>
       </c>
       <c r="G15" t="n">
         <v>133788507.1554104</v>
@@ -1959,22 +1959,22 @@
         <v>15051207.05498368</v>
       </c>
       <c r="M15" t="n">
-        <v>164436553.7534522</v>
+        <v>149616191.2126538</v>
       </c>
       <c r="N15" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="O15" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>151105437.566803</v>
+        <v>161284636.5608299</v>
       </c>
       <c r="R15" t="n">
-        <v>151105437.566803</v>
+        <v>161284636.56083</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1992,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>23433300</v>
+        <v>21321300</v>
       </c>
       <c r="Y15" t="n">
-        <v>31351650</v>
+        <v>33463650</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>10927309609986</v>
+        <v>11188308134146</v>
       </c>
       <c r="E16" t="n">
-        <v>10927309609986</v>
+        <v>11188308134146</v>
       </c>
       <c r="F16" t="n">
-        <v>37730271.19194577</v>
+        <v>35934043.252001</v>
       </c>
       <c r="G16" t="n">
         <v>133788507.1554104</v>
@@ -2057,22 +2057,22 @@
         <v>15051207.05498368</v>
       </c>
       <c r="M16" t="n">
-        <v>164436553.7534522</v>
+        <v>149616191.2126538</v>
       </c>
       <c r="N16" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="O16" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>151105437.5668029</v>
+        <v>161284636.5608299</v>
       </c>
       <c r="R16" t="n">
-        <v>151105437.566803</v>
+        <v>161284636.56083</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>17670695.12195122</v>
       </c>
       <c r="V16" t="n">
-        <v>930036.585365853</v>
+        <v>930036.585365854</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>23433300</v>
+        <v>21321300</v>
       </c>
       <c r="Y16" t="n">
-        <v>31351650</v>
+        <v>33463650</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>11659062945046</v>
+        <v>11920061469206</v>
       </c>
       <c r="E17" t="n">
-        <v>16198762945046</v>
+        <v>16459761469206</v>
       </c>
       <c r="F17" t="n">
-        <v>31226390.40506152</v>
+        <v>29430162.46511675</v>
       </c>
       <c r="G17" t="n">
         <v>86004416.3695706</v>
@@ -2149,28 +2149,28 @@
         <v>5375276.023098171</v>
       </c>
       <c r="K17" t="n">
-        <v>3723616.08837559</v>
+        <v>3723616.0883756</v>
       </c>
       <c r="L17" t="n">
         <v>8101991.162440371</v>
       </c>
       <c r="M17" t="n">
-        <v>164436553.7534522</v>
+        <v>149616191.2126538</v>
       </c>
       <c r="N17" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="O17" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>183925401.8233261</v>
+        <v>194104600.817353</v>
       </c>
       <c r="R17" t="n">
-        <v>183925401.8233261</v>
+        <v>194104600.8173531</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2182,16 +2182,16 @@
         <v>11359404.87804878</v>
       </c>
       <c r="V17" t="n">
-        <v>597863.414634147</v>
+        <v>597863.414634146</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>23433300</v>
+        <v>21321300</v>
       </c>
       <c r="Y17" t="n">
-        <v>38161200</v>
+        <v>40273200</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>2</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2226,49 +2226,49 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>11659062945046</v>
+        <v>11920061469206</v>
       </c>
       <c r="E18" t="n">
-        <v>11659062945046</v>
+        <v>11920061469206</v>
       </c>
       <c r="F18" t="n">
-        <v>31226390.40506152</v>
+        <v>29990330.48688928</v>
       </c>
       <c r="G18" t="n">
         <v>86004416.3695706</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3671513.2513181</v>
       </c>
       <c r="I18" t="n">
-        <v>4300220.81847853</v>
+        <v>2202213.24629676</v>
       </c>
       <c r="J18" t="n">
         <v>5375276.023098171</v>
       </c>
       <c r="K18" t="n">
-        <v>2150110.40923927</v>
+        <v>5375276.023098171</v>
       </c>
       <c r="L18" t="n">
-        <v>9675496.841576699</v>
+        <v>4876825.54858147</v>
       </c>
       <c r="M18" t="n">
-        <v>164436553.7534522</v>
+        <v>149616191.2126538</v>
       </c>
       <c r="N18" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="O18" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>183925401.823326</v>
+        <v>194104600.8173531</v>
       </c>
       <c r="R18" t="n">
-        <v>183925401.8233261</v>
+        <v>194104600.8173531</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>23433300</v>
+        <v>21321300</v>
       </c>
       <c r="Y18" t="n">
-        <v>38161200</v>
+        <v>40273200</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>2</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>12301629963766</v>
+        <v>12562628487926</v>
       </c>
       <c r="E19" t="n">
-        <v>16288029963766</v>
+        <v>16549028487926</v>
       </c>
       <c r="F19" t="n">
-        <v>25714924.51294</v>
+        <v>23918696.57299523</v>
       </c>
       <c r="G19" t="n">
         <v>44044264.9259352</v>
@@ -2345,28 +2345,28 @@
         <v>2752766.55787095</v>
       </c>
       <c r="K19" t="n">
-        <v>1101106.62314838</v>
+        <v>2752766.55787095</v>
       </c>
       <c r="L19" t="n">
-        <v>4954979.80416771</v>
+        <v>3303319.86944514</v>
       </c>
       <c r="M19" t="n">
-        <v>164436553.7534522</v>
+        <v>149616191.2126538</v>
       </c>
       <c r="N19" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="O19" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>212745258.9751651</v>
+        <v>222924457.9691921</v>
       </c>
       <c r="R19" t="n">
-        <v>212745258.9751651</v>
+        <v>222924457.9691921</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2384,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>23433300</v>
+        <v>21321300</v>
       </c>
       <c r="Y19" t="n">
-        <v>44140800</v>
+        <v>46252800</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2402,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2422,49 +2422,49 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>12301629963766</v>
+        <v>12562628487926</v>
       </c>
       <c r="E20" t="n">
-        <v>12301629963766</v>
+        <v>12562628487926</v>
       </c>
       <c r="F20" t="n">
-        <v>25714924.51294</v>
+        <v>24262241.83941753</v>
       </c>
       <c r="G20" t="n">
         <v>44044264.9259352</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3853873.18101933</v>
       </c>
       <c r="I20" t="n">
-        <v>2202213.24629676</v>
+        <v>1651659.93472257</v>
       </c>
       <c r="J20" t="n">
         <v>2752766.55787095</v>
       </c>
       <c r="K20" t="n">
-        <v>1101106.62314838</v>
+        <v>2752766.55787095</v>
       </c>
       <c r="L20" t="n">
-        <v>4954979.80416771</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>164436553.7534522</v>
+        <v>149616191.2126538</v>
       </c>
       <c r="N20" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="O20" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212745258.9751651</v>
+        <v>222924457.9691921</v>
       </c>
       <c r="R20" t="n">
-        <v>212745258.9751651</v>
+        <v>222924457.9691921</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>23433300</v>
+        <v>21321300</v>
       </c>
       <c r="Y20" t="n">
-        <v>44140800</v>
+        <v>46252800</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2500,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>12976112562886</v>
+        <v>13237111087046</v>
       </c>
       <c r="E21" t="n">
-        <v>17160512562886</v>
+        <v>17421511087046</v>
       </c>
       <c r="F21" t="n">
-        <v>19929710.31491841</v>
+        <v>18133482.37497364</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2547,22 +2547,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>164436553.7534522</v>
+        <v>149616191.2126538</v>
       </c>
       <c r="N21" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="O21" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>242996565.9855391</v>
+        <v>253175764.9795661</v>
       </c>
       <c r="R21" t="n">
-        <v>242996565.9855392</v>
+        <v>253175764.9795662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>23433300</v>
+        <v>21321300</v>
       </c>
       <c r="Y21" t="n">
-        <v>50417400</v>
+        <v>52529400</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2598,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -2618,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>12976112562886</v>
+        <v>13237111087046</v>
       </c>
       <c r="E22" t="n">
-        <v>12976112562886</v>
+        <v>13237111087046</v>
       </c>
       <c r="F22" t="n">
-        <v>19929710.31491841</v>
+        <v>18133482.37497364</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2645,22 +2645,22 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>164436553.7534522</v>
+        <v>149616191.2126538</v>
       </c>
       <c r="N22" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="O22" t="n">
-        <v>20554569.21918153</v>
+        <v>18702023.90158172</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>242996565.9855391</v>
+        <v>253175764.9795661</v>
       </c>
       <c r="R22" t="n">
-        <v>242996565.9855392</v>
+        <v>253175764.9795662</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>23433300</v>
+        <v>21321300</v>
       </c>
       <c r="Y22" t="n">
-        <v>50417400</v>
+        <v>52529400</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>13636561172069</v>
+        <v>13897559696229</v>
       </c>
       <c r="E23" t="n">
-        <v>17199461172069</v>
+        <v>17460459696229</v>
       </c>
       <c r="F23" t="n">
-        <v>15384411.6450113</v>
+        <v>13588183.70506653</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>126934089.4802913</v>
+        <v>112113726.9394929</v>
       </c>
       <c r="N23" t="n">
-        <v>15866761.18503641</v>
+        <v>14014215.8674366</v>
       </c>
       <c r="O23" t="n">
-        <v>15866761.18503641</v>
+        <v>14014215.8674366</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>268754710.9399558</v>
+        <v>278933909.9339828</v>
       </c>
       <c r="R23" t="n">
-        <v>268754710.9399561</v>
+        <v>278933909.9339831</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>18088950</v>
+        <v>15976950</v>
       </c>
       <c r="Y23" t="n">
-        <v>55761750</v>
+        <v>57873750</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -2814,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>13636561172069</v>
+        <v>13897559696229</v>
       </c>
       <c r="E24" t="n">
-        <v>13636561172069</v>
+        <v>13897559696229</v>
       </c>
       <c r="F24" t="n">
-        <v>15384411.6450113</v>
+        <v>13588183.70506653</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2841,22 +2841,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>126934089.4802913</v>
+        <v>112113726.9394929</v>
       </c>
       <c r="N24" t="n">
-        <v>15866761.18503641</v>
+        <v>14014215.8674366</v>
       </c>
       <c r="O24" t="n">
-        <v>15866761.18503641</v>
+        <v>14014215.8674366</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>268754710.9399558</v>
+        <v>278933909.9339828</v>
       </c>
       <c r="R24" t="n">
-        <v>268754710.9399561</v>
+        <v>278933909.9339831</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2874,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>18088950</v>
+        <v>15976950</v>
       </c>
       <c r="Y24" t="n">
-        <v>55761750</v>
+        <v>57873750</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -2892,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
@@ -2912,13 +2912,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>13636561172069</v>
+        <v>13897559696229</v>
       </c>
       <c r="E25" t="n">
-        <v>13636561172069</v>
+        <v>13897559696229</v>
       </c>
       <c r="F25" t="n">
-        <v>15384411.6450113</v>
+        <v>13588183.70506653</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2939,22 +2939,22 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>126934089.4802913</v>
+        <v>112113726.9394929</v>
       </c>
       <c r="N25" t="n">
-        <v>15866761.18503641</v>
+        <v>14014215.8674366</v>
       </c>
       <c r="O25" t="n">
-        <v>15866761.18503641</v>
+        <v>14014215.8674366</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>268754710.9399558</v>
+        <v>278933909.9339828</v>
       </c>
       <c r="R25" t="n">
-        <v>268754710.9399561</v>
+        <v>278933909.9339831</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>18088950</v>
+        <v>15976950</v>
       </c>
       <c r="Y25" t="n">
-        <v>55761750</v>
+        <v>57873750</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -2990,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>13636561172069</v>
+        <v>13897559696229</v>
       </c>
       <c r="E26" t="n">
-        <v>13636561172069</v>
+        <v>13897559696229</v>
       </c>
       <c r="F26" t="n">
-        <v>15384411.6450113</v>
+        <v>13588183.70506653</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3037,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>126934089.4802913</v>
+        <v>112113726.9394929</v>
       </c>
       <c r="N26" t="n">
-        <v>15866761.18503641</v>
+        <v>14014215.8674366</v>
       </c>
       <c r="O26" t="n">
-        <v>15866761.18503641</v>
+        <v>14014215.8674366</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>268754710.9399558</v>
+        <v>278933909.9339828</v>
       </c>
       <c r="R26" t="n">
-        <v>268754710.9399561</v>
+        <v>278933909.9339831</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>18088950</v>
+        <v>15976950</v>
       </c>
       <c r="Y26" t="n">
-        <v>55761750</v>
+        <v>57873750</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -3102,16 +3102,16 @@
         <v>2050</v>
       </c>
       <c r="B27" t="n">
-        <v>12059300000000</v>
+        <v>10651300000000</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0006097903810214345</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>15871972750480</v>
       </c>
       <c r="E27" t="n">
-        <v>27931272750480</v>
+        <v>26523272750480</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>355937959.8239546</v>
+        <v>355937959.8239547</v>
       </c>
       <c r="R27" t="n">
         <v>355937959.8239548</v>
@@ -3340,7 +3340,7 @@
         <v>674482599120</v>
       </c>
       <c r="E7" t="n">
-        <v>5860089.44839568</v>
+        <v>5785214.19802159</v>
       </c>
     </row>
     <row r="8">
@@ -3357,7 +3357,7 @@
         <v>674482599120</v>
       </c>
       <c r="E8" t="n">
-        <v>5860089.44839568</v>
+        <v>5785214.19802159</v>
       </c>
     </row>
     <row r="9">
@@ -3374,7 +3374,7 @@
         <v>674482599120</v>
       </c>
       <c r="E9" t="n">
-        <v>5860089.44839568</v>
+        <v>5785214.19802159</v>
       </c>
     </row>
     <row r="10">
@@ -3391,7 +3391,7 @@
         <v>674482599120</v>
       </c>
       <c r="E10" t="n">
-        <v>5860089.44839568</v>
+        <v>5785214.19802159</v>
       </c>
     </row>
     <row r="11">
@@ -3408,7 +3408,7 @@
         <v>674482599120</v>
       </c>
       <c r="E11" t="n">
-        <v>5860089.44839568</v>
+        <v>5785214.19802159</v>
       </c>
     </row>
     <row r="12">
@@ -3561,7 +3561,7 @@
         <v>674482599120</v>
       </c>
       <c r="E20" t="n">
-        <v>5785214.19802159</v>
+        <v>6128759.46444389</v>
       </c>
     </row>
     <row r="21">
@@ -4022,7 +4022,7 @@
         <v>44044264.9259352</v>
       </c>
       <c r="C7" t="n">
-        <v>1101106.62314838</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2202213.24629676</v>
@@ -4031,7 +4031,7 @@
         <v>2752766.55787095</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1101106.62314838</v>
       </c>
       <c r="G7" t="n">
         <v>4954979.80416771</v>
@@ -4069,7 +4069,7 @@
         <v>44044264.9259352</v>
       </c>
       <c r="C8" t="n">
-        <v>1101106.62314838</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>2202213.24629676</v>
@@ -4078,7 +4078,7 @@
         <v>2752766.55787095</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1101106.62314838</v>
       </c>
       <c r="G8" t="n">
         <v>4954979.80416771</v>
@@ -4116,7 +4116,7 @@
         <v>44044264.9259352</v>
       </c>
       <c r="C9" t="n">
-        <v>1101106.62314838</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>2202213.24629676</v>
@@ -4125,7 +4125,7 @@
         <v>2752766.55787095</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1101106.62314838</v>
       </c>
       <c r="G9" t="n">
         <v>4954979.80416771</v>
@@ -4163,7 +4163,7 @@
         <v>44044264.9259352</v>
       </c>
       <c r="C10" t="n">
-        <v>1101106.62314838</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>2202213.24629676</v>
@@ -4172,7 +4172,7 @@
         <v>2752766.55787095</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1101106.62314838</v>
       </c>
       <c r="G10" t="n">
         <v>4954979.80416771</v>
@@ -4210,7 +4210,7 @@
         <v>44044264.9259352</v>
       </c>
       <c r="C11" t="n">
-        <v>1101106.62314839</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2202213.24629676</v>
@@ -4219,10 +4219,10 @@
         <v>2752766.55787095</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2752766.55787095</v>
       </c>
       <c r="G11" t="n">
-        <v>4954979.80416771</v>
+        <v>3303319.86944515</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>2752766.55787095</v>
       </c>
       <c r="F17" t="n">
-        <v>1101106.62314837</v>
+        <v>1101106.62314838</v>
       </c>
       <c r="G17" t="n">
         <v>4954979.80416771</v>
@@ -4548,10 +4548,10 @@
         <v>2752766.55787095</v>
       </c>
       <c r="F18" t="n">
-        <v>1101106.62314838</v>
+        <v>2752766.55787095</v>
       </c>
       <c r="G18" t="n">
-        <v>4954979.80416771</v>
+        <v>3303319.86944514</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -4595,10 +4595,10 @@
         <v>2752766.55787095</v>
       </c>
       <c r="F19" t="n">
-        <v>1101106.62314838</v>
+        <v>2752766.55787095</v>
       </c>
       <c r="G19" t="n">
-        <v>4954979.80416771</v>
+        <v>3303319.86944514</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -4633,19 +4633,19 @@
         <v>44044264.9259352</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3853873.18101933</v>
       </c>
       <c r="D20" t="n">
-        <v>2202213.24629676</v>
+        <v>1651659.93472257</v>
       </c>
       <c r="E20" t="n">
         <v>2752766.55787095</v>
       </c>
       <c r="F20" t="n">
-        <v>1101106.62314838</v>
+        <v>2752766.55787095</v>
       </c>
       <c r="G20" t="n">
-        <v>4954979.80416771</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>5817336.58536585</v>
       </c>
       <c r="C5" t="n">
-        <v>306175.609756097</v>
+        <v>306175.609756098</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5278,7 +5278,7 @@
         <v>5817336.58536585</v>
       </c>
       <c r="C9" t="n">
-        <v>306175.609756097</v>
+        <v>306175.609756098</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>5817336.58536585</v>
       </c>
       <c r="C10" t="n">
-        <v>306175.609756098</v>
+        <v>306175.609756097</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>5817336.58536585</v>
       </c>
       <c r="C12" t="n">
-        <v>306175.609756097</v>
+        <v>306175.609756098</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>5817336.58536585</v>
       </c>
       <c r="C14" t="n">
-        <v>306175.609756097</v>
+        <v>306175.609756098</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>488157667656.9999</v>
       </c>
       <c r="E8" t="n">
-        <v>4545298.66990711</v>
+        <v>3869672.49819127</v>
       </c>
     </row>
     <row r="9">
@@ -6623,7 +6623,7 @@
         <v>488157667656.9999</v>
       </c>
       <c r="E9" t="n">
-        <v>4545298.66990711</v>
+        <v>3869672.49819127</v>
       </c>
     </row>
     <row r="10">
@@ -7333,13 +7333,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>37502464.2731609</v>
+        <v>41579575.5536311</v>
       </c>
       <c r="I8" t="n">
-        <v>4687808.03414512</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4687808.03414512</v>
+        <v>4619952.83929234</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7380,13 +7380,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>37502464.2731609</v>
+        <v>41579575.5536311</v>
       </c>
       <c r="I9" t="n">
-        <v>4687808.03414512</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4687808.03414512</v>
+        <v>4619952.83929234</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -9753,7 +9753,7 @@
         <v>837252059160</v>
       </c>
       <c r="E2" t="n">
-        <v>7504523.49600001</v>
+        <v>7504523.496</v>
       </c>
     </row>
     <row r="3">
@@ -9821,7 +9821,7 @@
         <v>837252059160</v>
       </c>
       <c r="E6" t="n">
-        <v>7715538.3952476</v>
+        <v>7715538.39524761</v>
       </c>
     </row>
     <row r="7">
@@ -9838,7 +9838,7 @@
         <v>837252059160</v>
       </c>
       <c r="E7" t="n">
-        <v>7274275.07237761</v>
+        <v>7181330.55811198</v>
       </c>
     </row>
     <row r="8">
@@ -9855,7 +9855,7 @@
         <v>837252059160</v>
       </c>
       <c r="E8" t="n">
-        <v>7274275.07237761</v>
+        <v>7181330.55811198</v>
       </c>
     </row>
     <row r="9">
@@ -9872,7 +9872,7 @@
         <v>837252059160</v>
       </c>
       <c r="E9" t="n">
-        <v>7274275.07237761</v>
+        <v>7181330.55811198</v>
       </c>
     </row>
     <row r="10">
@@ -10473,7 +10473,7 @@
         <v>57071611.9408946</v>
       </c>
       <c r="C6" t="n">
-        <v>4755967.66174121</v>
+        <v>4755967.66174122</v>
       </c>
       <c r="D6" t="n">
         <v>2717695.80670927</v>
@@ -10520,7 +10520,7 @@
         <v>54673243.6856641</v>
       </c>
       <c r="C7" t="n">
-        <v>1366831.0921416</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2733662.1842832</v>
@@ -10529,7 +10529,7 @@
         <v>3417077.730354</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1366831.0921416</v>
       </c>
       <c r="G7" t="n">
         <v>6150739.91463721</v>
@@ -10567,7 +10567,7 @@
         <v>54673243.6856641</v>
       </c>
       <c r="C8" t="n">
-        <v>1366831.0921416</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>2733662.1842832</v>
@@ -10576,7 +10576,7 @@
         <v>3417077.730354</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1366831.0921416</v>
       </c>
       <c r="G8" t="n">
         <v>6150739.91463721</v>
@@ -10614,7 +10614,7 @@
         <v>54673243.6856641</v>
       </c>
       <c r="C9" t="n">
-        <v>1366831.0921416</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>2733662.1842832</v>
@@ -10623,7 +10623,7 @@
         <v>3417077.730354</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1366831.0921416</v>
       </c>
       <c r="G9" t="n">
         <v>6150739.91463721</v>
@@ -11559,7 +11559,7 @@
         <v>731930643840</v>
       </c>
       <c r="E2" t="n">
-        <v>6560498.30400001</v>
+        <v>6560498.304</v>
       </c>
     </row>
     <row r="3">
@@ -11644,7 +11644,7 @@
         <v>731930643840</v>
       </c>
       <c r="E7" t="n">
-        <v>6359213.78627165</v>
+        <v>6277961.14864173</v>
       </c>
     </row>
     <row r="8">
@@ -11661,7 +11661,7 @@
         <v>731930643840</v>
       </c>
       <c r="E8" t="n">
-        <v>6359213.78627165</v>
+        <v>6277961.14864173</v>
       </c>
     </row>
     <row r="9">
@@ -11678,7 +11678,7 @@
         <v>731930643840</v>
       </c>
       <c r="E9" t="n">
-        <v>6359213.78627166</v>
+        <v>6277961.14864173</v>
       </c>
     </row>
     <row r="10">
@@ -11695,7 +11695,7 @@
         <v>731930643840</v>
       </c>
       <c r="E10" t="n">
-        <v>6359213.78627165</v>
+        <v>6277961.14864173</v>
       </c>
     </row>
     <row r="11">
@@ -11712,7 +11712,7 @@
         <v>731930643840</v>
       </c>
       <c r="E11" t="n">
-        <v>6359213.78627166</v>
+        <v>6277961.14864173</v>
       </c>
     </row>
     <row r="12">
@@ -11729,7 +11729,7 @@
         <v>731930643840</v>
       </c>
       <c r="E12" t="n">
-        <v>6359213.78627165</v>
+        <v>6359213.78627166</v>
       </c>
     </row>
     <row r="13">
@@ -13575,7 +13575,7 @@
         <v>751257300860</v>
       </c>
       <c r="E7" t="n">
-        <v>6527129.07277931</v>
+        <v>6443730.95610344</v>
       </c>
     </row>
     <row r="8">
@@ -13592,7 +13592,7 @@
         <v>751257300860</v>
       </c>
       <c r="E8" t="n">
-        <v>6527129.07277931</v>
+        <v>6443730.95610344</v>
       </c>
     </row>
     <row r="9">
@@ -13609,7 +13609,7 @@
         <v>751257300860</v>
       </c>
       <c r="E9" t="n">
-        <v>6527129.07277931</v>
+        <v>6443730.95610344</v>
       </c>
     </row>
     <row r="10">
@@ -13626,7 +13626,7 @@
         <v>751257300860</v>
       </c>
       <c r="E10" t="n">
-        <v>6527129.07277931</v>
+        <v>6443730.95610344</v>
       </c>
     </row>
     <row r="11">
@@ -13643,7 +13643,7 @@
         <v>751257300860</v>
       </c>
       <c r="E11" t="n">
-        <v>6527129.07277931</v>
+        <v>6716001.27819232</v>
       </c>
     </row>
     <row r="12">
@@ -14257,7 +14257,7 @@
         <v>49057715.6916897</v>
       </c>
       <c r="C7" t="n">
-        <v>1226442.89229224</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2452885.78458448</v>
@@ -14266,7 +14266,7 @@
         <v>3066107.23073061</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1226442.89229224</v>
       </c>
       <c r="G7" t="n">
         <v>5518993.01531509</v>
@@ -14304,7 +14304,7 @@
         <v>49057715.6916897</v>
       </c>
       <c r="C8" t="n">
-        <v>1226442.89229224</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>2452885.78458448</v>
@@ -14313,7 +14313,7 @@
         <v>3066107.23073061</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1226442.89229224</v>
       </c>
       <c r="G8" t="n">
         <v>5518993.01531509</v>
@@ -14351,7 +14351,7 @@
         <v>49057715.6916897</v>
       </c>
       <c r="C9" t="n">
-        <v>1226442.89229224</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>2452885.78458448</v>
@@ -14360,7 +14360,7 @@
         <v>3066107.23073061</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1226442.89229224</v>
       </c>
       <c r="G9" t="n">
         <v>5518993.01531509</v>
@@ -14398,7 +14398,7 @@
         <v>49057715.6916897</v>
       </c>
       <c r="C10" t="n">
-        <v>1226442.89229224</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>2452885.78458448</v>
@@ -14407,7 +14407,7 @@
         <v>3066107.23073061</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1226442.89229224</v>
       </c>
       <c r="G10" t="n">
         <v>5518993.01531509</v>
@@ -14445,16 +14445,16 @@
         <v>49057715.6916897</v>
       </c>
       <c r="C11" t="n">
-        <v>1226442.89229224</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2452885.78458448</v>
       </c>
       <c r="E11" t="n">
+        <v>1226442.89229224</v>
+      </c>
+      <c r="F11" t="n">
         <v>3066107.23073061</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>5518993.01531509</v>
@@ -15339,7 +15339,7 @@
         <v>6479509.75609756</v>
       </c>
       <c r="C3" t="n">
-        <v>341026.829268292</v>
+        <v>341026.829268293</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -15513,7 +15513,7 @@
         <v>6479509.75609756</v>
       </c>
       <c r="C9" t="n">
-        <v>341026.829268292</v>
+        <v>341026.829268293</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -15542,7 +15542,7 @@
         <v>6479509.75609756</v>
       </c>
       <c r="C10" t="n">
-        <v>341026.829268292</v>
+        <v>341026.829268293</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -16824,7 +16824,7 @@
         <v>602849852000</v>
       </c>
       <c r="E7" t="n">
-        <v>5613212.31232739</v>
+        <v>5465625.21380886</v>
       </c>
     </row>
     <row r="8">
@@ -16841,7 +16841,7 @@
         <v>602849852000</v>
       </c>
       <c r="E8" t="n">
-        <v>5613212.31232739</v>
+        <v>4778848.40776939</v>
       </c>
     </row>
     <row r="9">
@@ -16858,7 +16858,7 @@
         <v>602849852000</v>
       </c>
       <c r="E9" t="n">
-        <v>5613212.31232739</v>
+        <v>4955828.86812393</v>
       </c>
     </row>
     <row r="10">
@@ -17521,13 +17521,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>46313632.939995</v>
+        <v>47204257.1481923</v>
       </c>
       <c r="I7" t="n">
-        <v>5789204.11749937</v>
+        <v>4765176.31168732</v>
       </c>
       <c r="J7" t="n">
-        <v>5789204.11749937</v>
+        <v>5774381.49554218</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -17568,13 +17568,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>46313632.939995</v>
+        <v>51348657.6766052</v>
       </c>
       <c r="I8" t="n">
-        <v>5789204.11749937</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5789204.11749937</v>
+        <v>5705406.40851169</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -17615,13 +17615,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>46313632.939995</v>
+        <v>50280657.2622611</v>
       </c>
       <c r="I9" t="n">
-        <v>5789204.11749937</v>
+        <v>1227972.59589529</v>
       </c>
       <c r="J9" t="n">
-        <v>5789204.11749937</v>
+        <v>5723181.09535071</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -18617,7 +18617,7 @@
         <v>6117073.17073171</v>
       </c>
       <c r="C4" t="n">
-        <v>321951.219512196</v>
+        <v>321951.219512195</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -18646,7 +18646,7 @@
         <v>6117073.17073171</v>
       </c>
       <c r="C5" t="n">
-        <v>321951.219512196</v>
+        <v>321951.219512195</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -20267,7 +20267,7 @@
         <v>47795669.1940748</v>
       </c>
       <c r="C7" t="n">
-        <v>1194891.72985187</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2389783.45970374</v>
@@ -20276,7 +20276,7 @@
         <v>2987229.32462968</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1194891.72985187</v>
       </c>
       <c r="G7" t="n">
         <v>5377012.78433342</v>
@@ -20314,7 +20314,7 @@
         <v>47795669.1940748</v>
       </c>
       <c r="C8" t="n">
-        <v>1194891.72985187</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>2389783.45970374</v>
@@ -20323,7 +20323,7 @@
         <v>2987229.32462968</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1194891.72985187</v>
       </c>
       <c r="G8" t="n">
         <v>5377012.78433342</v>
@@ -20361,7 +20361,7 @@
         <v>47795669.1940748</v>
       </c>
       <c r="C9" t="n">
-        <v>1194891.72985187</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>2389783.45970374</v>
@@ -20370,10 +20370,10 @@
         <v>2987229.32462968</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2987229.32462968</v>
       </c>
       <c r="G9" t="n">
-        <v>5377012.78433342</v>
+        <v>3584675.18955561</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -20408,7 +20408,7 @@
         <v>47795669.1940748</v>
       </c>
       <c r="C10" t="n">
-        <v>1194891.72985187</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>2389783.45970374</v>
@@ -20417,7 +20417,7 @@
         <v>2987229.32462968</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1194891.72985187</v>
       </c>
       <c r="G10" t="n">
         <v>5377012.78433342</v>
@@ -20455,7 +20455,7 @@
         <v>47795669.1940748</v>
       </c>
       <c r="C11" t="n">
-        <v>1194891.72985187</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2389783.45970374</v>
@@ -20464,7 +20464,7 @@
         <v>2987229.32462968</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1194891.72985187</v>
       </c>
       <c r="G11" t="n">
         <v>5377012.78433342</v>
@@ -20502,7 +20502,7 @@
         <v>47795669.1940748</v>
       </c>
       <c r="C12" t="n">
-        <v>1194891.72985187</v>
+        <v>1194891.72985188</v>
       </c>
       <c r="D12" t="n">
         <v>2389783.45970374</v>
@@ -20549,7 +20549,7 @@
         <v>47795669.1940748</v>
       </c>
       <c r="C13" t="n">
-        <v>1194891.72985187</v>
+        <v>1194891.72985188</v>
       </c>
       <c r="D13" t="n">
         <v>2389783.45970374</v>
@@ -21391,7 +21391,7 @@
         <v>642567018720</v>
       </c>
       <c r="E7" t="n">
-        <v>5582798.1495757</v>
+        <v>5511465.89212152</v>
       </c>
     </row>
     <row r="8">
@@ -21408,7 +21408,7 @@
         <v>642567018720</v>
       </c>
       <c r="E8" t="n">
-        <v>5582798.1495757</v>
+        <v>5511465.89212152</v>
       </c>
     </row>
     <row r="9">
@@ -21425,7 +21425,7 @@
         <v>642567018720</v>
       </c>
       <c r="E9" t="n">
-        <v>5582798.1495757</v>
+        <v>5511465.89212152</v>
       </c>
     </row>
     <row r="10">
@@ -21442,7 +21442,7 @@
         <v>642567018720</v>
       </c>
       <c r="E10" t="n">
-        <v>5582798.1495757</v>
+        <v>5511465.89212152</v>
       </c>
     </row>
     <row r="11">
@@ -21459,7 +21459,7 @@
         <v>642567018720</v>
       </c>
       <c r="E11" t="n">
-        <v>5582798.1495757</v>
+        <v>5761128.79321115</v>
       </c>
     </row>
     <row r="12">
@@ -21578,7 +21578,7 @@
         <v>642567018720</v>
       </c>
       <c r="E18" t="n">
-        <v>5511465.89212152</v>
+        <v>6071633.91389405</v>
       </c>
     </row>
     <row r="19">
@@ -22029,7 +22029,7 @@
         <v>3650069.20926518</v>
       </c>
       <c r="D6" t="n">
-        <v>2085753.83386581</v>
+        <v>2085753.83386582</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22073,7 +22073,7 @@
         <v>41960151.4436354</v>
       </c>
       <c r="C7" t="n">
-        <v>1049003.78609089</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2098007.57218177</v>
@@ -22082,7 +22082,7 @@
         <v>2622509.46522722</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1049003.78609088</v>
       </c>
       <c r="G7" t="n">
         <v>4720517.03740899</v>
@@ -22117,10 +22117,10 @@
         <v>2031</v>
       </c>
       <c r="B8" t="n">
-        <v>41960151.4436354</v>
+        <v>41960151.4436355</v>
       </c>
       <c r="C8" t="n">
-        <v>1049003.78609089</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>2098007.57218177</v>
@@ -22129,7 +22129,7 @@
         <v>2622509.46522722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1049003.78609089</v>
       </c>
       <c r="G8" t="n">
         <v>4720517.03740899</v>
@@ -22164,10 +22164,10 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>41960151.4436354</v>
+        <v>41960151.4436355</v>
       </c>
       <c r="C9" t="n">
-        <v>1049003.78609089</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>2098007.57218177</v>
@@ -22176,7 +22176,7 @@
         <v>2622509.46522722</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1049003.78609089</v>
       </c>
       <c r="G9" t="n">
         <v>4720517.03740899</v>
@@ -22214,7 +22214,7 @@
         <v>41960151.4436354</v>
       </c>
       <c r="C10" t="n">
-        <v>1049003.78609089</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>2098007.57218177</v>
@@ -22223,10 +22223,10 @@
         <v>2622509.46522722</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2622509.46522722</v>
       </c>
       <c r="G10" t="n">
-        <v>4720517.03740899</v>
+        <v>3147011.35827266</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -22261,7 +22261,7 @@
         <v>41960151.4436354</v>
       </c>
       <c r="C11" t="n">
-        <v>1049003.78609089</v>
+        <v>3671513.2513181</v>
       </c>
       <c r="D11" t="n">
         <v>2098007.57218177</v>
@@ -22273,7 +22273,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4720517.03740899</v>
+        <v>2098007.57218177</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -22590,19 +22590,19 @@
         <v>41960151.4436354</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3671513.2513181</v>
       </c>
       <c r="D18" t="n">
-        <v>2098007.57218177</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>2622509.46522722</v>
       </c>
       <c r="F18" t="n">
-        <v>1049003.78609089</v>
+        <v>2622509.46522722</v>
       </c>
       <c r="G18" t="n">
-        <v>4720517.03740899</v>
+        <v>1573505.67913633</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23155,7 +23155,7 @@
         <v>5542068.29268293</v>
       </c>
       <c r="C3" t="n">
-        <v>291687.804878049</v>
+        <v>291687.804878048</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -23184,7 +23184,7 @@
         <v>5542068.29268293</v>
       </c>
       <c r="C4" t="n">
-        <v>291687.804878048</v>
+        <v>291687.804878049</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -23213,7 +23213,7 @@
         <v>5542068.29268293</v>
       </c>
       <c r="C5" t="n">
-        <v>291687.804878049</v>
+        <v>291687.804878048</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -23271,7 +23271,7 @@
         <v>5542068.29268293</v>
       </c>
       <c r="C7" t="n">
-        <v>291687.804878048</v>
+        <v>291687.804878049</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -23329,7 +23329,7 @@
         <v>5542068.29268293</v>
       </c>
       <c r="C9" t="n">
-        <v>291687.804878048</v>
+        <v>291687.804878049</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23358,7 +23358,7 @@
         <v>5542068.29268293</v>
       </c>
       <c r="C10" t="n">
-        <v>291687.804878049</v>
+        <v>291687.804878048</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23532,7 +23532,7 @@
         <v>5542068.29268293</v>
       </c>
       <c r="C16" t="n">
-        <v>291687.804878048</v>
+        <v>291687.804878049</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>5542068.29268293</v>
       </c>
       <c r="C17" t="n">
-        <v>291687.804878049</v>
+        <v>291687.804878048</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -24640,7 +24640,7 @@
         <v>731753335060</v>
       </c>
       <c r="E7" t="n">
-        <v>6357673.27905599</v>
+        <v>6276440.32472006</v>
       </c>
     </row>
     <row r="8">
@@ -24657,7 +24657,7 @@
         <v>731753335060</v>
       </c>
       <c r="E8" t="n">
-        <v>6357673.27905599</v>
+        <v>6276440.32472006</v>
       </c>
     </row>
     <row r="9">
@@ -24674,7 +24674,7 @@
         <v>731753335060</v>
       </c>
       <c r="E9" t="n">
-        <v>6357673.27905599</v>
+        <v>6276440.32472006</v>
       </c>
     </row>
     <row r="10">
@@ -24691,7 +24691,7 @@
         <v>731753335060</v>
       </c>
       <c r="E10" t="n">
-        <v>6357673.27905599</v>
+        <v>6276440.32472006</v>
       </c>
     </row>
     <row r="11">
@@ -24708,7 +24708,7 @@
         <v>731753335060</v>
       </c>
       <c r="E11" t="n">
-        <v>6357673.27905599</v>
+        <v>6914357.93671102</v>
       </c>
     </row>
     <row r="12">
@@ -25322,7 +25322,7 @@
         <v>47784090.7858398</v>
       </c>
       <c r="C7" t="n">
-        <v>1194602.26964599</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2389204.53929199</v>
@@ -25331,7 +25331,7 @@
         <v>2986505.67411499</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1194602.26964599</v>
       </c>
       <c r="G7" t="n">
         <v>5375710.21340698</v>
@@ -25369,7 +25369,7 @@
         <v>47784090.7858398</v>
       </c>
       <c r="C8" t="n">
-        <v>1194602.26964599</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>2389204.53929199</v>
@@ -25378,7 +25378,7 @@
         <v>2986505.67411499</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1194602.26964599</v>
       </c>
       <c r="G8" t="n">
         <v>5375710.21340698</v>
@@ -25416,7 +25416,7 @@
         <v>47784090.7858398</v>
       </c>
       <c r="C9" t="n">
-        <v>1194602.26964599</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>2389204.53929199</v>
@@ -25425,7 +25425,7 @@
         <v>2986505.67411499</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1194602.26964599</v>
       </c>
       <c r="G9" t="n">
         <v>5375710.21340698</v>
@@ -25463,7 +25463,7 @@
         <v>47784090.7858398</v>
       </c>
       <c r="C10" t="n">
-        <v>1194602.26964599</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>2389204.53929199</v>
@@ -25472,10 +25472,10 @@
         <v>2986505.67411499</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2986505.67411499</v>
       </c>
       <c r="G10" t="n">
-        <v>5375710.21340698</v>
+        <v>3583806.80893798</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -25510,19 +25510,19 @@
         <v>47784090.7858398</v>
       </c>
       <c r="C11" t="n">
-        <v>1194602.26964599</v>
+        <v>4181107.94376099</v>
       </c>
       <c r="D11" t="n">
-        <v>2389204.53929199</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>2986505.67411499</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2986505.67411499</v>
       </c>
       <c r="G11" t="n">
-        <v>5375710.21340698</v>
+        <v>1791903.40446899</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -27889,7 +27889,7 @@
         <v>602849852000</v>
       </c>
       <c r="E7" t="n">
-        <v>5613212.31232739</v>
+        <v>4778848.40776939</v>
       </c>
     </row>
     <row r="8">
@@ -27906,7 +27906,7 @@
         <v>602849852000</v>
       </c>
       <c r="E8" t="n">
-        <v>5613212.31232739</v>
+        <v>5523196.32322336</v>
       </c>
     </row>
     <row r="9">
@@ -28586,13 +28586,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>46313632.939995</v>
+        <v>51348657.6766052</v>
       </c>
       <c r="I7" t="n">
-        <v>5789204.11749937</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5789204.11749937</v>
+        <v>5705406.40851169</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -28633,13 +28633,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>46313632.939995</v>
+        <v>46856840.4413662</v>
       </c>
       <c r="I8" t="n">
-        <v>5789204.11749937</v>
+        <v>5164631.39579478</v>
       </c>
       <c r="J8" t="n">
-        <v>5789204.11749937</v>
+        <v>5780163.53746233</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -29682,7 +29682,7 @@
         <v>6312819.51219512</v>
       </c>
       <c r="C4" t="n">
-        <v>332253.658536586</v>
+        <v>332253.658536585</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>6312819.51219512</v>
       </c>
       <c r="C5" t="n">
-        <v>332253.658536585</v>
+        <v>332253.658536586</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -29740,7 +29740,7 @@
         <v>6312819.51219512</v>
       </c>
       <c r="C6" t="n">
-        <v>332253.658536585</v>
+        <v>332253.658536586</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -29885,7 +29885,7 @@
         <v>6312819.51219512</v>
       </c>
       <c r="C11" t="n">
-        <v>332253.658536585</v>
+        <v>332253.658536586</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>6312819.51219512</v>
       </c>
       <c r="C13" t="n">
-        <v>332253.658536586</v>
+        <v>332253.658536585</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -30473,7 +30473,7 @@
         <v>6117073.17073171</v>
       </c>
       <c r="C3" t="n">
-        <v>321951.219512194</v>
+        <v>321951.219512195</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>6117073.17073171</v>
       </c>
       <c r="C4" t="n">
-        <v>321951.219512195</v>
+        <v>321951.219512194</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -30531,7 +30531,7 @@
         <v>6117073.17073171</v>
       </c>
       <c r="C5" t="n">
-        <v>321951.219512196</v>
+        <v>321951.219512194</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -30560,7 +30560,7 @@
         <v>6117073.17073171</v>
       </c>
       <c r="C6" t="n">
-        <v>321951.219512196</v>
+        <v>321951.219512195</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -31958,7 +31958,7 @@
         <v>339369004920</v>
       </c>
       <c r="E7" t="n">
-        <v>2948530.81078584</v>
+        <v>2910856.9860708</v>
       </c>
     </row>
     <row r="8">
@@ -31975,7 +31975,7 @@
         <v>339369004920</v>
       </c>
       <c r="E8" t="n">
-        <v>2948530.81078584</v>
+        <v>2910856.9860708</v>
       </c>
     </row>
     <row r="9">
@@ -31992,7 +31992,7 @@
         <v>339369004920</v>
       </c>
       <c r="E9" t="n">
-        <v>2948530.81078584</v>
+        <v>2910856.9860708</v>
       </c>
     </row>
     <row r="10">
@@ -32009,7 +32009,7 @@
         <v>339369004920</v>
       </c>
       <c r="E10" t="n">
-        <v>2948530.81078584</v>
+        <v>2910856.9860708</v>
       </c>
     </row>
     <row r="11">
@@ -32026,7 +32026,7 @@
         <v>339369004920</v>
       </c>
       <c r="E11" t="n">
-        <v>2948530.81078584</v>
+        <v>2910856.9860708</v>
       </c>
     </row>
     <row r="12">
@@ -32640,7 +32640,7 @@
         <v>22161073.3617876</v>
       </c>
       <c r="C7" t="n">
-        <v>554026.834044688</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1108053.66808938</v>
@@ -32649,7 +32649,7 @@
         <v>1385067.08511173</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>554026.834044688</v>
       </c>
       <c r="G7" t="n">
         <v>2493120.7532011</v>
@@ -32687,19 +32687,19 @@
         <v>22161073.3617876</v>
       </c>
       <c r="C8" t="n">
-        <v>554026.834044688</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1108053.66808938</v>
       </c>
       <c r="E8" t="n">
-        <v>1385067.08511173</v>
+        <v>1385067.08511172</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1385067.08511172</v>
       </c>
       <c r="G8" t="n">
-        <v>2493120.7532011</v>
+        <v>1662080.50213407</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -32734,7 +32734,7 @@
         <v>22161073.3617876</v>
       </c>
       <c r="C9" t="n">
-        <v>554026.834044688</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1108053.66808938</v>
@@ -32743,7 +32743,7 @@
         <v>1385067.08511173</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>554026.834044688</v>
       </c>
       <c r="G9" t="n">
         <v>2493120.7532011</v>
@@ -32781,7 +32781,7 @@
         <v>22161073.3617876</v>
       </c>
       <c r="C10" t="n">
-        <v>554026.834044688</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1108053.66808938</v>
@@ -32790,10 +32790,10 @@
         <v>1385067.08511173</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1385067.08511173</v>
       </c>
       <c r="G10" t="n">
-        <v>2493120.7532011</v>
+        <v>1662080.50213407</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -32828,7 +32828,7 @@
         <v>22161073.3617876</v>
       </c>
       <c r="C11" t="n">
-        <v>554026.834044688</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1108053.66808938</v>
@@ -32837,10 +32837,10 @@
         <v>1385067.08511173</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1385067.08511173</v>
       </c>
       <c r="G11" t="n">
-        <v>2493120.7532011</v>
+        <v>1662080.50213407</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -32902,7 +32902,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>15221083.4957561</v>
+        <v>15221083.495756</v>
       </c>
       <c r="M12" t="n">
         <v>15221083.4957561</v>
@@ -32996,7 +32996,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>15221083.4957561</v>
+        <v>15221083.495756</v>
       </c>
       <c r="M14" t="n">
         <v>15221083.4957561</v>
@@ -33043,7 +33043,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>15221083.4957561</v>
+        <v>15221083.495756</v>
       </c>
       <c r="M15" t="n">
         <v>15221083.4957561</v>
@@ -33137,7 +33137,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>15221083.4957561</v>
+        <v>15221083.495756</v>
       </c>
       <c r="M17" t="n">
         <v>15221083.4957561</v>
@@ -33184,7 +33184,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>15221083.495756</v>
+        <v>15221083.4957561</v>
       </c>
       <c r="M18" t="n">
         <v>15221083.4957561</v>
@@ -33607,7 +33607,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>15221083.495756</v>
+        <v>15221083.4957561</v>
       </c>
       <c r="M27" t="n">
         <v>15221083.4957561</v>
@@ -35113,7 +35113,7 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>179069096250</v>
+        <v>895345481250</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>2029</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-1.894196570011683e-06</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -35198,7 +35198,7 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-1.61006708450993e-06</v>
       </c>
       <c r="C7" t="n">
         <v>602403031395</v>
@@ -35207,7 +35207,7 @@
         <v>253649075229</v>
       </c>
       <c r="E7" t="n">
-        <v>2361759.08041175</v>
+        <v>2010700.46756897</v>
       </c>
     </row>
     <row r="8">
@@ -35842,16 +35842,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-6.20427875937519e-11</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-6.20427875937519e-11</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-6.20427875937519e-11</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -35904,13 +35904,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19486461.0595029</v>
+        <v>21604947.7174316</v>
       </c>
       <c r="I7" t="n">
-        <v>2435807.63243786</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2435807.63243786</v>
+        <v>2400549.74638129</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -37055,7 +37055,7 @@
         <v>2029</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-6.24210972742016e-12</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -38985,7 +38985,7 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>136190400000</v>
+        <v>817142400000</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -39070,16 +39070,16 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0004948235208911975</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>458155603200</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>192911952640.0001</v>
+        <v>192911952640</v>
       </c>
       <c r="E7" t="n">
-        <v>1796227.93994477</v>
+        <v>1529231.49048621</v>
       </c>
     </row>
     <row r="8">
@@ -39093,7 +39093,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>192911952640.0001</v>
+        <v>192911952640</v>
       </c>
       <c r="E8" t="n">
         <v>1796227.93994477</v>
@@ -39110,10 +39110,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>192911952640.0001</v>
+        <v>192911952640</v>
       </c>
       <c r="E9" t="n">
-        <v>1796227.93994477</v>
+        <v>1529231.49048621</v>
       </c>
     </row>
     <row r="10">
@@ -39127,7 +39127,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>192911952640.0001</v>
+        <v>192911952640</v>
       </c>
       <c r="E10" t="n">
         <v>1796227.93994477</v>
@@ -39144,7 +39144,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>192911952640.0002</v>
+        <v>192911952640</v>
       </c>
       <c r="E11" t="n">
         <v>1796227.93994477</v>
@@ -39155,16 +39155,16 @@
         <v>2035</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1408000000000</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E12" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -39178,10 +39178,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E13" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -39195,10 +39195,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E14" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -39212,10 +39212,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E15" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -39229,10 +39229,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E16" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -39246,10 +39246,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E17" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -39263,10 +39263,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E18" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -39280,10 +39280,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E19" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -39297,10 +39297,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E20" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -39314,10 +39314,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E21" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -39331,10 +39331,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E22" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -39348,10 +39348,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E23" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -39365,10 +39365,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E24" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -39382,10 +39382,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E25" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -39399,10 +39399,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>192911952640.0002</v>
+        <v>453910476800</v>
       </c>
       <c r="E26" t="n">
-        <v>1796227.93994477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -39410,10 +39410,10 @@
         <v>2050</v>
       </c>
       <c r="B27" t="n">
-        <v>1408000000000</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0006097903810214345</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>453910476800</v>
@@ -39764,25 +39764,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-9.87955535523557e-09</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.87955535523557e-09</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4.11545414439162e-09</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14820362.5407984</v>
+        <v>16431570.4565137</v>
       </c>
       <c r="I7" t="n">
-        <v>1852545.3175998</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1852545.31759981</v>
+        <v>1825730.05072374</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -39817,7 +39817,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.88205060542198e-09</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -39864,19 +39864,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.23661291375921e-09</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>14820362.5407984</v>
+        <v>16431570.4565137</v>
       </c>
       <c r="I9" t="n">
-        <v>1852545.3175998</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1852545.31759981</v>
+        <v>1825730.05072374</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -39911,7 +39911,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.68422831958061e-10</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -39967,10 +39967,10 @@
         <v>14820362.5407984</v>
       </c>
       <c r="I11" t="n">
-        <v>1852545.31759981</v>
+        <v>1852545.3175998</v>
       </c>
       <c r="J11" t="n">
-        <v>1852545.31759981</v>
+        <v>1852545.3175998</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -40011,22 +40011,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -40058,22 +40058,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -40105,22 +40105,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -40152,22 +40152,22 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -40199,22 +40199,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -40246,22 +40246,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -40293,22 +40293,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -40340,22 +40340,22 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -40387,22 +40387,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -40434,22 +40434,22 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -40481,22 +40481,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -40528,22 +40528,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -40575,22 +40575,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -40622,22 +40622,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -40669,22 +40669,22 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>14820362.5407984</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1852545.31759981</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>10179198.994027</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -40956,7 +40956,7 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>-9.939796546426031e-10</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -40968,7 +40968,7 @@
         <v>2112000</v>
       </c>
       <c r="F7" t="n">
-        <v>1.19467674777275e-09</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -40985,7 +40985,7 @@
         <v>2031</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.939796546426031e-10</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -40997,7 +40997,7 @@
         <v>2112000</v>
       </c>
       <c r="F8" t="n">
-        <v>1.19467674777275e-09</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -41014,7 +41014,7 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>-9.939796546426031e-10</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -41026,7 +41026,7 @@
         <v>2112000</v>
       </c>
       <c r="F9" t="n">
-        <v>1.19467674777275e-09</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -41043,7 +41043,7 @@
         <v>2033</v>
       </c>
       <c r="B10" t="n">
-        <v>-9.939796546426031e-10</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -41055,7 +41055,7 @@
         <v>2112000</v>
       </c>
       <c r="F10" t="n">
-        <v>1.19467674777275e-09</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -41084,7 +41084,7 @@
         <v>2112000</v>
       </c>
       <c r="F11" t="n">
-        <v>1.19467674777275e-09</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -41110,10 +41110,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -41139,10 +41139,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -41168,10 +41168,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -41197,10 +41197,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -41226,10 +41226,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -41255,10 +41255,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -41284,10 +41284,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -41313,10 +41313,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -41342,10 +41342,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -41371,10 +41371,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -41400,10 +41400,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -41429,10 +41429,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -41458,10 +41458,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -41487,10 +41487,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -41516,10 +41516,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>2112000</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.19467674777275e-09</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -41731,13 +41731,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -41837,14 +41837,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -41859,7 +41859,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -41881,7 +41881,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -41903,7 +41903,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -41925,7 +41925,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -41947,7 +41947,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -41969,7 +41969,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -41991,7 +41991,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -42013,7 +42013,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -42035,7 +42035,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -42057,7 +42057,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -42079,7 +42079,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -42101,7 +42101,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -42123,7 +42123,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -42145,7 +42145,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BF-BOF-FX</t>
+          <t>H2-DRI-ESF</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -42171,10 +42171,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -42328,7 +42328,7 @@
         <v>709235120000</v>
       </c>
       <c r="E7" t="n">
-        <v>6162028.86266633</v>
+        <v>6083295.68666834</v>
       </c>
     </row>
     <row r="8">
@@ -42345,7 +42345,7 @@
         <v>709235120000</v>
       </c>
       <c r="E8" t="n">
-        <v>6162028.86266633</v>
+        <v>6083295.68666834</v>
       </c>
     </row>
     <row r="9">
@@ -42362,7 +42362,7 @@
         <v>709235120000</v>
       </c>
       <c r="E9" t="n">
-        <v>6162028.86266633</v>
+        <v>6083295.68666834</v>
       </c>
     </row>
     <row r="10">
@@ -43010,7 +43010,7 @@
         <v>46313632.939995</v>
       </c>
       <c r="C7" t="n">
-        <v>1157840.82349987</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2315681.64699975</v>
@@ -43019,10 +43019,10 @@
         <v>2894602.05874969</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2894602.05874969</v>
       </c>
       <c r="G7" t="n">
-        <v>5210283.70574944</v>
+        <v>3473522.47049962</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -43057,7 +43057,7 @@
         <v>46313632.939995</v>
       </c>
       <c r="C8" t="n">
-        <v>1157840.82349988</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>2315681.64699975</v>
@@ -43066,7 +43066,7 @@
         <v>2894602.05874969</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1157840.82349988</v>
       </c>
       <c r="G8" t="n">
         <v>5210283.70574944</v>
@@ -43104,7 +43104,7 @@
         <v>46313632.939995</v>
       </c>
       <c r="C9" t="n">
-        <v>1157840.82349987</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>2315681.64699975</v>
@@ -43113,10 +43113,10 @@
         <v>2894602.05874969</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1157840.82349987</v>
       </c>
       <c r="G9" t="n">
-        <v>5210283.70574944</v>
+        <v>5210283.70574943</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -44179,7 +44179,7 @@
         <v>6117073.17073171</v>
       </c>
       <c r="C6" t="n">
-        <v>321951.219512196</v>
+        <v>321951.219512195</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -44208,7 +44208,7 @@
         <v>6117073.17073171</v>
       </c>
       <c r="C7" t="n">
-        <v>321951.219512196</v>
+        <v>321951.219512195</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>

--- a/results/Model_Output.xlsx
+++ b/results/Model_Output.xlsx
@@ -689,7 +689,7 @@
         <v>34271899.99999999</v>
       </c>
       <c r="J2" t="n">
-        <v>5.727633833885194e-08</v>
+        <v>4.200264811515808e-08</v>
       </c>
       <c r="K2" t="n">
         <v>6854380</v>
@@ -766,7 +766,7 @@
         <v>2378502205000</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.489861966946058e-06</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>11472264695000</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>58962468.29268292</v>
+        <v>58962468.29268293</v>
       </c>
       <c r="V3" t="n">
-        <v>3103287.804878051</v>
+        <v>3103287.80487805</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>58962468.29268292</v>
+        <v>58962468.29268293</v>
       </c>
       <c r="V4" t="n">
-        <v>3103287.804878051</v>
+        <v>3103287.80487805</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>58962468.29268292</v>
+        <v>58962468.29268293</v>
       </c>
       <c r="V5" t="n">
-        <v>3103287.804878051</v>
+        <v>3103287.80487805</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>58962468.29268292</v>
+        <v>58962468.29268293</v>
       </c>
       <c r="V6" t="n">
-        <v>3103287.804878051</v>
+        <v>3103287.80487805</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>3800000000000.001</v>
+        <v>3800000000000.005</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1164,28 +1164,28 @@
         <v>11869464695000</v>
       </c>
       <c r="E7" t="n">
-        <v>15669464695000</v>
+        <v>15669464695000.01</v>
       </c>
       <c r="F7" t="n">
-        <v>59209157.4767763</v>
+        <v>58281508.72415768</v>
       </c>
       <c r="G7" t="n">
         <v>353789842.0286217</v>
       </c>
       <c r="H7" t="n">
-        <v>22834647.26085865</v>
+        <v>17588470.48958071</v>
       </c>
       <c r="I7" t="n">
-        <v>7158350.891287974</v>
+        <v>14955829.91714788</v>
       </c>
       <c r="J7" t="n">
-        <v>15867195.37534522</v>
+        <v>11927207.78307802</v>
       </c>
       <c r="K7" t="n">
-        <v>14123631.82525735</v>
+        <v>20963865.95028872</v>
       </c>
       <c r="L7" t="n">
-        <v>28463635.15440622</v>
+        <v>23012086.36706001</v>
       </c>
       <c r="M7" t="n">
         <v>71809287.87346219</v>
@@ -1206,16 +1206,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>87000000.00000001</v>
+        <v>87000000</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>46728321.9512195</v>
+        <v>46728321.95121951</v>
       </c>
       <c r="V7" t="n">
-        <v>2459385.365853661</v>
+        <v>2459385.365853659</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>10233300</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.275590866309682e-10</v>
+        <v>7.476157218177894e-09</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.279617675470446e-10</v>
+        <v>1.521252081915489e-09</v>
       </c>
       <c r="AA7" t="n">
-        <v>7789534.883720933</v>
+        <v>7789534.883720931</v>
       </c>
       <c r="AB7" t="n">
-        <v>7789534.883720927</v>
+        <v>7789534.883720924</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -1242,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.405392555501467e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF7" t="n">
         <v>5</v>
@@ -1265,25 +1265,25 @@
         <v>11869464695000</v>
       </c>
       <c r="F8" t="n">
-        <v>57946562.74153151</v>
+        <v>57932658.23108211</v>
       </c>
       <c r="G8" t="n">
         <v>353789842.0286217</v>
       </c>
       <c r="H8" t="n">
-        <v>13375956.11348229</v>
+        <v>11602143.97188048</v>
       </c>
       <c r="I8" t="n">
-        <v>11151454.43133317</v>
+        <v>15373810.45443134</v>
       </c>
       <c r="J8" t="n">
-        <v>16059252.22194326</v>
+        <v>11115850.82601054</v>
       </c>
       <c r="K8" t="n">
-        <v>11956587.99397439</v>
+        <v>12346635.62139091</v>
       </c>
       <c r="L8" t="n">
-        <v>35904209.74642229</v>
+        <v>38009019.63344213</v>
       </c>
       <c r="M8" t="n">
         <v>71809287.87346219</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>87000000.00000001</v>
+        <v>87000000</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>46728321.9512195</v>
+        <v>46728321.95121951</v>
       </c>
       <c r="V8" t="n">
-        <v>2459385.365853661</v>
+        <v>2459385.365853659</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1322,16 +1322,16 @@
         <v>10233300</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.275590866309682e-10</v>
+        <v>7.476157218177894e-09</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.698046506300095e-11</v>
+        <v>1.470348533467059e-09</v>
       </c>
       <c r="AA8" t="n">
-        <v>7789534.883720934</v>
+        <v>7789534.883720932</v>
       </c>
       <c r="AB8" t="n">
-        <v>7789534.883720927</v>
+        <v>7789534.883720925</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.405392555501467e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF8" t="n">
         <v>5</v>
@@ -1363,34 +1363,34 @@
         <v>11869464695000</v>
       </c>
       <c r="F9" t="n">
-        <v>57401225.50286715</v>
+        <v>56548341.42682403</v>
       </c>
       <c r="G9" t="n">
-        <v>353789842.0286217</v>
+        <v>353789842.0286216</v>
       </c>
       <c r="H9" t="n">
-        <v>17180476.32939959</v>
+        <v>20217058.6191314</v>
       </c>
       <c r="I9" t="n">
-        <v>10531575.40045192</v>
+        <v>17689492.10143108</v>
       </c>
       <c r="J9" t="n">
-        <v>22111865.12678886</v>
+        <v>22111865.12678885</v>
       </c>
       <c r="K9" t="n">
-        <v>10854757.72031133</v>
+        <v>15461951.08712026</v>
       </c>
       <c r="L9" t="n">
-        <v>27768785.93020361</v>
+        <v>12967093.57268391</v>
       </c>
       <c r="M9" t="n">
-        <v>71809287.87346217</v>
+        <v>71809287.87346226</v>
       </c>
       <c r="N9" t="n">
-        <v>8976160.984182775</v>
+        <v>8976160.984182766</v>
       </c>
       <c r="O9" t="n">
-        <v>8976160.984182779</v>
+        <v>8976160.984182777</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1408,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>46728321.9512195</v>
+        <v>46728321.95121951</v>
       </c>
       <c r="V9" t="n">
-        <v>2459385.365853661</v>
+        <v>2459385.365853659</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>10233300</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.275590866309682e-10</v>
+        <v>7.476157218177894e-09</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.698046506300219e-11</v>
+        <v>1.470348533467058e-09</v>
       </c>
       <c r="AA9" t="n">
-        <v>7789534.883720934</v>
+        <v>7789534.883720932</v>
       </c>
       <c r="AB9" t="n">
-        <v>7789534.883720927</v>
+        <v>7789534.883720923</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -1438,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.405392555501467e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF9" t="n">
         <v>5</v>
@@ -1461,25 +1461,25 @@
         <v>14919111995000</v>
       </c>
       <c r="F10" t="n">
-        <v>44739973.26802912</v>
+        <v>44767522.93258349</v>
       </c>
       <c r="G10" t="n">
         <v>252802965.4029626</v>
       </c>
       <c r="H10" t="n">
-        <v>16953250.0677881</v>
+        <v>22120259.47275923</v>
       </c>
       <c r="I10" t="n">
-        <v>3923488.360532261</v>
+        <v>7861160.271152398</v>
       </c>
       <c r="J10" t="n">
-        <v>13177675.87245795</v>
+        <v>11427888.92794376</v>
       </c>
       <c r="K10" t="n">
-        <v>6549181.888024103</v>
+        <v>7578502.380115489</v>
       </c>
       <c r="L10" t="n">
-        <v>22597145.16193823</v>
+        <v>14212930.29876977</v>
       </c>
       <c r="M10" t="n">
         <v>71809287.87346219</v>
@@ -1503,13 +1503,13 @@
         <v>139332000</v>
       </c>
       <c r="T10" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>1.119449734687805e-08</v>
       </c>
       <c r="U10" t="n">
         <v>33390043.90243902</v>
       </c>
       <c r="V10" t="n">
-        <v>1757370.731707319</v>
+        <v>1757370.731707317</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1518,16 +1518,16 @@
         <v>10233300</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.295484981509964e-09</v>
+        <v>7.476157218177894e-09</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.98561450679614e-11</v>
+        <v>1.470348533467059e-09</v>
       </c>
       <c r="AA10" t="n">
         <v>12475074.41860465</v>
       </c>
       <c r="AB10" t="n">
-        <v>12475074.41860465</v>
+        <v>12475074.41860464</v>
       </c>
       <c r="AC10" t="n">
         <v>6</v>
@@ -1536,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF10" t="n">
         <v>7</v>
@@ -1559,34 +1559,34 @@
         <v>11430311995000</v>
       </c>
       <c r="F11" t="n">
-        <v>43890002.89841827</v>
+        <v>44207027.82077831</v>
       </c>
       <c r="G11" t="n">
-        <v>252802965.4029626</v>
+        <v>252802965.4029627</v>
       </c>
       <c r="H11" t="n">
-        <v>14761457.38890283</v>
+        <v>10986606.84408737</v>
       </c>
       <c r="I11" t="n">
-        <v>12640148.27014813</v>
+        <v>10250943.73085614</v>
       </c>
       <c r="J11" t="n">
-        <v>9197019.121265376</v>
+        <v>7709772.583479773</v>
       </c>
       <c r="K11" t="n">
-        <v>7837279.804167712</v>
+        <v>15275683.44463972</v>
       </c>
       <c r="L11" t="n">
-        <v>18764836.76625659</v>
+        <v>18977734.74767759</v>
       </c>
       <c r="M11" t="n">
-        <v>71809287.87346219</v>
+        <v>71809287.87346223</v>
       </c>
       <c r="N11" t="n">
-        <v>8976160.984182779</v>
+        <v>8976160.984182777</v>
       </c>
       <c r="O11" t="n">
-        <v>8976160.984182779</v>
+        <v>8976160.984182777</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1601,13 +1601,13 @@
         <v>139332000</v>
       </c>
       <c r="T11" t="n">
-        <v>1.06129441417416e-09</v>
+        <v>1.119449734687805e-08</v>
       </c>
       <c r="U11" t="n">
         <v>33390043.90243902</v>
       </c>
       <c r="V11" t="n">
-        <v>1757370.731707319</v>
+        <v>1757370.731707317</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>10233300</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.295484981509964e-09</v>
+        <v>7.476157218177894e-09</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.985614506796036e-11</v>
+        <v>1.470348533467059e-09</v>
       </c>
       <c r="AA11" t="n">
         <v>12475074.41860465</v>
       </c>
       <c r="AB11" t="n">
-        <v>12475074.41860465</v>
+        <v>12475074.41860464</v>
       </c>
       <c r="AC11" t="n">
         <v>6</v>
@@ -1634,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -1657,25 +1657,25 @@
         <v>13246823102500</v>
       </c>
       <c r="F12" t="n">
-        <v>37340172.61953302</v>
+        <v>36762659.56330404</v>
       </c>
       <c r="G12" t="n">
         <v>230641892.041175</v>
       </c>
       <c r="H12" t="n">
-        <v>10367596.19382375</v>
+        <v>7878672.613607833</v>
       </c>
       <c r="I12" t="n">
-        <v>2389783.459703741</v>
+        <v>6940676.816469997</v>
       </c>
       <c r="J12" t="n">
-        <v>11428612.57845845</v>
+        <v>9636274.983680641</v>
       </c>
       <c r="K12" t="n">
-        <v>8675122.37007281</v>
+        <v>11978152.77931207</v>
       </c>
       <c r="L12" t="n">
-        <v>24799358.40823499</v>
+        <v>21226695.8172232</v>
       </c>
       <c r="M12" t="n">
         <v>37502464.27316094</v>
@@ -1684,7 +1684,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="O12" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1699,13 +1699,13 @@
         <v>168594000</v>
       </c>
       <c r="T12" t="n">
-        <v>3.508093128431018e-09</v>
+        <v>1.819105818867684e-08</v>
       </c>
       <c r="U12" t="n">
         <v>30463024.3902439</v>
       </c>
       <c r="V12" t="n">
-        <v>1603317.073170733</v>
+        <v>1603317.073170732</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1714,16 +1714,16 @@
         <v>5344350</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.412859498952442e-09</v>
+        <v>7.243326574524024e-09</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.415227866651356e-10</v>
+        <v>1.359301312395981e-09</v>
       </c>
       <c r="AA12" t="n">
         <v>15095044.18604651</v>
       </c>
       <c r="AB12" t="n">
-        <v>15095044.18604651</v>
+        <v>15095044.1860465</v>
       </c>
       <c r="AC12" t="n">
         <v>5</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF12" t="n">
         <v>10</v>
@@ -1755,25 +1755,25 @@
         <v>12777490152500</v>
       </c>
       <c r="F13" t="n">
-        <v>30342016.5321416</v>
+        <v>31275712.68738137</v>
       </c>
       <c r="G13" t="n">
-        <v>181584176.3494853</v>
+        <v>181584176.3494854</v>
       </c>
       <c r="H13" t="n">
-        <v>8953727.818227468</v>
+        <v>15291169.56565403</v>
       </c>
       <c r="I13" t="n">
-        <v>2799659.111222693</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8596244.463971881</v>
+        <v>7998943.32914888</v>
       </c>
       <c r="K13" t="n">
-        <v>11349011.02184283</v>
+        <v>2752766.557870951</v>
       </c>
       <c r="L13" t="n">
-        <v>13697401.67210645</v>
+        <v>19353164.63469744</v>
       </c>
       <c r="M13" t="n">
         <v>37502464.27316094</v>
@@ -1782,7 +1782,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="O13" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>194016000</v>
       </c>
       <c r="T13" t="n">
-        <v>6.114647174158619e-10</v>
+        <v>2.378830686211587e-08</v>
       </c>
       <c r="U13" t="n">
         <v>23983514.63414634</v>
       </c>
       <c r="V13" t="n">
-        <v>1262290.24390244</v>
+        <v>1262290.243902439</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>5344350</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.116156945986621e-09</v>
+        <v>7.243326574524024e-09</v>
       </c>
       <c r="Z13" t="n">
-        <v>-4.961336868362233e-10</v>
+        <v>1.899398334554499e-09</v>
       </c>
       <c r="AA13" t="n">
         <v>17371200</v>
       </c>
       <c r="AB13" t="n">
-        <v>17371200</v>
+        <v>17371199.99999999</v>
       </c>
       <c r="AC13" t="n">
         <v>4</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -1853,25 +1853,25 @@
         <v>12526045352500</v>
       </c>
       <c r="F14" t="n">
-        <v>22962902.44671855</v>
+        <v>24037482.35768013</v>
       </c>
       <c r="G14" t="n">
-        <v>133788507.1554105</v>
+        <v>133788507.1554106</v>
       </c>
       <c r="H14" t="n">
-        <v>7852621.195079088</v>
+        <v>7852621.195079086</v>
       </c>
       <c r="I14" t="n">
         <v>4591417.785588752</v>
       </c>
       <c r="J14" t="n">
-        <v>8361781.697213157</v>
+        <v>1101106.62314838</v>
       </c>
       <c r="K14" t="n">
-        <v>5375276.023098168</v>
+        <v>8361781.697213156</v>
       </c>
       <c r="L14" t="n">
-        <v>7266030.087873491</v>
+        <v>11540199.48782314</v>
       </c>
       <c r="M14" t="n">
         <v>37502464.2731609</v>
@@ -1895,13 +1895,13 @@
         <v>218784000</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.979189351033752e-09</v>
+        <v>2.93855555355549e-08</v>
       </c>
       <c r="U14" t="n">
         <v>17670695.12195122</v>
       </c>
       <c r="V14" t="n">
-        <v>930036.5853658544</v>
+        <v>930036.5853658539</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1910,16 +1910,16 @@
         <v>5344350</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.620934910780532e-09</v>
+        <v>7.243326574524024e-09</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.566484568785916e-10</v>
+        <v>1.359301312395981e-09</v>
       </c>
       <c r="AA14" t="n">
         <v>19588800</v>
       </c>
       <c r="AB14" t="n">
-        <v>19588800</v>
+        <v>19588799.99999999</v>
       </c>
       <c r="AC14" t="n">
         <v>3</v>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF14" t="n">
         <v>12</v>
@@ -1951,31 +1951,31 @@
         <v>10874845352500</v>
       </c>
       <c r="F15" t="n">
-        <v>23504060.45893046</v>
+        <v>24046703.40199848</v>
       </c>
       <c r="G15" t="n">
-        <v>133788507.1554105</v>
+        <v>133788507.1554106</v>
       </c>
       <c r="H15" t="n">
-        <v>9083984.9108712</v>
+        <v>11706494.37609842</v>
       </c>
       <c r="I15" t="n">
-        <v>4487212.111473763</v>
+        <v>2389204.539291991</v>
       </c>
       <c r="J15" t="n">
-        <v>5375276.023098168</v>
+        <v>5011714.004519206</v>
       </c>
       <c r="K15" t="n">
-        <v>2752766.557870952</v>
+        <v>7811228.385638964</v>
       </c>
       <c r="L15" t="n">
-        <v>11747887.18553856</v>
+        <v>6528485.483303943</v>
       </c>
       <c r="M15" t="n">
-        <v>37502464.27316094</v>
+        <v>37502464.2731609</v>
       </c>
       <c r="N15" t="n">
-        <v>4687808.034145117</v>
+        <v>4687808.034145118</v>
       </c>
       <c r="O15" t="n">
         <v>4687808.034145118</v>
@@ -1993,13 +1993,13 @@
         <v>218784000</v>
       </c>
       <c r="T15" t="n">
-        <v>-7.979189351033752e-09</v>
+        <v>2.93855555355549e-08</v>
       </c>
       <c r="U15" t="n">
         <v>17670695.12195122</v>
       </c>
       <c r="V15" t="n">
-        <v>930036.5853658547</v>
+        <v>930036.5853658539</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>5344350</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.318415582263861e-09</v>
+        <v>7.243326574524024e-09</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.566484568785916e-10</v>
+        <v>1.359301312395981e-09</v>
       </c>
       <c r="AA15" t="n">
         <v>19588800</v>
       </c>
       <c r="AB15" t="n">
-        <v>19588800</v>
+        <v>19588799.99999999</v>
       </c>
       <c r="AC15" t="n">
         <v>3</v>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
@@ -2049,19 +2049,19 @@
         <v>10874845352500</v>
       </c>
       <c r="F16" t="n">
-        <v>23299458.9859302</v>
+        <v>23418378.50123023</v>
       </c>
       <c r="G16" t="n">
         <v>133788507.1554105</v>
       </c>
       <c r="H16" t="n">
-        <v>8008929.70625157</v>
+        <v>8559483.017825758</v>
       </c>
       <c r="I16" t="n">
-        <v>2389204.539291991</v>
+        <v>4591417.785588752</v>
       </c>
       <c r="J16" t="n">
-        <v>8361781.697213157</v>
+        <v>5609015.139342206</v>
       </c>
       <c r="K16" t="n">
         <v>2622509.465227216</v>
@@ -2076,7 +2076,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="O16" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2091,13 +2091,13 @@
         <v>218784000</v>
       </c>
       <c r="T16" t="n">
-        <v>-7.887796307852869e-09</v>
+        <v>2.93855555355549e-08</v>
       </c>
       <c r="U16" t="n">
         <v>17670695.12195122</v>
       </c>
       <c r="V16" t="n">
-        <v>930036.5853658547</v>
+        <v>930036.5853658539</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2106,16 +2106,16 @@
         <v>5344350</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.611497548944192e-09</v>
+        <v>7.243326574524024e-09</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.566484568785916e-10</v>
+        <v>1.359301312395981e-09</v>
       </c>
       <c r="AA16" t="n">
         <v>19588800</v>
       </c>
       <c r="AB16" t="n">
-        <v>19588800</v>
+        <v>19588799.99999999</v>
       </c>
       <c r="AC16" t="n">
         <v>3</v>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF16" t="n">
         <v>12</v>
@@ -2147,25 +2147,25 @@
         <v>12317850902500</v>
       </c>
       <c r="F17" t="n">
-        <v>16392532.0716244</v>
+        <v>16962057.76293246</v>
       </c>
       <c r="G17" t="n">
         <v>86004416.36957069</v>
       </c>
       <c r="H17" t="n">
-        <v>3303319.869445142</v>
+        <v>4772619.87446648</v>
       </c>
       <c r="I17" t="n">
-        <v>2098007.572181773</v>
+        <v>4300220.818478534</v>
       </c>
       <c r="J17" t="n">
-        <v>5375276.023098168</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2622509.465227216</v>
+        <v>2752766.557870952</v>
       </c>
       <c r="L17" t="n">
-        <v>8101991.162440369</v>
+        <v>9675496.841576701</v>
       </c>
       <c r="M17" t="n">
         <v>37502464.2731609</v>
@@ -2189,13 +2189,13 @@
         <v>243546000</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.179421929920504e-08</v>
+        <v>3.498280420899392e-08</v>
       </c>
       <c r="U17" t="n">
         <v>11359404.87804878</v>
       </c>
       <c r="V17" t="n">
-        <v>597863.414634147</v>
+        <v>597863.4146341465</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>5344350</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.370400438778233e-09</v>
+        <v>7.243326574524024e-09</v>
       </c>
       <c r="Z17" t="n">
-        <v>-1.70860853883471e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="AA17" t="n">
-        <v>21805862.79069769</v>
+        <v>21805862.79069767</v>
       </c>
       <c r="AB17" t="n">
         <v>21805862.79069767</v>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF17" t="n">
         <v>13</v>
@@ -2245,25 +2245,25 @@
         <v>10667050902500</v>
       </c>
       <c r="F18" t="n">
-        <v>16392532.07162441</v>
+        <v>16412775.76058248</v>
       </c>
       <c r="G18" t="n">
         <v>86004416.36957069</v>
       </c>
       <c r="H18" t="n">
-        <v>3303319.869445142</v>
+        <v>3827821.762490582</v>
       </c>
       <c r="I18" t="n">
-        <v>2098007.572181773</v>
+        <v>2202213.246296762</v>
       </c>
       <c r="J18" t="n">
         <v>5375276.023098168</v>
       </c>
       <c r="K18" t="n">
-        <v>2622509.465227216</v>
+        <v>5375276.023098167</v>
       </c>
       <c r="L18" t="n">
-        <v>8101991.162440369</v>
+        <v>4720517.037408989</v>
       </c>
       <c r="M18" t="n">
         <v>37502464.27316094</v>
@@ -2272,7 +2272,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="O18" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>243546000</v>
       </c>
       <c r="T18" t="n">
-        <v>-1.179421929920504e-08</v>
+        <v>3.498280420899392e-08</v>
       </c>
       <c r="U18" t="n">
         <v>11359404.87804878</v>
       </c>
       <c r="V18" t="n">
-        <v>597863.414634147</v>
+        <v>597863.4146341465</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2302,13 +2302,13 @@
         <v>5344350</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.162922332480725e-09</v>
+        <v>7.243326574524024e-09</v>
       </c>
       <c r="Z18" t="n">
-        <v>-1.70860853883471e-09</v>
+        <v>1.359301312395981e-09</v>
       </c>
       <c r="AA18" t="n">
-        <v>21805862.79069768</v>
+        <v>21805862.79069767</v>
       </c>
       <c r="AB18" t="n">
         <v>21805862.79069768</v>
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
@@ -2358,10 +2358,10 @@
         <v>2752766.557870952</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>2202213.24629676</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-2.975794109937685e-11</v>
       </c>
       <c r="M19" t="n">
         <v>37502464.27316094</v>
@@ -2370,7 +2370,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="O19" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2385,13 +2385,13 @@
         <v>265290000</v>
       </c>
       <c r="T19" t="n">
-        <v>-5.456929328160093e-09</v>
+        <v>4.058005288243295e-08</v>
       </c>
       <c r="U19" t="n">
         <v>5817336.585365853</v>
       </c>
       <c r="V19" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2400,17 +2400,17 @@
         <v>5344350</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.618477751616655e-09</v>
+        <v>7.243326574524024e-09</v>
       </c>
       <c r="Z19" t="n">
-        <v>-1.70860853883471e-09</v>
+        <v>1.359301312395981e-09</v>
       </c>
       <c r="AA19" t="n">
+        <v>23752709.30232558</v>
+      </c>
+      <c r="AB19" t="n">
         <v>23752709.30232559</v>
       </c>
-      <c r="AB19" t="n">
-        <v>23752709.3023256</v>
-      </c>
       <c r="AC19" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF19" t="n">
         <v>14</v>
@@ -2441,7 +2441,7 @@
         <v>10484582502500</v>
       </c>
       <c r="F20" t="n">
-        <v>10592576.24423801</v>
+        <v>10918503.80468993</v>
       </c>
       <c r="G20" t="n">
         <v>44044264.92593523</v>
@@ -2450,16 +2450,16 @@
         <v>3853873.181019333</v>
       </c>
       <c r="I20" t="n">
-        <v>2202213.246296762</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>2752766.557870952</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2202213.24629676</v>
+        <v>4404426.492593521</v>
       </c>
       <c r="M20" t="n">
         <v>37502464.27316094</v>
@@ -2468,7 +2468,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="O20" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2483,13 +2483,13 @@
         <v>265290000</v>
       </c>
       <c r="T20" t="n">
-        <v>-5.456929328160093e-09</v>
+        <v>4.058005288243295e-08</v>
       </c>
       <c r="U20" t="n">
         <v>5817336.585365853</v>
       </c>
       <c r="V20" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2498,13 +2498,13 @@
         <v>5344350</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.02205070305595e-09</v>
+        <v>7.243326574524024e-09</v>
       </c>
       <c r="Z20" t="n">
-        <v>-1.70860853883471e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="AA20" t="n">
-        <v>23752709.30232559</v>
+        <v>23752709.30232558</v>
       </c>
       <c r="AB20" t="n">
         <v>23752709.30232559</v>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
@@ -2545,19 +2545,19 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>37502464.27316094</v>
@@ -2566,7 +2566,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="O21" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>288114000</v>
       </c>
       <c r="T21" t="n">
-        <v>-2.400773703293961e-09</v>
+        <v>4.617730155587197e-08</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2596,25 +2596,25 @@
         <v>5344350</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.031451627146962e-09</v>
+        <v>6.798357784630116e-09</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.566484568785916e-10</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="AA21" t="n">
-        <v>25796253.4883721</v>
+        <v>25796253.48837209</v>
       </c>
       <c r="AB21" t="n">
-        <v>25796253.48837211</v>
+        <v>25796253.48837209</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.224515809476654e-18</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF21" t="n">
         <v>15</v>
@@ -2640,22 +2640,22 @@
         <v>4545298.669907106</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.636118099339919e-10</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>37502464.27316094</v>
@@ -2664,7 +2664,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="O22" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>288114000</v>
       </c>
       <c r="T22" t="n">
-        <v>-2.400773703293961e-09</v>
+        <v>4.617730155587197e-08</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2694,25 +2694,25 @@
         <v>5344350</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.564786806881194e-09</v>
+        <v>7.755553990562538e-09</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.415227866651331e-10</v>
+        <v>1.359301312395981e-09</v>
       </c>
       <c r="AA22" t="n">
         <v>25796253.48837209</v>
       </c>
       <c r="AB22" t="n">
-        <v>25796253.4883721</v>
+        <v>25796253.48837208</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.224515809476654e-18</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF22" t="n">
         <v>15</v>
@@ -2777,7 +2777,7 @@
         <v>307548000</v>
       </c>
       <c r="T23" t="n">
-        <v>-9.500952867751846e-09</v>
+        <v>5.457317456603052e-08</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2792,17 +2792,17 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.216958624449278e-10</v>
+        <v>7.476157218177894e-09</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.211147250192131e-09</v>
+        <v>1.359301312395981e-09</v>
       </c>
       <c r="AA23" t="n">
+        <v>27536274.41860465</v>
+      </c>
+      <c r="AB23" t="n">
         <v>27536274.41860466</v>
       </c>
-      <c r="AB23" t="n">
-        <v>27536274.41860468</v>
-      </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF23" t="n">
         <v>16</v>
@@ -2875,7 +2875,7 @@
         <v>307548000</v>
       </c>
       <c r="T24" t="n">
-        <v>-8.84476395728802e-09</v>
+        <v>5.1774550229311e-08</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2890,16 +2890,16 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.929978111459413e-09</v>
+        <v>7.243326574524024e-09</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.415227866651343e-10</v>
+        <v>1.359301312395981e-09</v>
       </c>
       <c r="AA24" t="n">
         <v>27536274.41860465</v>
       </c>
       <c r="AB24" t="n">
-        <v>27536274.41860466</v>
+        <v>27536274.41860465</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF24" t="n">
         <v>16</v>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>307548000</v>
+        <v>307548000.0000001</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.254805678546588e-08</v>
+        <v>5.737179890275003e-08</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2988,16 +2988,16 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.246389269080132e-09</v>
+        <v>7.243326574524024e-09</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.436512835776587e-10</v>
+        <v>1.359301312395981e-09</v>
       </c>
       <c r="AA25" t="n">
         <v>27536274.41860465</v>
       </c>
       <c r="AB25" t="n">
-        <v>27536274.41860467</v>
+        <v>27536274.41860465</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -3071,7 +3071,7 @@
         <v>307548000</v>
       </c>
       <c r="T26" t="n">
-        <v>1.739802994043038e-08</v>
+        <v>2.260230512612384e-08</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.896339416800288e-09</v>
+        <v>9.525066882331949e-09</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.436512835776587e-10</v>
+        <v>1.359301312395981e-09</v>
       </c>
       <c r="AA26" t="n">
         <v>27536274.41860465</v>
       </c>
       <c r="AB26" t="n">
-        <v>27536274.41860468</v>
+        <v>27536274.41860466</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.877619134992688e-16</v>
+        <v>1.132751093663317e-15</v>
       </c>
       <c r="AF26" t="n">
         <v>16</v>
@@ -3169,7 +3169,7 @@
         <v>307548000</v>
       </c>
       <c r="T27" t="n">
-        <v>1.102153701637576e-08</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3184,16 +3184,16 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.843320997030648e-10</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.500417691748121e-11</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>27536274.41860465</v>
       </c>
       <c r="AB27" t="n">
-        <v>27536274.41860465</v>
+        <v>27536274.41860466</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.722265794912219e-17</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
         <v>16</v>
@@ -3976,7 +3976,7 @@
         <v>952331400000</v>
       </c>
       <c r="E7" t="n">
-        <v>6780614.585347729</v>
+        <v>6047277.574330907</v>
       </c>
     </row>
     <row r="8">
@@ -3993,7 +3993,7 @@
         <v>952331400000</v>
       </c>
       <c r="E8" t="n">
-        <v>5785214.198021593</v>
+        <v>6267498.898960583</v>
       </c>
     </row>
     <row r="9">
@@ -4044,7 +4044,7 @@
         <v>952331400000</v>
       </c>
       <c r="E11" t="n">
-        <v>6128759.464443888</v>
+        <v>5785214.19802159</v>
       </c>
     </row>
     <row r="12">
@@ -4061,7 +4061,7 @@
         <v>952331400000</v>
       </c>
       <c r="E12" t="n">
-        <v>6373205.134782827</v>
+        <v>6148579.383660558</v>
       </c>
     </row>
     <row r="13">
@@ -4078,7 +4078,7 @@
         <v>952331400000</v>
       </c>
       <c r="E13" t="n">
-        <v>6267498.898960583</v>
+        <v>6780614.585347726</v>
       </c>
     </row>
     <row r="14">
@@ -4095,7 +4095,7 @@
         <v>952331400000</v>
       </c>
       <c r="E14" t="n">
-        <v>5785214.198021594</v>
+        <v>6029659.868360532</v>
       </c>
     </row>
     <row r="15">
@@ -4112,7 +4112,7 @@
         <v>952331400000</v>
       </c>
       <c r="E15" t="n">
-        <v>6373205.13478283</v>
+        <v>6780614.585347729</v>
       </c>
     </row>
     <row r="16">
@@ -4129,7 +4129,7 @@
         <v>952331400000</v>
       </c>
       <c r="E16" t="n">
-        <v>6335767.509595782</v>
+        <v>6454687.024895808</v>
       </c>
     </row>
     <row r="17">
@@ -4146,7 +4146,7 @@
         <v>952331400000</v>
       </c>
       <c r="E17" t="n">
-        <v>6335767.509595782</v>
+        <v>6267498.898960583</v>
       </c>
     </row>
     <row r="18">
@@ -4163,7 +4163,7 @@
         <v>952331400000</v>
       </c>
       <c r="E18" t="n">
-        <v>6335767.509595782</v>
+        <v>6009839.949143861</v>
       </c>
     </row>
     <row r="19">
@@ -4197,7 +4197,7 @@
         <v>952331400000</v>
       </c>
       <c r="E20" t="n">
-        <v>6047277.574330907</v>
+        <v>6373205.134782827</v>
       </c>
     </row>
     <row r="21">
@@ -4661,16 +4661,16 @@
         <v>3853873.181019333</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2202213.246296762</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2752766.557870952</v>
       </c>
       <c r="F7" t="n">
-        <v>2202213.246296761</v>
+        <v>2202213.24629676</v>
       </c>
       <c r="G7" t="n">
-        <v>4954979.804167712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4705,19 +4705,19 @@
         <v>44044264.92593523</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1101106.623148379</v>
       </c>
       <c r="D8" t="n">
         <v>2202213.246296762</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>2752766.557870952</v>
       </c>
-      <c r="F8" t="n">
-        <v>1101106.62314838</v>
-      </c>
       <c r="G8" t="n">
-        <v>4954979.804167712</v>
+        <v>4954979.804167713</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>44044264.92593523</v>
       </c>
       <c r="C9" t="n">
-        <v>1101106.62314838</v>
+        <v>1101106.623148378</v>
       </c>
       <c r="D9" t="n">
         <v>2202213.246296762</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4954979.804167712</v>
+        <v>4954979.804167713</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -4808,10 +4808,10 @@
         <v>2752766.557870952</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2202213.24629676</v>
       </c>
       <c r="G10" t="n">
-        <v>2202213.24629676</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>2034</v>
       </c>
       <c r="B11" t="n">
-        <v>44044264.92593523</v>
+        <v>44044264.92593525</v>
       </c>
       <c r="C11" t="n">
-        <v>3853873.181019333</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2202213.246296762</v>
+        <v>2202213.246296761</v>
       </c>
       <c r="E11" t="n">
-        <v>2202213.24629676</v>
+        <v>2752766.557870951</v>
       </c>
       <c r="F11" t="n">
-        <v>2752766.557870952</v>
+        <v>2752766.557870951</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3303319.869445114</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>44044264.92593523</v>
       </c>
       <c r="C12" t="n">
-        <v>3853873.181019333</v>
+        <v>550553.3115741898</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4902,10 +4902,10 @@
         <v>2752766.557870952</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2752766.557870952</v>
       </c>
       <c r="G12" t="n">
-        <v>4404426.492593521</v>
+        <v>4954979.804167712</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -4937,22 +4937,22 @@
         <v>2036</v>
       </c>
       <c r="B13" t="n">
-        <v>44044264.92593523</v>
+        <v>44044264.92593525</v>
       </c>
       <c r="C13" t="n">
-        <v>1101106.62314838</v>
+        <v>3853873.181019333</v>
       </c>
       <c r="D13" t="n">
-        <v>2202213.246296762</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2752766.557870952</v>
+        <v>2752766.557870951</v>
       </c>
       <c r="G13" t="n">
-        <v>4954979.804167712</v>
+        <v>4404426.492593494</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>2037</v>
       </c>
       <c r="B14" t="n">
-        <v>44044264.92593521</v>
+        <v>44044264.92593523</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -4993,13 +4993,13 @@
         <v>2202213.246296762</v>
       </c>
       <c r="E14" t="n">
-        <v>2752766.557870952</v>
+        <v>1101106.62314838</v>
       </c>
       <c r="F14" t="n">
         <v>2752766.557870952</v>
       </c>
       <c r="G14" t="n">
-        <v>3303319.869445163</v>
+        <v>4954979.804167712</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>2038</v>
       </c>
       <c r="B15" t="n">
-        <v>44044264.92593521</v>
+        <v>44044264.92593523</v>
       </c>
       <c r="C15" t="n">
         <v>3853873.181019333</v>
@@ -5040,13 +5040,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2752766.557870952</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2752766.557870952</v>
+        <v>2202213.246296761</v>
       </c>
       <c r="G15" t="n">
-        <v>1651659.934722591</v>
+        <v>4954979.804167712</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -5081,13 +5081,13 @@
         <v>44044264.92593523</v>
       </c>
       <c r="C16" t="n">
-        <v>3303319.869445142</v>
+        <v>3853873.181019333</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2202213.246296762</v>
       </c>
       <c r="E16" t="n">
-        <v>2752766.557870952</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5128,16 +5128,16 @@
         <v>44044264.92593523</v>
       </c>
       <c r="C17" t="n">
-        <v>3303319.869445142</v>
+        <v>1101106.62314838</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2202213.246296762</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>2752766.557870952</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>4954979.804167712</v>
@@ -5175,19 +5175,19 @@
         <v>44044264.92593523</v>
       </c>
       <c r="C18" t="n">
-        <v>3303319.869445142</v>
+        <v>3303319.86944514</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2202213.246296762</v>
       </c>
       <c r="E18" t="n">
         <v>2752766.557870952</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2752766.557870951</v>
       </c>
       <c r="G18" t="n">
-        <v>4954979.804167712</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -5231,10 +5231,10 @@
         <v>2752766.557870952</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>2202213.24629676</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>3853873.181019333</v>
       </c>
       <c r="D20" t="n">
-        <v>2202213.246296762</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>2752766.557870952</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2202213.24629676</v>
+        <v>4404426.492593521</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>22824000</v>
       </c>
       <c r="O21" t="n">
-        <v>3.056155624866131e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="22">
@@ -5399,7 +5399,7 @@
         <v>22824000</v>
       </c>
       <c r="O22" t="n">
-        <v>3.056155624866131e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="23">
@@ -5446,7 +5446,7 @@
         <v>22824000</v>
       </c>
       <c r="O23" t="n">
-        <v>3.056155624866131e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="24">
@@ -5493,7 +5493,7 @@
         <v>22824000</v>
       </c>
       <c r="O24" t="n">
-        <v>3.056155624866131e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="25">
@@ -5540,7 +5540,7 @@
         <v>22824000</v>
       </c>
       <c r="O25" t="n">
-        <v>3.056155624866131e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="26">
@@ -5587,7 +5587,7 @@
         <v>22824000</v>
       </c>
       <c r="O26" t="n">
-        <v>3.056155624866131e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="27">
@@ -5634,7 +5634,7 @@
         <v>22824000</v>
       </c>
       <c r="O27" t="n">
-        <v>1.269098159895065e-09</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -5740,7 +5740,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C3" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -5769,7 +5769,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C4" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C5" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C6" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C7" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C8" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C9" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5943,7 +5943,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C10" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C11" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C12" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -6030,7 +6030,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C13" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -6059,7 +6059,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C14" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C15" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -6117,7 +6117,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C16" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C17" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C18" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C19" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -6233,7 +6233,7 @@
         <v>5817336.585365853</v>
       </c>
       <c r="C20" t="n">
-        <v>306175.6097560979</v>
+        <v>306175.6097560976</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -6271,16 +6271,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0</v>
+        <v>-4.449687898939088e-10</v>
       </c>
       <c r="G21" t="n">
         <v>-0</v>
       </c>
       <c r="H21" t="n">
-        <v>2043544.186046512</v>
+        <v>2043544.186046511</v>
       </c>
       <c r="I21" t="n">
-        <v>2043544.186046511</v>
+        <v>2043544.186046513</v>
       </c>
     </row>
     <row r="22">
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>4.58067222730913e-10</v>
+        <v>-0</v>
       </c>
       <c r="G22" t="n">
         <v>-0</v>
@@ -6338,7 +6338,7 @@
         <v>2043544.186046512</v>
       </c>
       <c r="I23" t="n">
-        <v>2043544.186046509</v>
+        <v>2043544.186046513</v>
       </c>
     </row>
     <row r="24">
@@ -6367,7 +6367,7 @@
         <v>2043544.186046512</v>
       </c>
       <c r="I24" t="n">
-        <v>2043544.186046511</v>
+        <v>2043544.186046513</v>
       </c>
     </row>
     <row r="25">
@@ -6396,7 +6396,7 @@
         <v>2043544.186046512</v>
       </c>
       <c r="I25" t="n">
-        <v>2043544.186046511</v>
+        <v>2043544.186046513</v>
       </c>
     </row>
     <row r="26">
@@ -6425,7 +6425,7 @@
         <v>2043544.186046512</v>
       </c>
       <c r="I26" t="n">
-        <v>2043544.186046511</v>
+        <v>2043544.186046513</v>
       </c>
     </row>
     <row r="27">
@@ -6454,7 +6454,7 @@
         <v>2043544.186046512</v>
       </c>
       <c r="I27" t="n">
-        <v>2043544.186046511</v>
+        <v>2043544.186046513</v>
       </c>
     </row>
   </sheetData>
@@ -7151,7 +7151,7 @@
         <v>1378502205000</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.489861966946058e-06</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>689251102500</v>
@@ -7293,7 +7293,7 @@
         <v>689251102500</v>
       </c>
       <c r="E11" t="n">
-        <v>4545298.669907103</v>
+        <v>4545298.669907106</v>
       </c>
     </row>
     <row r="12">
@@ -7361,7 +7361,7 @@
         <v>689251102500</v>
       </c>
       <c r="E15" t="n">
-        <v>4545298.669907106</v>
+        <v>4545298.669907103</v>
       </c>
     </row>
     <row r="16">
@@ -7719,16 +7719,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -7763,19 +7763,19 @@
         <v>2027</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -7810,19 +7810,19 @@
         <v>2028</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.619134298810031e-10</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7857,19 +7857,19 @@
         <v>2029</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.619134298810031e-10</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7907,19 +7907,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>37502464.2731609</v>
@@ -7951,22 +7951,22 @@
         <v>2031</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.636118099339919e-10</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
         <v>37502464.2731609</v>
@@ -8001,19 +8001,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-2.313462901528251e-10</v>
       </c>
       <c r="H9" t="n">
         <v>37502464.27316094</v>
@@ -8022,7 +8022,7 @@
         <v>4687808.034145118</v>
       </c>
       <c r="J9" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8045,22 +8045,22 @@
         <v>2033</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.636118099339919e-10</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>37502464.2731609</v>
@@ -8092,31 +8092,31 @@
         <v>2034</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.636118099339919e-10</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>37502464.2731609</v>
+        <v>37502464.27316094</v>
       </c>
       <c r="I11" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="J11" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
         <v>37502464.27316094</v>
@@ -8163,7 +8163,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="J12" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8186,22 +8186,22 @@
         <v>2036</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.636118099339919e-10</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
         <v>37502464.27316094</v>
@@ -8210,7 +8210,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="J13" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8236,19 +8236,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
         <v>37502464.2731609</v>
@@ -8280,28 +8280,28 @@
         <v>2038</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.636118099339919e-10</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>37502464.27316094</v>
+        <v>37502464.2731609</v>
       </c>
       <c r="I15" t="n">
-        <v>4687808.034145117</v>
+        <v>4687808.034145118</v>
       </c>
       <c r="J15" t="n">
         <v>4687808.034145118</v>
@@ -8330,19 +8330,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
         <v>37502464.27316094</v>
@@ -8351,7 +8351,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="J16" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8374,22 +8374,22 @@
         <v>2040</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.636118099339919e-10</v>
+        <v>-0</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H17" t="n">
         <v>37502464.2731609</v>
@@ -8424,19 +8424,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H18" t="n">
         <v>37502464.27316094</v>
@@ -8445,7 +8445,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="J18" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8468,22 +8468,22 @@
         <v>2042</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H19" t="n">
         <v>37502464.27316094</v>
@@ -8492,7 +8492,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="J19" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8518,19 +8518,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H20" t="n">
         <v>37502464.27316094</v>
@@ -8539,7 +8539,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="J20" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8565,19 +8565,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H21" t="n">
         <v>37502464.27316094</v>
@@ -8586,7 +8586,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="J21" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8609,22 +8609,22 @@
         <v>2045</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.636118099339919e-10</v>
+        <v>-0</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.314506529951532e-11</v>
+        <v>-0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.322575159972304e-11</v>
+        <v>-0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.65321894996538e-11</v>
+        <v>-0</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.975794109937685e-11</v>
+        <v>-0</v>
       </c>
       <c r="H22" t="n">
         <v>37502464.27316094</v>
@@ -8633,7 +8633,7 @@
         <v>4687808.034145117</v>
       </c>
       <c r="J22" t="n">
-        <v>4687808.034145118</v>
+        <v>4687808.034145117</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>19434000</v>
       </c>
       <c r="O23" t="n">
-        <v>-4.053075246743853e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="24">
@@ -8742,7 +8742,7 @@
         <v>19434000</v>
       </c>
       <c r="O24" t="n">
-        <v>-4.053075246743853e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="25">
@@ -8789,7 +8789,7 @@
         <v>19434000</v>
       </c>
       <c r="O25" t="n">
-        <v>-4.053075246743853e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="26">
@@ -8836,7 +8836,7 @@
         <v>19434000</v>
       </c>
       <c r="O26" t="n">
-        <v>-4.053075246743853e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="27">
@@ -8883,7 +8883,7 @@
         <v>19434000</v>
       </c>
       <c r="O27" t="n">
-        <v>1.080601719216645e-09</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.274516083992461e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -9305,10 +9305,10 @@
         <v>2037</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.326599106637656e-11</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.464558918584658e-10</v>
+        <v>-0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.933420421655455e-11</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-2.024614292642345e-10</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-2.024614292642345e-10</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>-0</v>
       </c>
       <c r="C19" t="n">
-        <v>-9.979797319912966e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>9.979797319912966e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>-0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.274516083992461e-10</v>
+        <v>-0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-2.024614292642345e-10</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.274516083992461e-10</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-7.212662668174669e-11</v>
+        <v>-0</v>
       </c>
       <c r="G23" t="n">
         <v>-0</v>
@@ -9587,7 +9587,7 @@
         <v>1740020.930232558</v>
       </c>
       <c r="I23" t="n">
-        <v>1740020.930232565</v>
+        <v>1740020.930232558</v>
       </c>
     </row>
     <row r="24">
@@ -9616,7 +9616,7 @@
         <v>1740020.930232558</v>
       </c>
       <c r="I24" t="n">
-        <v>1740020.930232557</v>
+        <v>1740020.930232559</v>
       </c>
     </row>
     <row r="25">
@@ -9645,7 +9645,7 @@
         <v>1740020.930232558</v>
       </c>
       <c r="I25" t="n">
-        <v>1740020.930232557</v>
+        <v>1740020.930232558</v>
       </c>
     </row>
     <row r="26">
@@ -9674,7 +9674,7 @@
         <v>1740020.930232558</v>
       </c>
       <c r="I26" t="n">
-        <v>1740020.930232557</v>
+        <v>1740020.930232558</v>
       </c>
     </row>
     <row r="27">
@@ -9703,7 +9703,7 @@
         <v>1740020.930232558</v>
       </c>
       <c r="I27" t="n">
-        <v>1740020.930232557</v>
+        <v>1740020.930232558</v>
       </c>
     </row>
   </sheetData>
@@ -10474,7 +10474,7 @@
         <v>1182152700000</v>
       </c>
       <c r="E7" t="n">
-        <v>7632384.818518706</v>
+        <v>8370473.608275171</v>
       </c>
     </row>
     <row r="8">
@@ -10491,7 +10491,7 @@
         <v>1182152700000</v>
       </c>
       <c r="E8" t="n">
-        <v>7484767.060567413</v>
+        <v>8012363.862134071</v>
       </c>
     </row>
     <row r="9">
@@ -10508,7 +10508,7 @@
         <v>1182152700000</v>
       </c>
       <c r="E9" t="n">
-        <v>7460164.100908863</v>
+        <v>7460164.100908864</v>
       </c>
     </row>
     <row r="10">
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -10556,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -10641,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -10658,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -10675,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -10794,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>944400000000.0001</v>
+        <v>944400000000</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -13440,19 +13440,19 @@
         <v>54673243.68566408</v>
       </c>
       <c r="C7" t="n">
-        <v>683415.5460707992</v>
+        <v>4100493.276424804</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3417077.730354005</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>3417077.730354005</v>
       </c>
       <c r="G7" t="n">
-        <v>6150739.914637208</v>
+        <v>6150739.914637209</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -13487,19 +13487,19 @@
         <v>54673243.68566408</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4783908.822495608</v>
       </c>
       <c r="D8" t="n">
-        <v>683415.5460707992</v>
+        <v>2733662.184283204</v>
       </c>
       <c r="E8" t="n">
-        <v>3417077.730354005</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3417077.730354005</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6150739.914637208</v>
+        <v>6150739.914637207</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -13534,10 +13534,10 @@
         <v>54673243.68566408</v>
       </c>
       <c r="C9" t="n">
-        <v>4100493.276424802</v>
+        <v>4100493.276424805</v>
       </c>
       <c r="D9" t="n">
-        <v>2733662.184283204</v>
+        <v>2733662.184283203</v>
       </c>
       <c r="E9" t="n">
         <v>3417077.730354005</v>
@@ -13617,7 +13617,7 @@
         <v>28332000</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="11">
@@ -13664,7 +13664,7 @@
         <v>28332000</v>
       </c>
       <c r="O11" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="12">
@@ -13711,7 +13711,7 @@
         <v>28332000</v>
       </c>
       <c r="O12" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="13">
@@ -13758,7 +13758,7 @@
         <v>28332000</v>
       </c>
       <c r="O13" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="14">
@@ -13805,7 +13805,7 @@
         <v>28332000</v>
       </c>
       <c r="O14" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="15">
@@ -13852,7 +13852,7 @@
         <v>28332000</v>
       </c>
       <c r="O15" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="16">
@@ -13899,7 +13899,7 @@
         <v>28332000</v>
       </c>
       <c r="O16" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="17">
@@ -13946,7 +13946,7 @@
         <v>28332000</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="18">
@@ -13993,7 +13993,7 @@
         <v>28332000</v>
       </c>
       <c r="O18" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="19">
@@ -14040,7 +14040,7 @@
         <v>28332000</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="20">
@@ -14087,7 +14087,7 @@
         <v>28332000</v>
       </c>
       <c r="O20" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="21">
@@ -14134,7 +14134,7 @@
         <v>28332000</v>
       </c>
       <c r="O21" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="22">
@@ -14181,7 +14181,7 @@
         <v>28332000</v>
       </c>
       <c r="O22" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="23">
@@ -14228,7 +14228,7 @@
         <v>28332000</v>
       </c>
       <c r="O23" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="24">
@@ -14275,7 +14275,7 @@
         <v>28332000</v>
       </c>
       <c r="O24" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="25">
@@ -14322,7 +14322,7 @@
         <v>28332000</v>
       </c>
       <c r="O25" t="n">
-        <v>-3.631285767806526e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="26">
@@ -14369,7 +14369,7 @@
         <v>28332000</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="27">
@@ -14519,10 +14519,10 @@
         <v>2026</v>
       </c>
       <c r="B3" t="n">
-        <v>7221204.878048779</v>
+        <v>7221204.87804878</v>
       </c>
       <c r="C3" t="n">
-        <v>380063.4146341467</v>
+        <v>380063.4146341464</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -14548,10 +14548,10 @@
         <v>2027</v>
       </c>
       <c r="B4" t="n">
-        <v>7221204.878048779</v>
+        <v>7221204.87804878</v>
       </c>
       <c r="C4" t="n">
-        <v>380063.4146341467</v>
+        <v>380063.4146341464</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -14577,10 +14577,10 @@
         <v>2028</v>
       </c>
       <c r="B5" t="n">
-        <v>7221204.878048779</v>
+        <v>7221204.87804878</v>
       </c>
       <c r="C5" t="n">
-        <v>380063.4146341467</v>
+        <v>380063.4146341464</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -14606,10 +14606,10 @@
         <v>2029</v>
       </c>
       <c r="B6" t="n">
-        <v>7221204.878048779</v>
+        <v>7221204.87804878</v>
       </c>
       <c r="C6" t="n">
-        <v>380063.4146341467</v>
+        <v>380063.4146341464</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -14635,10 +14635,10 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>7221204.878048779</v>
+        <v>7221204.87804878</v>
       </c>
       <c r="C7" t="n">
-        <v>380063.4146341467</v>
+        <v>380063.4146341464</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -14664,10 +14664,10 @@
         <v>2031</v>
       </c>
       <c r="B8" t="n">
-        <v>7221204.878048779</v>
+        <v>7221204.87804878</v>
       </c>
       <c r="C8" t="n">
-        <v>380063.4146341467</v>
+        <v>380063.4146341464</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -14693,10 +14693,10 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>7221204.878048779</v>
+        <v>7221204.87804878</v>
       </c>
       <c r="C9" t="n">
-        <v>380063.4146341467</v>
+        <v>380063.4146341464</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -14734,10 +14734,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G10" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>2536702.325581395</v>
@@ -14763,10 +14763,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
         <v>2536702.325581395</v>
@@ -14792,10 +14792,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
         <v>2536702.325581395</v>
@@ -14821,10 +14821,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G13" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
         <v>2536702.325581395</v>
@@ -14850,10 +14850,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
         <v>2536702.325581395</v>
@@ -14879,10 +14879,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>2536702.325581395</v>
@@ -14908,10 +14908,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
         <v>2536702.325581395</v>
@@ -14937,10 +14937,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H17" t="n">
         <v>2536702.325581395</v>
@@ -14966,10 +14966,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H18" t="n">
         <v>2536702.325581395</v>
@@ -14995,10 +14995,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H19" t="n">
         <v>2536702.325581395</v>
@@ -15024,10 +15024,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H20" t="n">
         <v>2536702.325581395</v>
@@ -15053,10 +15053,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H21" t="n">
         <v>2536702.325581395</v>
@@ -15082,10 +15082,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H22" t="n">
         <v>2536702.325581395</v>
@@ -15111,10 +15111,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H23" t="n">
         <v>2536702.325581395</v>
@@ -15140,10 +15140,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G24" t="n">
-        <v>7.287568000495812e-11</v>
+        <v>-0</v>
       </c>
       <c r="H24" t="n">
         <v>2536702.325581395</v>
@@ -15169,10 +15169,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.500417691748121e-11</v>
+        <v>-0</v>
       </c>
       <c r="H25" t="n">
         <v>2536702.325581395</v>
@@ -15198,10 +15198,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.500417691748121e-11</v>
+        <v>-0</v>
       </c>
       <c r="H26" t="n">
         <v>2536702.325581395</v>
@@ -15227,10 +15227,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3.679258948789957e-10</v>
+        <v>-0</v>
       </c>
       <c r="G27" t="n">
-        <v>7.500417691748121e-11</v>
+        <v>-0</v>
       </c>
       <c r="H27" t="n">
         <v>2536702.325581395</v>
@@ -15922,7 +15922,7 @@
         <v>1060732950000</v>
       </c>
       <c r="E2" t="n">
-        <v>6733728.516000002</v>
+        <v>6733728.516000001</v>
       </c>
     </row>
     <row r="3">
@@ -16007,7 +16007,7 @@
         <v>1060732950000</v>
       </c>
       <c r="E7" t="n">
-        <v>6735624.364468994</v>
+        <v>6980912.942927442</v>
       </c>
     </row>
     <row r="8">
@@ -16024,7 +16024,7 @@
         <v>1060732950000</v>
       </c>
       <c r="E8" t="n">
-        <v>7189408.234617123</v>
+        <v>6716001.278192318</v>
       </c>
     </row>
     <row r="9">
@@ -16041,7 +16041,7 @@
         <v>1060732950000</v>
       </c>
       <c r="E9" t="n">
-        <v>6716001.278192317</v>
+        <v>6527129.072779309</v>
       </c>
     </row>
     <row r="10">
@@ -16058,7 +16058,7 @@
         <v>1060732950000</v>
       </c>
       <c r="E10" t="n">
-        <v>6716001.278192318</v>
+        <v>6735624.364468995</v>
       </c>
     </row>
     <row r="11">
@@ -16075,7 +16075,7 @@
         <v>1060732950000</v>
       </c>
       <c r="E11" t="n">
-        <v>7189408.234617123</v>
+        <v>6716001.278192319</v>
       </c>
     </row>
     <row r="12">
@@ -16092,7 +16092,7 @@
         <v>1060732950000</v>
       </c>
       <c r="E12" t="n">
-        <v>6848457.11055988</v>
+        <v>6443730.95610344</v>
       </c>
     </row>
     <row r="13">
@@ -16460,7 +16460,7 @@
         <v>3474340</v>
       </c>
       <c r="E2" t="n">
-        <v>1.527369022369385e-08</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>694867.9999999999</v>
@@ -16689,19 +16689,19 @@
         <v>49057715.69168968</v>
       </c>
       <c r="C7" t="n">
-        <v>4292550.123022848</v>
+        <v>1226442.892292241</v>
       </c>
       <c r="D7" t="n">
         <v>2452885.784584484</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>3066107.230730605</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
-        <v>2452885.784584482</v>
+        <v>5518993.01531509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -16736,19 +16736,19 @@
         <v>49057715.69168968</v>
       </c>
       <c r="C8" t="n">
-        <v>4292550.123022848</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>2452885.784584484</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1226442.892292241</v>
       </c>
       <c r="F8" t="n">
         <v>3066107.230730605</v>
       </c>
       <c r="G8" t="n">
-        <v>2452885.784584482</v>
+        <v>5518993.01531509</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -16780,22 +16780,22 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>49057715.69168968</v>
+        <v>49057715.69168971</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1226442.892292218</v>
       </c>
       <c r="D9" t="n">
-        <v>613221.4461461296</v>
+        <v>2452885.784584485</v>
       </c>
       <c r="E9" t="n">
-        <v>3066107.230730605</v>
+        <v>3066107.230730606</v>
       </c>
       <c r="F9" t="n">
-        <v>3066107.230730605</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5518993.015315079</v>
+        <v>5518993.015315089</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -16830,19 +16830,19 @@
         <v>49057715.69168968</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4292550.123022848</v>
       </c>
       <c r="D10" t="n">
-        <v>613221.4461461203</v>
+        <v>2452885.784584484</v>
       </c>
       <c r="E10" t="n">
         <v>3066107.230730605</v>
       </c>
       <c r="F10" t="n">
-        <v>3066107.230730605</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5518993.015315088</v>
+        <v>2452885.784584484</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -16877,19 +16877,19 @@
         <v>49057715.69168968</v>
       </c>
       <c r="C11" t="n">
-        <v>4292550.123022848</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>2452885.784584484</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1226442.892292241</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3066107.230730606</v>
       </c>
       <c r="G11" t="n">
-        <v>5518993.015315087</v>
+        <v>5518993.01531509</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -16924,19 +16924,19 @@
         <v>49057715.69168968</v>
       </c>
       <c r="C12" t="n">
-        <v>613221.4461461203</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2452885.784584484</v>
       </c>
       <c r="E12" t="n">
         <v>3066107.230730605</v>
       </c>
       <c r="F12" t="n">
-        <v>3066107.230730605</v>
+        <v>1226442.892292241</v>
       </c>
       <c r="G12" t="n">
-        <v>5518993.015315088</v>
+        <v>5518993.01531509</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -17007,7 +17007,7 @@
         <v>25422000</v>
       </c>
       <c r="O13" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="14">
@@ -17054,7 +17054,7 @@
         <v>25422000</v>
       </c>
       <c r="O14" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="15">
@@ -17101,7 +17101,7 @@
         <v>25422000</v>
       </c>
       <c r="O15" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="16">
@@ -17148,7 +17148,7 @@
         <v>25422000</v>
       </c>
       <c r="O16" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="17">
@@ -17195,7 +17195,7 @@
         <v>25422000</v>
       </c>
       <c r="O17" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="18">
@@ -17242,7 +17242,7 @@
         <v>25422000</v>
       </c>
       <c r="O18" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="19">
@@ -17289,7 +17289,7 @@
         <v>25422000</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="20">
@@ -17336,7 +17336,7 @@
         <v>25422000</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="21">
@@ -17383,7 +17383,7 @@
         <v>25422000</v>
       </c>
       <c r="O21" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="22">
@@ -17430,7 +17430,7 @@
         <v>25422000</v>
       </c>
       <c r="O22" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="23">
@@ -17477,7 +17477,7 @@
         <v>25422000</v>
       </c>
       <c r="O23" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="24">
@@ -17524,7 +17524,7 @@
         <v>25422000</v>
       </c>
       <c r="O24" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="25">
@@ -17571,7 +17571,7 @@
         <v>25422000</v>
       </c>
       <c r="O25" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="26">
@@ -17618,7 +17618,7 @@
         <v>25422000</v>
       </c>
       <c r="O26" t="n">
-        <v>-2.896628411015156e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="27">
@@ -17665,7 +17665,7 @@
         <v>25422000</v>
       </c>
       <c r="O27" t="n">
-        <v>1.413556494078705e-09</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -17771,7 +17771,7 @@
         <v>6479509.756097561</v>
       </c>
       <c r="C3" t="n">
-        <v>341026.829268293</v>
+        <v>341026.8292682927</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>6479509.756097561</v>
       </c>
       <c r="C4" t="n">
-        <v>341026.829268293</v>
+        <v>341026.8292682927</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -17829,7 +17829,7 @@
         <v>6479509.756097561</v>
       </c>
       <c r="C5" t="n">
-        <v>341026.829268293</v>
+        <v>341026.8292682927</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -17858,7 +17858,7 @@
         <v>6479509.756097561</v>
       </c>
       <c r="C6" t="n">
-        <v>341026.829268293</v>
+        <v>341026.8292682927</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -17887,7 +17887,7 @@
         <v>6479509.756097561</v>
       </c>
       <c r="C7" t="n">
-        <v>341026.829268293</v>
+        <v>341026.8292682927</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -17916,7 +17916,7 @@
         <v>6479509.756097561</v>
       </c>
       <c r="C8" t="n">
-        <v>341026.829268293</v>
+        <v>341026.8292682927</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -17945,7 +17945,7 @@
         <v>6479509.756097561</v>
       </c>
       <c r="C9" t="n">
-        <v>341026.829268293</v>
+        <v>341026.8292682927</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -17974,7 +17974,7 @@
         <v>6479509.756097561</v>
       </c>
       <c r="C10" t="n">
-        <v>341026.829268293</v>
+        <v>341026.8292682927</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -18003,7 +18003,7 @@
         <v>6479509.756097561</v>
       </c>
       <c r="C11" t="n">
-        <v>341026.829268293</v>
+        <v>341026.8292682927</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -18032,7 +18032,7 @@
         <v>6479509.756097561</v>
       </c>
       <c r="C12" t="n">
-        <v>341026.829268293</v>
+        <v>341026.8292682927</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -18099,7 +18099,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.201996649481195e-10</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
         <v>-0</v>
@@ -18157,7 +18157,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.201996649481195e-10</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
@@ -18166,7 +18166,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I16" t="n">
-        <v>2276155.813953496</v>
+        <v>2276155.813953489</v>
       </c>
     </row>
     <row r="17">
@@ -18186,7 +18186,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.276777712456264e-10</v>
+        <v>-0</v>
       </c>
       <c r="G17" t="n">
         <v>-0</v>
@@ -18195,7 +18195,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I17" t="n">
-        <v>2276155.813953499</v>
+        <v>2276155.813953489</v>
       </c>
     </row>
     <row r="18">
@@ -18215,7 +18215,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3.201996649481195e-10</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
         <v>-0</v>
@@ -18224,7 +18224,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I18" t="n">
-        <v>2276155.813953496</v>
+        <v>2276155.813953489</v>
       </c>
     </row>
     <row r="19">
@@ -18253,7 +18253,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I19" t="n">
-        <v>2276155.813953496</v>
+        <v>2276155.813953489</v>
       </c>
     </row>
     <row r="20">
@@ -18282,7 +18282,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I20" t="n">
-        <v>2276155.813953496</v>
+        <v>2276155.813953489</v>
       </c>
     </row>
     <row r="21">
@@ -18311,7 +18311,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I21" t="n">
-        <v>2276155.813953496</v>
+        <v>2276155.813953489</v>
       </c>
     </row>
     <row r="22">
@@ -18340,7 +18340,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I22" t="n">
-        <v>2276155.813953496</v>
+        <v>2276155.813953489</v>
       </c>
     </row>
     <row r="23">
@@ -18369,7 +18369,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I23" t="n">
-        <v>2276155.813953496</v>
+        <v>2276155.813953489</v>
       </c>
     </row>
     <row r="24">
@@ -18398,7 +18398,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I24" t="n">
-        <v>2276155.813953496</v>
+        <v>2276155.813953489</v>
       </c>
     </row>
     <row r="25">
@@ -18427,7 +18427,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I25" t="n">
-        <v>2276155.813953496</v>
+        <v>2276155.813953489</v>
       </c>
     </row>
     <row r="26">
@@ -18456,7 +18456,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I26" t="n">
-        <v>2276155.813953496</v>
+        <v>2276155.813953489</v>
       </c>
     </row>
     <row r="27">
@@ -18485,7 +18485,7 @@
         <v>2276155.813953488</v>
       </c>
       <c r="I27" t="n">
-        <v>2276155.813953489</v>
+        <v>2276155.813953488</v>
       </c>
     </row>
   </sheetData>
@@ -19247,13 +19247,13 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>1599999999999.994</v>
+        <v>1600000000000.005</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>799999999999.9969</v>
+        <v>800000000000.0023</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -19270,7 +19270,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>799999999999.9969</v>
+        <v>800000000000.0022</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -19287,10 +19287,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>799999999999.9971</v>
+        <v>800000000000.0022</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.103456668364705e-09</v>
+        <v>-3.40230444557647e-09</v>
       </c>
     </row>
     <row r="10">
@@ -19304,7 +19304,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>799999999999.9971</v>
+        <v>800000000000.0022</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -19321,7 +19321,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>799999999999.9971</v>
+        <v>800000000000.0021</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -19338,7 +19338,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>799999999999.9972</v>
+        <v>800000000000.0021</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>799999999999.9972</v>
+        <v>800000000000.0021</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -19372,7 +19372,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>799999999999.9973</v>
+        <v>800000000000.002</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -19389,7 +19389,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>799999999999.9973</v>
+        <v>800000000000.002</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -19406,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>799999999999.9974</v>
+        <v>800000000000.002</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -19423,7 +19423,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>799999999999.9974</v>
+        <v>800000000000.0018</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -19440,7 +19440,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>799999999999.9976</v>
+        <v>800000000000.0018</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -19457,7 +19457,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>799999999999.9976</v>
+        <v>800000000000.0018</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -19474,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>799999999999.9976</v>
+        <v>800000000000.0017</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -19491,7 +19491,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>799999999999.9977</v>
+        <v>800000000000.0017</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -19508,7 +19508,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>799999999999.9977</v>
+        <v>800000000000.0017</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -19525,7 +19525,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>799999999999.9978</v>
+        <v>800000000000.0017</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -19542,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>799999999999.9978</v>
+        <v>800000000000.0016</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -19559,7 +19559,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>799999999999.9978</v>
+        <v>800000000000.0016</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>799999999999.9979</v>
+        <v>800000000000.0016</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -19971,7 +19971,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -20018,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -20047,7 +20047,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.715074563637768e-08</v>
+        <v>-4.476716375758512e-08</v>
       </c>
       <c r="I9" t="n">
         <v>-0</v>
@@ -20065,7 +20065,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000.00000004</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -20094,7 +20094,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
@@ -20112,7 +20112,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>24000000.00000002</v>
+        <v>24000000</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -20206,7 +20206,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -20300,7 +20300,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -20347,7 +20347,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -20441,7 +20441,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -20470,7 +20470,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>-0</v>
@@ -20488,7 +20488,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000.00000003</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -20535,7 +20535,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -20582,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -20629,7 +20629,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -20676,7 +20676,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -20723,7 +20723,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -20770,7 +20770,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -20802,7 +20802,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J25" t="n">
         <v>-0</v>
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>23999999.99999999</v>
+        <v>24000000.00000001</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -20864,10 +20864,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>24000000.00000006</v>
+        <v>24000000.00000002</v>
       </c>
       <c r="O26" t="n">
-        <v>-8.171861769730576e-08</v>
+        <v>-2.864058594362082e-08</v>
       </c>
     </row>
     <row r="27">
@@ -21020,7 +21020,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C3" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -21049,7 +21049,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C4" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -21078,7 +21078,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C5" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -21107,7 +21107,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C6" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -21145,16 +21145,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.8482765306503e-09</v>
+        <v>1.353270372035668e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>2148837.209302325</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I7" t="n">
-        <v>2148837.209302334</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="8">
@@ -21174,16 +21174,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.8482765306503e-09</v>
+        <v>1.353270372035669e-09</v>
       </c>
       <c r="H8" t="n">
-        <v>2148837.209302325</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I8" t="n">
-        <v>2148837.209302334</v>
+        <v>2148837.20930232</v>
       </c>
     </row>
     <row r="9">
@@ -21203,16 +21203,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.8482765306503e-09</v>
+        <v>1.353270372035668e-09</v>
       </c>
       <c r="H9" t="n">
-        <v>2148837.209302325</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I9" t="n">
-        <v>2148837.209302334</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="10">
@@ -21232,16 +21232,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.848276530650298e-09</v>
+        <v>1.353270372035669e-09</v>
       </c>
       <c r="H10" t="n">
-        <v>2148837.209302325</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I10" t="n">
-        <v>2148837.209302334</v>
+        <v>2148837.20930232</v>
       </c>
     </row>
     <row r="11">
@@ -21261,16 +21261,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.8482765306503e-09</v>
+        <v>1.353270372035669e-09</v>
       </c>
       <c r="H11" t="n">
-        <v>2148837.209302325</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I11" t="n">
-        <v>2148837.209302334</v>
+        <v>2148837.20930232</v>
       </c>
     </row>
     <row r="12">
@@ -21290,16 +21290,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H12" t="n">
-        <v>2148837.209302324</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I12" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="13">
@@ -21319,16 +21319,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.434266362554483e-09</v>
+        <v>1.782320173123109e-09</v>
       </c>
       <c r="H13" t="n">
-        <v>2148837.209302325</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I13" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="14">
@@ -21348,16 +21348,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H14" t="n">
-        <v>2148837.209302323</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I14" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="15">
@@ -21377,16 +21377,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H15" t="n">
-        <v>2148837.209302323</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I15" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="16">
@@ -21406,16 +21406,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H16" t="n">
-        <v>2148837.209302323</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I16" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="17">
@@ -21435,16 +21435,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H17" t="n">
-        <v>2148837.209302323</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I17" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="18">
@@ -21464,16 +21464,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H18" t="n">
-        <v>2148837.209302323</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I18" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="19">
@@ -21493,16 +21493,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H19" t="n">
-        <v>2148837.209302323</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I19" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="20">
@@ -21522,16 +21522,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H20" t="n">
-        <v>2148837.209302324</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I20" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="21">
@@ -21551,16 +21551,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H21" t="n">
-        <v>2148837.209302323</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I21" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="22">
@@ -21580,16 +21580,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.696609889053126e-09</v>
+        <v>1.242223150964592e-09</v>
       </c>
       <c r="H22" t="n">
-        <v>2148837.209302323</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I22" t="n">
-        <v>2148837.209302336</v>
+        <v>2148837.20930232</v>
       </c>
     </row>
     <row r="23">
@@ -21609,16 +21609,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H23" t="n">
-        <v>2148837.209302324</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I23" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="24">
@@ -21638,16 +21638,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H24" t="n">
-        <v>2148837.209302323</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I24" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="25">
@@ -21667,16 +21667,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H25" t="n">
-        <v>2148837.209302323</v>
+        <v>2148837.209302327</v>
       </c>
       <c r="I25" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="26">
@@ -21696,16 +21696,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-9.331354389792186e-09</v>
+        <v>6.83222733030525e-09</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.696609889053125e-09</v>
+        <v>1.242223150964591e-09</v>
       </c>
       <c r="H26" t="n">
-        <v>2148837.209302323</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I26" t="n">
-        <v>2148837.209302335</v>
+        <v>2148837.209302319</v>
       </c>
     </row>
     <row r="27">
@@ -21882,7 +21882,7 @@
         <v>1033444800000</v>
       </c>
       <c r="E7" t="n">
-        <v>6521719.061531508</v>
+        <v>6562345.380346472</v>
       </c>
     </row>
     <row r="8">
@@ -21899,7 +21899,7 @@
         <v>1033444800000</v>
       </c>
       <c r="E8" t="n">
-        <v>6672275.419492844</v>
+        <v>6277961.148641728</v>
       </c>
     </row>
     <row r="9">
@@ -21916,7 +21916,7 @@
         <v>1033444800000</v>
       </c>
       <c r="E9" t="n">
-        <v>6562345.380346457</v>
+        <v>6521719.061531515</v>
       </c>
     </row>
     <row r="10">
@@ -21933,7 +21933,7 @@
         <v>1033444800000</v>
       </c>
       <c r="E10" t="n">
-        <v>6875407.013567662</v>
+        <v>7358143.272427819</v>
       </c>
     </row>
     <row r="11">
@@ -21950,7 +21950,7 @@
         <v>1033444800000</v>
       </c>
       <c r="E11" t="n">
-        <v>6359213.786271654</v>
+        <v>6801323.726316847</v>
       </c>
     </row>
     <row r="12">
@@ -21967,7 +21967,7 @@
         <v>1033444800000</v>
       </c>
       <c r="E12" t="n">
-        <v>6359213.786271654</v>
+        <v>6543227.112668843</v>
       </c>
     </row>
     <row r="13">
@@ -21984,7 +21984,7 @@
         <v>1033444800000</v>
       </c>
       <c r="E13" t="n">
-        <v>6543227.112668843</v>
+        <v>6875407.013567663</v>
       </c>
     </row>
     <row r="14">
@@ -22993,7 +22993,7 @@
         <v>907268400000</v>
       </c>
       <c r="E7" t="n">
-        <v>5857637.141531509</v>
+        <v>5838755.073381877</v>
       </c>
     </row>
     <row r="8">
@@ -23010,7 +23010,7 @@
         <v>907268400000</v>
       </c>
       <c r="E8" t="n">
-        <v>6035967.78516696</v>
+        <v>5582798.149575697</v>
       </c>
     </row>
     <row r="9">
@@ -23027,7 +23027,7 @@
         <v>907268400000</v>
       </c>
       <c r="E9" t="n">
-        <v>6035967.785166929</v>
+        <v>5725462.66448408</v>
       </c>
     </row>
     <row r="10">
@@ -23044,7 +23044,7 @@
         <v>907268400000</v>
       </c>
       <c r="E10" t="n">
-        <v>6459765.314747678</v>
+        <v>5761128.793211148</v>
       </c>
     </row>
     <row r="11">
@@ -23078,7 +23078,7 @@
         <v>907268400000</v>
       </c>
       <c r="E12" t="n">
-        <v>5857637.141531509</v>
+        <v>5725462.664484058</v>
       </c>
     </row>
     <row r="13">
@@ -23112,7 +23112,7 @@
         <v>907268400000</v>
       </c>
       <c r="E14" t="n">
-        <v>6071633.913894051</v>
+        <v>6459765.314747668</v>
       </c>
     </row>
     <row r="15">
@@ -23129,7 +23129,7 @@
         <v>907268400000</v>
       </c>
       <c r="E15" t="n">
-        <v>5582798.149575697</v>
+        <v>6071633.91389404</v>
       </c>
     </row>
     <row r="16">
@@ -23163,7 +23163,7 @@
         <v>907268400000</v>
       </c>
       <c r="E17" t="n">
-        <v>5511465.892121517</v>
+        <v>6149260.194064775</v>
       </c>
     </row>
     <row r="18">
@@ -23180,7 +23180,7 @@
         <v>907268400000</v>
       </c>
       <c r="E18" t="n">
-        <v>5511465.892121517</v>
+        <v>5857637.141531509</v>
       </c>
     </row>
     <row r="19">
@@ -23672,22 +23672,22 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>41960151.44363546</v>
+        <v>41960151.44363551</v>
       </c>
       <c r="C7" t="n">
-        <v>524501.8930454431</v>
+        <v>3671513.251318102</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2098007.572181772</v>
       </c>
       <c r="E7" t="n">
-        <v>2622509.465227216</v>
+        <v>2098007.572181715</v>
       </c>
       <c r="F7" t="n">
         <v>2622509.465227216</v>
       </c>
       <c r="G7" t="n">
-        <v>4720517.037408987</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -23722,10 +23722,10 @@
         <v>41960151.44363546</v>
       </c>
       <c r="C8" t="n">
-        <v>3147011.358272659</v>
+        <v>1049003.786090884</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2098007.572181773</v>
       </c>
       <c r="E8" t="n">
         <v>2622509.465227216</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4720517.037408987</v>
+        <v>4720517.037408989</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23766,22 +23766,22 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>41960151.44363561</v>
+        <v>41960151.44363535</v>
       </c>
       <c r="C9" t="n">
-        <v>3147011.358272484</v>
+        <v>3147011.358272781</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2098007.572181773</v>
       </c>
       <c r="E9" t="n">
         <v>2622509.465227216</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2622509.465227217</v>
       </c>
       <c r="G9" t="n">
-        <v>4720517.037408989</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23819,16 +23819,16 @@
         <v>3671513.251318103</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2098007.572181773</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2622509.465227216</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>2098007.572181772</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4720517.037408987</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23872,7 +23872,7 @@
         <v>2622509.465227216</v>
       </c>
       <c r="F11" t="n">
-        <v>2098007.572181771</v>
+        <v>2098007.572181772</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>41960151.44363546</v>
       </c>
       <c r="C12" t="n">
-        <v>524501.8930454431</v>
+        <v>3147011.358272658</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2098007.572181772</v>
       </c>
       <c r="E12" t="n">
         <v>2622509.465227216</v>
@@ -23922,7 +23922,7 @@
         <v>2622509.465227216</v>
       </c>
       <c r="G12" t="n">
-        <v>4720517.037408987</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23966,10 +23966,10 @@
         <v>2622509.465227216</v>
       </c>
       <c r="F13" t="n">
-        <v>2622509.465227216</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1573505.679136328</v>
+        <v>4196015.144363544</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -24001,22 +24001,22 @@
         <v>2037</v>
       </c>
       <c r="B14" t="n">
-        <v>41960151.44363544</v>
+        <v>41960151.44363554</v>
       </c>
       <c r="C14" t="n">
-        <v>3671513.251318103</v>
+        <v>3671513.251318102</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2622509.465227216</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2622509.465227216</v>
+        <v>2622509.465227215</v>
       </c>
       <c r="G14" t="n">
-        <v>1573505.67913634</v>
+        <v>4196015.144363446</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -24048,22 +24048,22 @@
         <v>2038</v>
       </c>
       <c r="B15" t="n">
-        <v>41960151.44363546</v>
+        <v>41960151.44363554</v>
       </c>
       <c r="C15" t="n">
-        <v>1049003.786090886</v>
+        <v>3671513.251318102</v>
       </c>
       <c r="D15" t="n">
-        <v>2098007.572181773</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2622509.465227216</v>
+        <v>2622509.465227215</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2622509.465227215</v>
       </c>
       <c r="G15" t="n">
-        <v>4720517.037408986</v>
+        <v>1573505.679136231</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>41960151.44363546</v>
       </c>
       <c r="C16" t="n">
-        <v>524501.8930454431</v>
+        <v>524501.8930454411</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>2622509.465227216</v>
       </c>
       <c r="G16" t="n">
-        <v>4720517.037408987</v>
+        <v>4720517.037408989</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -24145,19 +24145,19 @@
         <v>41960151.44363546</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3671513.2513181</v>
       </c>
       <c r="D17" t="n">
         <v>2098007.572181773</v>
       </c>
       <c r="E17" t="n">
-        <v>2622509.465227216</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2622509.465227216</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3147011.358272657</v>
+        <v>4720517.037408989</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>41960151.44363546</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>524501.8930454411</v>
       </c>
       <c r="D18" t="n">
-        <v>2098007.572181773</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>2622509.465227216</v>
@@ -24204,7 +24204,7 @@
         <v>2622509.465227216</v>
       </c>
       <c r="G18" t="n">
-        <v>3147011.358272657</v>
+        <v>4720517.037408989</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -24275,7 +24275,7 @@
         <v>21744000</v>
       </c>
       <c r="O19" t="n">
-        <v>6.337289971044944e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="20">
@@ -24322,7 +24322,7 @@
         <v>21744000</v>
       </c>
       <c r="O20" t="n">
-        <v>6.337289971044944e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="21">
@@ -24369,7 +24369,7 @@
         <v>21744000</v>
       </c>
       <c r="O21" t="n">
-        <v>6.337289971044944e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="22">
@@ -24416,7 +24416,7 @@
         <v>21744000</v>
       </c>
       <c r="O22" t="n">
-        <v>6.337289971044944e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="23">
@@ -24463,7 +24463,7 @@
         <v>21744000</v>
       </c>
       <c r="O23" t="n">
-        <v>6.337289971044944e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="24">
@@ -24510,7 +24510,7 @@
         <v>21744000</v>
       </c>
       <c r="O24" t="n">
-        <v>6.337289971044944e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="25">
@@ -24557,7 +24557,7 @@
         <v>21744000</v>
       </c>
       <c r="O25" t="n">
-        <v>6.337289971044944e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>21744000</v>
       </c>
       <c r="O26" t="n">
-        <v>6.337289971044944e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="27">
@@ -24651,7 +24651,7 @@
         <v>21744000</v>
       </c>
       <c r="O27" t="n">
-        <v>1.209046196493091e-09</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -24757,7 +24757,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C3" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -24786,7 +24786,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C4" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C5" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C6" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C7" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -24902,7 +24902,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C8" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C9" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -24960,7 +24960,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C10" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -24989,7 +24989,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C11" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -25018,7 +25018,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C12" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -25047,7 +25047,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C13" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -25076,7 +25076,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C14" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -25105,7 +25105,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C15" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C16" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -25163,7 +25163,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C17" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -25192,7 +25192,7 @@
         <v>5542068.292682926</v>
       </c>
       <c r="C18" t="n">
-        <v>291687.8048780491</v>
+        <v>291687.8048780488</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -25230,7 +25230,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.206371900768029e-10</v>
+        <v>-0</v>
       </c>
       <c r="G19" t="n">
         <v>-0</v>
@@ -25239,7 +25239,7 @@
         <v>1946846.511627907</v>
       </c>
       <c r="I19" t="n">
-        <v>1946846.511627907</v>
+        <v>1946846.511627908</v>
       </c>
     </row>
     <row r="20">
@@ -25268,7 +25268,7 @@
         <v>1946846.511627907</v>
       </c>
       <c r="I20" t="n">
-        <v>1946846.511627906</v>
+        <v>1946846.511627908</v>
       </c>
     </row>
     <row r="21">
@@ -25288,7 +25288,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.793935336197962e-09</v>
+        <v>-0</v>
       </c>
       <c r="G21" t="n">
         <v>-0</v>
@@ -25297,7 +25297,7 @@
         <v>1946846.511627907</v>
       </c>
       <c r="I21" t="n">
-        <v>1946846.511627909</v>
+        <v>1946846.511627908</v>
       </c>
     </row>
     <row r="22">
@@ -25326,7 +25326,7 @@
         <v>1946846.511627907</v>
       </c>
       <c r="I22" t="n">
-        <v>1946846.511627906</v>
+        <v>1946846.511627908</v>
       </c>
     </row>
     <row r="23">
@@ -25355,7 +25355,7 @@
         <v>1946846.511627907</v>
       </c>
       <c r="I23" t="n">
-        <v>1946846.511627906</v>
+        <v>1946846.511627908</v>
       </c>
     </row>
     <row r="24">
@@ -25384,7 +25384,7 @@
         <v>1946846.511627907</v>
       </c>
       <c r="I24" t="n">
-        <v>1946846.511627906</v>
+        <v>1946846.511627908</v>
       </c>
     </row>
     <row r="25">
@@ -25413,7 +25413,7 @@
         <v>1946846.511627907</v>
       </c>
       <c r="I25" t="n">
-        <v>1946846.511627906</v>
+        <v>1946846.511627908</v>
       </c>
     </row>
     <row r="26">
@@ -25442,7 +25442,7 @@
         <v>1946846.511627907</v>
       </c>
       <c r="I26" t="n">
-        <v>1946846.511627906</v>
+        <v>1946846.511627908</v>
       </c>
     </row>
     <row r="27">
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3.206371900768029e-10</v>
+        <v>-0</v>
       </c>
       <c r="G27" t="n">
         <v>-0</v>
@@ -26242,7 +26242,7 @@
         <v>1033194450000</v>
       </c>
       <c r="E7" t="n">
-        <v>7002758.504664826</v>
+        <v>6541642.028581472</v>
       </c>
     </row>
     <row r="8">
@@ -26259,7 +26259,7 @@
         <v>1033194450000</v>
       </c>
       <c r="E8" t="n">
-        <v>7002758.504664826</v>
+        <v>6799676.118825007</v>
       </c>
     </row>
     <row r="9">
@@ -26276,7 +26276,7 @@
         <v>1033194450000</v>
       </c>
       <c r="E9" t="n">
-        <v>6670659.073703245</v>
+        <v>6520139.187727836</v>
       </c>
     </row>
     <row r="10">
@@ -26310,7 +26310,7 @@
         <v>1033194450000</v>
       </c>
       <c r="E11" t="n">
-        <v>6799676.118825006</v>
+        <v>7356360.776480041</v>
       </c>
     </row>
     <row r="12">
@@ -26344,7 +26344,7 @@
         <v>1033194450000</v>
       </c>
       <c r="E13" t="n">
-        <v>6914357.936711023</v>
+        <v>7002758.504664826</v>
       </c>
     </row>
     <row r="14">
@@ -26361,7 +26361,7 @@
         <v>1033194450000</v>
       </c>
       <c r="E14" t="n">
-        <v>6560755.664895807</v>
+        <v>7002758.504664826</v>
       </c>
     </row>
     <row r="15">
@@ -26378,7 +26378,7 @@
         <v>1033194450000</v>
       </c>
       <c r="E15" t="n">
-        <v>7002758.504664826</v>
+        <v>6649156.232849612</v>
       </c>
     </row>
     <row r="16">
@@ -26395,7 +26395,7 @@
         <v>1033194450000</v>
       </c>
       <c r="E16" t="n">
-        <v>6560755.664895807</v>
+        <v>6560755.664895808</v>
       </c>
     </row>
     <row r="17">
@@ -26924,19 +26924,19 @@
         <v>47784090.78583983</v>
       </c>
       <c r="C7" t="n">
-        <v>4181107.943760985</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2389204.539291991</v>
       </c>
       <c r="E7" t="n">
-        <v>2389204.539291988</v>
+        <v>1194602.269645993</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2986505.674114989</v>
       </c>
       <c r="G7" t="n">
-        <v>5375710.213406979</v>
+        <v>5375710.213406981</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>47784090.78583983</v>
       </c>
       <c r="C8" t="n">
-        <v>4181107.943760982</v>
+        <v>1194602.269645993</v>
       </c>
       <c r="D8" t="n">
         <v>2389204.539291991</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2986505.674114989</v>
       </c>
       <c r="G8" t="n">
         <v>5375710.21340698</v>
@@ -27015,22 +27015,22 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>47784090.78583977</v>
+        <v>47784090.78583987</v>
       </c>
       <c r="C9" t="n">
-        <v>597301.1348230062</v>
+        <v>3583806.808937938</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2389204.53929199</v>
       </c>
       <c r="E9" t="n">
-        <v>2986505.674114989</v>
+        <v>2986505.674114988</v>
       </c>
       <c r="F9" t="n">
-        <v>2986505.674114989</v>
+        <v>2986505.674114988</v>
       </c>
       <c r="G9" t="n">
-        <v>5375710.213407027</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27074,10 +27074,10 @@
         <v>2986505.674114989</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2986505.674114989</v>
       </c>
       <c r="G10" t="n">
-        <v>4778409.078583978</v>
+        <v>1791903.404468991</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -27112,10 +27112,10 @@
         <v>47784090.78583983</v>
       </c>
       <c r="C11" t="n">
-        <v>1194602.269645993</v>
+        <v>4181107.943760985</v>
       </c>
       <c r="D11" t="n">
-        <v>2389204.539291991</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -27124,7 +27124,7 @@
         <v>2986505.674114989</v>
       </c>
       <c r="G11" t="n">
-        <v>5375710.213406978</v>
+        <v>4778409.078583973</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2986505.674114989</v>
+        <v>2389204.539291988</v>
       </c>
       <c r="G12" t="n">
-        <v>4778409.078583978</v>
+        <v>5375710.21340698</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -27212,13 +27212,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2986505.674114989</v>
+        <v>2389204.539291988</v>
       </c>
       <c r="F13" t="n">
-        <v>2986505.674114989</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1791903.404468989</v>
+        <v>5375710.21340698</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -27259,13 +27259,13 @@
         <v>2389204.539291991</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2986505.674114989</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>2389204.539291987</v>
+        <v>2389204.539291982</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -27300,19 +27300,19 @@
         <v>47784090.78583983</v>
       </c>
       <c r="C15" t="n">
-        <v>4181107.943760982</v>
+        <v>4181107.943760985</v>
       </c>
       <c r="D15" t="n">
         <v>2389204.539291991</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2389204.539291991</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2986505.674114988</v>
       </c>
       <c r="G15" t="n">
-        <v>5375710.21340698</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -27359,7 +27359,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2389204.539291987</v>
+        <v>2389204.53929199</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>24762000</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.815029948171284e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="18">
@@ -27477,7 +27477,7 @@
         <v>24762000</v>
       </c>
       <c r="O18" t="n">
-        <v>-3.815029948171284e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="19">
@@ -27524,7 +27524,7 @@
         <v>24762000</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.815029948171284e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="20">
@@ -27571,7 +27571,7 @@
         <v>24762000</v>
       </c>
       <c r="O20" t="n">
-        <v>-3.815029948171284e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="21">
@@ -27618,7 +27618,7 @@
         <v>24762000</v>
       </c>
       <c r="O21" t="n">
-        <v>-3.815029948171284e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="22">
@@ -27665,7 +27665,7 @@
         <v>24762000</v>
       </c>
       <c r="O22" t="n">
-        <v>-3.815029948171284e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="23">
@@ -27712,7 +27712,7 @@
         <v>24762000</v>
       </c>
       <c r="O23" t="n">
-        <v>-3.815029948171284e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="24">
@@ -27759,7 +27759,7 @@
         <v>24762000</v>
       </c>
       <c r="O24" t="n">
-        <v>-3.815029948171284e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="25">
@@ -27806,7 +27806,7 @@
         <v>24762000</v>
       </c>
       <c r="O25" t="n">
-        <v>-3.815029948171284e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="26">
@@ -27853,7 +27853,7 @@
         <v>24762000</v>
       </c>
       <c r="O26" t="n">
-        <v>-3.815029948171284e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="27">
@@ -27900,7 +27900,7 @@
         <v>24762000</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37685807199972e-09</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -28006,7 +28006,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C3" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -28035,7 +28035,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C4" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C5" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C6" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -28122,7 +28122,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C7" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -28151,7 +28151,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C8" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -28180,7 +28180,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C9" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -28209,7 +28209,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C10" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28238,7 +28238,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C11" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28267,7 +28267,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C12" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C13" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28325,7 +28325,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C14" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28354,7 +28354,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C15" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>6311290.243902438</v>
       </c>
       <c r="C16" t="n">
-        <v>332173.1707317077</v>
+        <v>332173.1707317074</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28421,16 +28421,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-4.042309852527338e-10</v>
+        <v>-0</v>
       </c>
       <c r="G17" t="n">
         <v>-0</v>
       </c>
       <c r="H17" t="n">
-        <v>2217062.790697674</v>
+        <v>2217062.790697673</v>
       </c>
       <c r="I17" t="n">
-        <v>2217062.790697678</v>
+        <v>2217062.790697676</v>
       </c>
     </row>
     <row r="18">
@@ -28450,16 +28450,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.042309852527338e-10</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
         <v>-0</v>
       </c>
       <c r="H18" t="n">
-        <v>2217062.790697674</v>
+        <v>2217062.790697673</v>
       </c>
       <c r="I18" t="n">
-        <v>2217062.790697678</v>
+        <v>2217062.790697676</v>
       </c>
     </row>
     <row r="19">
@@ -28479,16 +28479,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.042309852527338e-10</v>
+        <v>-0</v>
       </c>
       <c r="G19" t="n">
         <v>-0</v>
       </c>
       <c r="H19" t="n">
-        <v>2217062.790697674</v>
+        <v>2217062.790697673</v>
       </c>
       <c r="I19" t="n">
-        <v>2217062.790697678</v>
+        <v>2217062.790697676</v>
       </c>
     </row>
     <row r="20">
@@ -28508,16 +28508,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.042309852527338e-10</v>
+        <v>-0</v>
       </c>
       <c r="G20" t="n">
         <v>-0</v>
       </c>
       <c r="H20" t="n">
-        <v>2217062.790697674</v>
+        <v>2217062.790697673</v>
       </c>
       <c r="I20" t="n">
-        <v>2217062.790697678</v>
+        <v>2217062.790697676</v>
       </c>
     </row>
     <row r="21">
@@ -28546,7 +28546,7 @@
         <v>2217062.790697674</v>
       </c>
       <c r="I21" t="n">
-        <v>2217062.790697674</v>
+        <v>2217062.790697675</v>
       </c>
     </row>
     <row r="22">
@@ -28575,7 +28575,7 @@
         <v>2217062.790697674</v>
       </c>
       <c r="I22" t="n">
-        <v>2217062.790697674</v>
+        <v>2217062.790697675</v>
       </c>
     </row>
     <row r="23">
@@ -28595,7 +28595,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-7.301626879346491e-10</v>
+        <v>-0</v>
       </c>
       <c r="G23" t="n">
         <v>-0</v>
@@ -28604,7 +28604,7 @@
         <v>2217062.790697674</v>
       </c>
       <c r="I23" t="n">
-        <v>2217062.790697673</v>
+        <v>2217062.790697675</v>
       </c>
     </row>
     <row r="24">
@@ -28633,7 +28633,7 @@
         <v>2217062.790697674</v>
       </c>
       <c r="I24" t="n">
-        <v>2217062.790697674</v>
+        <v>2217062.790697675</v>
       </c>
     </row>
     <row r="25">
@@ -28662,7 +28662,7 @@
         <v>2217062.790697674</v>
       </c>
       <c r="I25" t="n">
-        <v>2217062.790697674</v>
+        <v>2217062.790697675</v>
       </c>
     </row>
     <row r="26">
@@ -28691,7 +28691,7 @@
         <v>2217062.790697674</v>
       </c>
       <c r="I26" t="n">
-        <v>2217062.790697674</v>
+        <v>2217062.790697675</v>
       </c>
     </row>
     <row r="27">
@@ -28711,7 +28711,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.042309852527338e-10</v>
+        <v>-0</v>
       </c>
       <c r="G27" t="n">
         <v>-0</v>
@@ -29482,13 +29482,13 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>1600000000000.007</v>
+        <v>1600000000000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>800000000000.0034</v>
+        <v>800000000000.0002</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -29505,7 +29505,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>800000000000.0033</v>
+        <v>800000000000.0002</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -29522,10 +29522,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>800000000000.0033</v>
+        <v>800000000000.0002</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.997231924529168e-10</v>
+        <v>3.60266688181707e-09</v>
       </c>
     </row>
     <row r="10">
@@ -29539,7 +29539,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>800000000000.0032</v>
+        <v>800000000000.0002</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -29556,7 +29556,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>800000000000.0032</v>
+        <v>800000000000.0002</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -29573,7 +29573,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>800000000000.0031</v>
+        <v>800000000000.0002</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -29590,7 +29590,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>800000000000.0031</v>
+        <v>800000000000.0002</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -29607,7 +29607,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>800000000000.0029</v>
+        <v>800000000000.0002</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29624,7 +29624,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>800000000000.0029</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -29641,7 +29641,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>800000000000.0028</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -29658,7 +29658,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>800000000000.0028</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29675,7 +29675,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>800000000000.0027</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -29692,7 +29692,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>800000000000.0027</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>800000000000.0027</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29726,7 +29726,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>800000000000.0026</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -29743,7 +29743,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>800000000000.0026</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>800000000000.0024</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29777,7 +29777,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>800000000000.0024</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29794,7 +29794,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>800000000000.0023</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>800000000000.0023</v>
+        <v>800000000000.0001</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -30173,16 +30173,16 @@
         <v>47795669.19407482</v>
       </c>
       <c r="C7" t="n">
-        <v>3584675.189555608</v>
+        <v>4182121.054481547</v>
       </c>
       <c r="D7" t="n">
         <v>2389783.459703741</v>
       </c>
       <c r="E7" t="n">
-        <v>2987229.324629676</v>
+        <v>2987229.324629677</v>
       </c>
       <c r="F7" t="n">
-        <v>2987229.324629676</v>
+        <v>2389783.459703738</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -30220,10 +30220,10 @@
         <v>47795669.19407482</v>
       </c>
       <c r="C8" t="n">
-        <v>597445.8649259314</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2389783.459703741</v>
       </c>
       <c r="E8" t="n">
         <v>2987229.324629677</v>
@@ -30232,7 +30232,7 @@
         <v>2987229.324629677</v>
       </c>
       <c r="G8" t="n">
-        <v>5377012.784333417</v>
+        <v>3584675.189555611</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -30264,10 +30264,10 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>47795669.19407482</v>
+        <v>47795669.19407479</v>
       </c>
       <c r="C9" t="n">
-        <v>4182121.054481328</v>
+        <v>3584675.189555642</v>
       </c>
       <c r="D9" t="n">
         <v>2389783.459703741</v>
@@ -30276,10 +30276,10 @@
         <v>2987229.324629677</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2987229.324629677</v>
       </c>
       <c r="G9" t="n">
-        <v>2389783.459703955</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -30314,16 +30314,16 @@
         <v>47795669.19407482</v>
       </c>
       <c r="C10" t="n">
-        <v>3584675.189555608</v>
+        <v>4182121.054481547</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2987229.324629677</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2389783.459703739</v>
       </c>
       <c r="G10" t="n">
         <v>5377012.784333417</v>
@@ -30361,16 +30361,16 @@
         <v>47795669.19407482</v>
       </c>
       <c r="C11" t="n">
-        <v>1194891.729851866</v>
+        <v>1194891.729851868</v>
       </c>
       <c r="D11" t="n">
         <v>2389783.459703741</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>2987229.324629677</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>5377012.784333417</v>
@@ -30408,16 +30408,16 @@
         <v>47795669.19407482</v>
       </c>
       <c r="C12" t="n">
-        <v>1194891.729851866</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>2389783.459703741</v>
       </c>
       <c r="E12" t="n">
+        <v>1194891.729851868</v>
+      </c>
+      <c r="F12" t="n">
         <v>2987229.324629677</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>5377012.784333417</v>
@@ -30455,16 +30455,16 @@
         <v>47795669.19407482</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3584675.18955561</v>
       </c>
       <c r="D13" t="n">
-        <v>597445.8649259314</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>2987229.324629677</v>
       </c>
       <c r="F13" t="n">
-        <v>2987229.324629677</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>5377012.784333417</v>
@@ -30538,7 +30538,7 @@
         <v>24768000</v>
       </c>
       <c r="O14" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="15">
@@ -30585,7 +30585,7 @@
         <v>24768000</v>
       </c>
       <c r="O15" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="16">
@@ -30632,7 +30632,7 @@
         <v>24768000</v>
       </c>
       <c r="O16" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="17">
@@ -30679,7 +30679,7 @@
         <v>24768000</v>
       </c>
       <c r="O17" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="18">
@@ -30726,7 +30726,7 @@
         <v>24768000</v>
       </c>
       <c r="O18" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="19">
@@ -30773,7 +30773,7 @@
         <v>24768000</v>
       </c>
       <c r="O19" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="20">
@@ -30820,7 +30820,7 @@
         <v>24768000</v>
       </c>
       <c r="O20" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="21">
@@ -30867,7 +30867,7 @@
         <v>24768000</v>
       </c>
       <c r="O21" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="22">
@@ -30914,7 +30914,7 @@
         <v>24768000</v>
       </c>
       <c r="O22" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="23">
@@ -30961,7 +30961,7 @@
         <v>24768000</v>
       </c>
       <c r="O23" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="24">
@@ -31008,7 +31008,7 @@
         <v>24768000</v>
       </c>
       <c r="O24" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="25">
@@ -31055,7 +31055,7 @@
         <v>24768000</v>
       </c>
       <c r="O25" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="26">
@@ -31102,7 +31102,7 @@
         <v>24768000</v>
       </c>
       <c r="O26" t="n">
-        <v>-8.590654068449614e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="27">
@@ -31149,7 +31149,7 @@
         <v>24768000</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37719169401862e-09</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -31524,7 +31524,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -31571,7 +31571,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -31600,10 +31600,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.736131149109075e-09</v>
+        <v>8.359290371222411e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.05610172973657e-09</v>
+        <v>-1.322304711688444e-08</v>
       </c>
       <c r="J9" t="n">
         <v>-0</v>
@@ -31618,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>24000000</v>
+        <v>23999999.99999997</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -31665,7 +31665,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -31712,7 +31712,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -31759,7 +31759,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31806,7 +31806,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -31853,7 +31853,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -31900,7 +31900,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -31947,7 +31947,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -31994,7 +31994,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -32041,7 +32041,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32088,7 +32088,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -32135,7 +32135,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -32182,7 +32182,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -32276,7 +32276,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>24000000.00000001</v>
+        <v>24000000</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32355,7 +32355,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>-0</v>
@@ -32370,7 +32370,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>24000000.00000002</v>
+        <v>24000000.00000009</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -32417,10 +32417,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>23999999.99999996</v>
+        <v>24000000</v>
       </c>
       <c r="O26" t="n">
-        <v>1.080334186553955e-07</v>
+        <v>-6.128907833005369e-09</v>
       </c>
     </row>
     <row r="27">
@@ -32573,7 +32573,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C3" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -32602,7 +32602,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C4" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -32631,7 +32631,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C5" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -32660,7 +32660,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C6" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G7" t="n">
-        <v>2.676238298197344e-09</v>
+        <v>1.679817098798203e-10</v>
       </c>
       <c r="H7" t="n">
-        <v>2148837.209302329</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I7" t="n">
-        <v>2148837.209302314</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="8">
@@ -32727,16 +32727,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G8" t="n">
-        <v>1.865256995713301e-09</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H8" t="n">
-        <v>2148837.20930233</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I8" t="n">
-        <v>2148837.209302313</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="9">
@@ -32756,16 +32756,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G9" t="n">
-        <v>1.865256995713302e-09</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H9" t="n">
-        <v>2148837.209302329</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I9" t="n">
-        <v>2148837.209302314</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="10">
@@ -32785,16 +32785,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G10" t="n">
-        <v>1.865256995713301e-09</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H10" t="n">
-        <v>2148837.209302328</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I10" t="n">
-        <v>2148837.209302315</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="11">
@@ -32814,16 +32814,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G11" t="n">
-        <v>1.865256995713302e-09</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H11" t="n">
-        <v>2148837.209302329</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I11" t="n">
-        <v>2148837.209302314</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="12">
@@ -32843,16 +32843,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G12" t="n">
-        <v>1.865256995713302e-09</v>
+        <v>1.170781614313899e-10</v>
       </c>
       <c r="H12" t="n">
-        <v>2148837.209302328</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I12" t="n">
-        <v>2148837.209302315</v>
+        <v>2148837.209302325</v>
       </c>
     </row>
     <row r="13">
@@ -32872,16 +32872,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G13" t="n">
-        <v>1.865256995713302e-09</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H13" t="n">
-        <v>2148837.209302329</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I13" t="n">
-        <v>2148837.209302314</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="14">
@@ -32901,16 +32901,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G14" t="n">
-        <v>1.865256995713302e-09</v>
+        <v>1.170781614313899e-10</v>
       </c>
       <c r="H14" t="n">
-        <v>2148837.209302329</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I14" t="n">
-        <v>2148837.209302314</v>
+        <v>2148837.209302325</v>
       </c>
     </row>
     <row r="15">
@@ -32930,16 +32930,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G15" t="n">
-        <v>1.865256995713302e-09</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H15" t="n">
-        <v>2148837.209302328</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I15" t="n">
-        <v>2148837.209302315</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="16">
@@ -32959,16 +32959,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G16" t="n">
-        <v>1.865256995713302e-09</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H16" t="n">
-        <v>2148837.209302328</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I16" t="n">
-        <v>2148837.209302315</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="17">
@@ -32988,16 +32988,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2148837.209302351</v>
+        <v>2148837.209302325</v>
       </c>
       <c r="I17" t="n">
-        <v>2148837.209302296</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="18">
@@ -33017,16 +33017,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H18" t="n">
-        <v>2148837.20930234</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I18" t="n">
-        <v>2148837.209302307</v>
+        <v>2148837.209302325</v>
       </c>
     </row>
     <row r="19">
@@ -33046,16 +33046,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H19" t="n">
-        <v>2148837.20930234</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I19" t="n">
-        <v>2148837.209302307</v>
+        <v>2148837.209302325</v>
       </c>
     </row>
     <row r="20">
@@ -33075,16 +33075,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2148837.20930234</v>
+        <v>2148837.209302325</v>
       </c>
       <c r="I20" t="n">
-        <v>2148837.209302307</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="21">
@@ -33104,16 +33104,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G21" t="n">
-        <v>1.865256995713302e-09</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2148837.209302332</v>
+        <v>2148837.209302325</v>
       </c>
       <c r="I21" t="n">
-        <v>2148837.209302312</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="22">
@@ -33133,16 +33133,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G22" t="n">
-        <v>1.865256995713301e-09</v>
+        <v>1.170781614313899e-10</v>
       </c>
       <c r="H22" t="n">
-        <v>2148837.209302328</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I22" t="n">
-        <v>2148837.209302315</v>
+        <v>2148837.209302325</v>
       </c>
     </row>
     <row r="23">
@@ -33162,16 +33162,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G23" t="n">
-        <v>1.865256995713302e-09</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H23" t="n">
-        <v>2148837.209302329</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I23" t="n">
-        <v>2148837.209302314</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="24">
@@ -33191,16 +33191,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G24" t="n">
-        <v>1.865256995713301e-09</v>
+        <v>1.170781614313899e-10</v>
       </c>
       <c r="H24" t="n">
-        <v>2148837.209302328</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I24" t="n">
-        <v>2148837.209302315</v>
+        <v>2148837.209302325</v>
       </c>
     </row>
     <row r="25">
@@ -33220,16 +33220,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G25" t="n">
-        <v>1.865256995713302e-09</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H25" t="n">
-        <v>2148837.209302329</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I25" t="n">
-        <v>2148837.209302314</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="26">
@@ -33249,16 +33249,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.025891347642315e-08</v>
+        <v>6.439298878726444e-10</v>
       </c>
       <c r="G26" t="n">
-        <v>1.865256995713302e-09</v>
+        <v>1.1707816143139e-10</v>
       </c>
       <c r="H26" t="n">
-        <v>2148837.209302329</v>
+        <v>2148837.209302326</v>
       </c>
       <c r="I26" t="n">
-        <v>2148837.209302314</v>
+        <v>2148837.209302326</v>
       </c>
     </row>
     <row r="27">
@@ -33973,7 +33973,7 @@
         <v>479169900000</v>
       </c>
       <c r="E2" t="n">
-        <v>3041858.952000001</v>
+        <v>3041858.952</v>
       </c>
     </row>
     <row r="3">
@@ -34058,7 +34058,7 @@
         <v>479169900000</v>
       </c>
       <c r="E7" t="n">
-        <v>3187870.403093146</v>
+        <v>3153520.739382375</v>
       </c>
     </row>
     <row r="8">
@@ -34092,7 +34092,7 @@
         <v>479169900000</v>
       </c>
       <c r="E9" t="n">
-        <v>3033850.943228726</v>
+        <v>2910856.986070801</v>
       </c>
     </row>
     <row r="10">
@@ -34109,7 +34109,7 @@
         <v>479169900000</v>
       </c>
       <c r="E10" t="n">
-        <v>3023878.460215918</v>
+        <v>3247705.301169973</v>
       </c>
     </row>
     <row r="11">
@@ -34126,7 +34126,7 @@
         <v>479169900000</v>
       </c>
       <c r="E11" t="n">
-        <v>2948530.81078584</v>
+        <v>3083713.358292745</v>
       </c>
     </row>
     <row r="12">
@@ -34740,19 +34740,19 @@
         <v>22161073.3617876</v>
       </c>
       <c r="C7" t="n">
-        <v>1662080.50213407</v>
+        <v>554026.834044689</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1108053.66808938</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>1385067.085111725</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
-        <v>2493120.753201104</v>
+        <v>2493120.753201105</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -34796,10 +34796,10 @@
         <v>1385067.085111725</v>
       </c>
       <c r="F8" t="n">
-        <v>1385067.085111725</v>
+        <v>554026.834044689</v>
       </c>
       <c r="G8" t="n">
-        <v>1662080.502134069</v>
+        <v>2493120.753201105</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -34831,22 +34831,22 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>22161073.36178758</v>
+        <v>22161073.3617876</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>277013.4170223405</v>
+        <v>1108053.66808938</v>
       </c>
       <c r="E9" t="n">
         <v>1385067.085111725</v>
       </c>
       <c r="F9" t="n">
-        <v>1385067.085111725</v>
+        <v>554026.8340446892</v>
       </c>
       <c r="G9" t="n">
-        <v>2493120.753201136</v>
+        <v>2493120.753201105</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -34881,19 +34881,19 @@
         <v>22161073.3617876</v>
       </c>
       <c r="C10" t="n">
-        <v>1662080.502134069</v>
+        <v>1939093.919156415</v>
       </c>
       <c r="D10" t="n">
-        <v>1108053.66808938</v>
+        <v>1108053.668089379</v>
       </c>
       <c r="E10" t="n">
-        <v>1385067.085111725</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1385067.085111725</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2493120.753201105</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -34925,22 +34925,22 @@
         <v>2034</v>
       </c>
       <c r="B11" t="n">
-        <v>22161073.3617876</v>
+        <v>22161073.36178761</v>
       </c>
       <c r="C11" t="n">
-        <v>554026.83404469</v>
+        <v>1939093.919156415</v>
       </c>
       <c r="D11" t="n">
         <v>1108053.66808938</v>
       </c>
       <c r="E11" t="n">
+        <v>1108053.668089364</v>
+      </c>
+      <c r="F11" t="n">
         <v>1385067.085111725</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>2493120.753201104</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>11484000</v>
       </c>
       <c r="O12" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="13">
@@ -35058,7 +35058,7 @@
         <v>11484000</v>
       </c>
       <c r="O13" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="14">
@@ -35105,7 +35105,7 @@
         <v>11484000</v>
       </c>
       <c r="O14" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="15">
@@ -35152,7 +35152,7 @@
         <v>11484000</v>
       </c>
       <c r="O15" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="16">
@@ -35199,7 +35199,7 @@
         <v>11484000</v>
       </c>
       <c r="O16" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="17">
@@ -35246,7 +35246,7 @@
         <v>11484000</v>
       </c>
       <c r="O17" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="18">
@@ -35293,7 +35293,7 @@
         <v>11484000</v>
       </c>
       <c r="O18" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="19">
@@ -35340,7 +35340,7 @@
         <v>11484000</v>
       </c>
       <c r="O19" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="20">
@@ -35387,7 +35387,7 @@
         <v>11484000</v>
       </c>
       <c r="O20" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="21">
@@ -35434,7 +35434,7 @@
         <v>11484000</v>
       </c>
       <c r="O21" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="22">
@@ -35481,7 +35481,7 @@
         <v>11484000</v>
       </c>
       <c r="O22" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="23">
@@ -35528,7 +35528,7 @@
         <v>11484000</v>
       </c>
       <c r="O23" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="24">
@@ -35575,7 +35575,7 @@
         <v>11484000</v>
       </c>
       <c r="O24" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="25">
@@ -35622,7 +35622,7 @@
         <v>11484000</v>
       </c>
       <c r="O25" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="26">
@@ -35669,7 +35669,7 @@
         <v>11484000</v>
       </c>
       <c r="O26" t="n">
-        <v>4.0202536836127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="27">
@@ -35716,7 +35716,7 @@
         <v>11484000</v>
       </c>
       <c r="O27" t="n">
-        <v>6.385525441743311e-10</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -35819,10 +35819,10 @@
         <v>2026</v>
       </c>
       <c r="B3" t="n">
-        <v>2927019.512195121</v>
+        <v>2927019.512195122</v>
       </c>
       <c r="C3" t="n">
-        <v>154053.6585365855</v>
+        <v>154053.6585365854</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -35848,10 +35848,10 @@
         <v>2027</v>
       </c>
       <c r="B4" t="n">
-        <v>2927019.512195121</v>
+        <v>2927019.512195122</v>
       </c>
       <c r="C4" t="n">
-        <v>154053.6585365855</v>
+        <v>154053.6585365854</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -35877,10 +35877,10 @@
         <v>2028</v>
       </c>
       <c r="B5" t="n">
-        <v>2927019.512195121</v>
+        <v>2927019.512195122</v>
       </c>
       <c r="C5" t="n">
-        <v>154053.6585365855</v>
+        <v>154053.6585365854</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -35906,10 +35906,10 @@
         <v>2029</v>
       </c>
       <c r="B6" t="n">
-        <v>2927019.512195121</v>
+        <v>2927019.512195122</v>
       </c>
       <c r="C6" t="n">
-        <v>154053.6585365855</v>
+        <v>154053.6585365854</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -35935,10 +35935,10 @@
         <v>2030</v>
       </c>
       <c r="B7" t="n">
-        <v>2927019.512195121</v>
+        <v>2927019.512195122</v>
       </c>
       <c r="C7" t="n">
-        <v>154053.6585365855</v>
+        <v>154053.6585365854</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -35964,10 +35964,10 @@
         <v>2031</v>
       </c>
       <c r="B8" t="n">
-        <v>2927019.512195121</v>
+        <v>2927019.512195122</v>
       </c>
       <c r="C8" t="n">
-        <v>154053.6585365855</v>
+        <v>154053.6585365854</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -35993,10 +35993,10 @@
         <v>2032</v>
       </c>
       <c r="B9" t="n">
-        <v>2927019.512195121</v>
+        <v>2927019.512195122</v>
       </c>
       <c r="C9" t="n">
-        <v>154053.6585365855</v>
+        <v>154053.6585365854</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -36022,10 +36022,10 @@
         <v>2033</v>
       </c>
       <c r="B10" t="n">
-        <v>2927019.512195121</v>
+        <v>2927019.512195122</v>
       </c>
       <c r="C10" t="n">
-        <v>154053.6585365855</v>
+        <v>154053.6585365854</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -36051,10 +36051,10 @@
         <v>2034</v>
       </c>
       <c r="B11" t="n">
-        <v>2927019.512195121</v>
+        <v>2927019.512195122</v>
       </c>
       <c r="C11" t="n">
-        <v>154053.6585365855</v>
+        <v>154053.6585365854</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -36092,7 +36092,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.887653973596829e-10</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
         <v>-0</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.887653973596829e-10</v>
+        <v>-0</v>
       </c>
       <c r="G13" t="n">
         <v>-0</v>
@@ -36150,7 +36150,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.887653973596829e-10</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
         <v>-0</v>
@@ -36179,7 +36179,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.887653973596829e-10</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
         <v>-0</v>
@@ -36208,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.887653973596829e-10</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
@@ -36237,7 +36237,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.887653973596829e-10</v>
+        <v>-0</v>
       </c>
       <c r="G17" t="n">
         <v>-0</v>
@@ -36266,7 +36266,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.887653973596829e-10</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
         <v>-0</v>
@@ -36295,7 +36295,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.663524966475628e-10</v>
+        <v>-0</v>
       </c>
       <c r="G19" t="n">
         <v>-0</v>
@@ -36304,7 +36304,7 @@
         <v>1028218.604651163</v>
       </c>
       <c r="I19" t="n">
-        <v>1028218.604651165</v>
+        <v>1028218.604651163</v>
       </c>
     </row>
     <row r="20">
@@ -36353,7 +36353,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.887653973596829e-10</v>
+        <v>-0</v>
       </c>
       <c r="G21" t="n">
         <v>-0</v>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.887653973596829e-10</v>
+        <v>-0</v>
       </c>
       <c r="G22" t="n">
         <v>-0</v>
@@ -36411,7 +36411,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.887653973596829e-10</v>
+        <v>-0</v>
       </c>
       <c r="G23" t="n">
         <v>-0</v>
@@ -37222,7 +37222,7 @@
         <v>358138192500</v>
       </c>
       <c r="E2" t="n">
-        <v>2134844.434800001</v>
+        <v>2134844.4348</v>
       </c>
     </row>
     <row r="3">
@@ -38260,7 +38260,7 @@
         <v>10098000</v>
       </c>
       <c r="O12" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="13">
@@ -38307,7 +38307,7 @@
         <v>10098000</v>
       </c>
       <c r="O13" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="14">
@@ -38354,7 +38354,7 @@
         <v>10098000</v>
       </c>
       <c r="O14" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="15">
@@ -38401,7 +38401,7 @@
         <v>10098000</v>
       </c>
       <c r="O15" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="16">
@@ -38448,7 +38448,7 @@
         <v>10098000</v>
       </c>
       <c r="O16" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="17">
@@ -38495,7 +38495,7 @@
         <v>10098000</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="18">
@@ -38542,7 +38542,7 @@
         <v>10098000</v>
       </c>
       <c r="O18" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="19">
@@ -38589,7 +38589,7 @@
         <v>10098000</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="20">
@@ -38636,7 +38636,7 @@
         <v>10098000</v>
       </c>
       <c r="O20" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="21">
@@ -38683,7 +38683,7 @@
         <v>10098000</v>
       </c>
       <c r="O21" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="22">
@@ -38730,7 +38730,7 @@
         <v>10098000</v>
       </c>
       <c r="O22" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="23">
@@ -38777,7 +38777,7 @@
         <v>10098000</v>
       </c>
       <c r="O23" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="24">
@@ -38824,7 +38824,7 @@
         <v>10098000</v>
       </c>
       <c r="O24" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="25">
@@ -38871,7 +38871,7 @@
         <v>10098000</v>
       </c>
       <c r="O25" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="26">
@@ -38918,7 +38918,7 @@
         <v>10098000</v>
       </c>
       <c r="O26" t="n">
-        <v>-3.888356075867127e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="27">
@@ -38965,7 +38965,7 @@
         <v>10098000</v>
       </c>
       <c r="O27" t="n">
-        <v>5.614858578084635e-10</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -39341,7 +39341,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>9.437361836339871e-12</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G12" t="n">
         <v>-0</v>
@@ -39350,7 +39350,7 @@
         <v>904123.2558139537</v>
       </c>
       <c r="I12" t="n">
-        <v>904123.2558139534</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="13">
@@ -39370,7 +39370,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>9.437361836339871e-12</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G13" t="n">
         <v>-0</v>
@@ -39379,7 +39379,7 @@
         <v>904123.2558139537</v>
       </c>
       <c r="I13" t="n">
-        <v>904123.2558139534</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="14">
@@ -39399,7 +39399,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.437361836339871e-12</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G14" t="n">
         <v>-0</v>
@@ -39408,7 +39408,7 @@
         <v>904123.2558139537</v>
       </c>
       <c r="I14" t="n">
-        <v>904123.2558139534</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="15">
@@ -39428,16 +39428,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.711769826778769e-11</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G15" t="n">
         <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>904123.2558139535</v>
+        <v>904123.2558139537</v>
       </c>
       <c r="I15" t="n">
-        <v>904123.2558139585</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="16">
@@ -39457,16 +39457,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-0</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>904123.2558139536</v>
+        <v>904123.2558139537</v>
       </c>
       <c r="I16" t="n">
-        <v>904123.2558139531</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="17">
@@ -39486,7 +39486,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.437361836339871e-12</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G17" t="n">
         <v>-0</v>
@@ -39495,7 +39495,7 @@
         <v>904123.2558139537</v>
       </c>
       <c r="I17" t="n">
-        <v>904123.2558139534</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="18">
@@ -39515,7 +39515,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>9.437361836339871e-12</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G18" t="n">
         <v>-0</v>
@@ -39524,7 +39524,7 @@
         <v>904123.2558139537</v>
       </c>
       <c r="I18" t="n">
-        <v>904123.2558139534</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="19">
@@ -39544,7 +39544,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.437361836339871e-12</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G19" t="n">
         <v>-0</v>
@@ -39553,7 +39553,7 @@
         <v>904123.2558139537</v>
       </c>
       <c r="I19" t="n">
-        <v>904123.2558139534</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="20">
@@ -39573,16 +39573,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G20" t="n">
         <v>-0</v>
       </c>
       <c r="H20" t="n">
-        <v>904123.2558139535</v>
+        <v>904123.2558139537</v>
       </c>
       <c r="I20" t="n">
-        <v>904123.2558139582</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="21">
@@ -39602,16 +39602,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G21" t="n">
         <v>-0</v>
       </c>
       <c r="H21" t="n">
-        <v>904123.2558139535</v>
+        <v>904123.2558139537</v>
       </c>
       <c r="I21" t="n">
-        <v>904123.2558139582</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="22">
@@ -39631,16 +39631,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G22" t="n">
         <v>-0</v>
       </c>
       <c r="H22" t="n">
-        <v>904123.2558139535</v>
+        <v>904123.2558139537</v>
       </c>
       <c r="I22" t="n">
-        <v>904123.2558139582</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="23">
@@ -39689,16 +39689,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G24" t="n">
         <v>-0</v>
       </c>
       <c r="H24" t="n">
-        <v>904123.2558139535</v>
+        <v>904123.2558139537</v>
       </c>
       <c r="I24" t="n">
-        <v>904123.2558139582</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="25">
@@ -39718,16 +39718,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-0</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G25" t="n">
         <v>-0</v>
       </c>
       <c r="H25" t="n">
-        <v>904123.2558139535</v>
+        <v>904123.2558139537</v>
       </c>
       <c r="I25" t="n">
-        <v>904123.2558139582</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
     <row r="26">
@@ -39753,10 +39753,10 @@
         <v>-0</v>
       </c>
       <c r="H26" t="n">
-        <v>904123.2558139535</v>
+        <v>904123.2558139536</v>
       </c>
       <c r="I26" t="n">
-        <v>904123.2558139582</v>
+        <v>904123.2558139534</v>
       </c>
     </row>
     <row r="27">
@@ -39776,16 +39776,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="G27" t="n">
         <v>-0</v>
       </c>
       <c r="H27" t="n">
-        <v>904123.2558139536</v>
+        <v>904123.2558139537</v>
       </c>
       <c r="I27" t="n">
-        <v>904123.2558139531</v>
+        <v>904123.2558139485</v>
       </c>
     </row>
   </sheetData>
@@ -39891,7 +39891,7 @@
         <v>6312819.512195121</v>
       </c>
       <c r="C3" t="n">
-        <v>332253.6585365857</v>
+        <v>332253.6585365854</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -39920,7 +39920,7 @@
         <v>6312819.512195121</v>
       </c>
       <c r="C4" t="n">
-        <v>332253.6585365857</v>
+        <v>332253.6585365854</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -39949,7 +39949,7 @@
         <v>6312819.512195121</v>
       </c>
       <c r="C5" t="n">
-        <v>332253.6585365857</v>
+        <v>332253.6585365854</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -39978,7 +39978,7 @@
         <v>6312819.512195121</v>
       </c>
       <c r="C6" t="n">
-        <v>332253.6585365857</v>
+        <v>332253.6585365854</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -40007,7 +40007,7 @@
         <v>6312819.512195121</v>
       </c>
       <c r="C7" t="n">
-        <v>332253.6585365857</v>
+        <v>332253.6585365854</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -40036,7 +40036,7 @@
         <v>6312819.512195121</v>
       </c>
       <c r="C8" t="n">
-        <v>332253.6585365857</v>
+        <v>332253.6585365854</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -40065,7 +40065,7 @@
         <v>6312819.512195121</v>
       </c>
       <c r="C9" t="n">
-        <v>332253.6585365857</v>
+        <v>332253.6585365854</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -40094,7 +40094,7 @@
         <v>6312819.512195121</v>
       </c>
       <c r="C10" t="n">
-        <v>332253.6585365857</v>
+        <v>332253.6585365854</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -40123,7 +40123,7 @@
         <v>6312819.512195121</v>
       </c>
       <c r="C11" t="n">
-        <v>332253.6585365857</v>
+        <v>332253.6585365854</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -40152,7 +40152,7 @@
         <v>6312819.512195121</v>
       </c>
       <c r="C12" t="n">
-        <v>332253.6585365857</v>
+        <v>332253.6585365854</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -40181,7 +40181,7 @@
         <v>6312819.512195121</v>
       </c>
       <c r="C13" t="n">
-        <v>332253.6585365857</v>
+        <v>332253.6585365854</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -40219,16 +40219,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.307967067987192e-10</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.487432978654397e-11</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
         <v>2217600</v>
       </c>
       <c r="I14" t="n">
-        <v>2217599.999999999</v>
+        <v>2217600</v>
       </c>
     </row>
     <row r="15">
@@ -40248,16 +40248,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.307967067987192e-10</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.487432978654397e-11</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>2217600</v>
       </c>
       <c r="I15" t="n">
-        <v>2217599.999999999</v>
+        <v>2217600</v>
       </c>
     </row>
     <row r="16">
@@ -40277,16 +40277,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.307967067987192e-10</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.487432978654397e-11</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
         <v>2217600</v>
       </c>
       <c r="I16" t="n">
-        <v>2217599.999999999</v>
+        <v>2217600</v>
       </c>
     </row>
     <row r="17">
@@ -40306,16 +40306,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.307967067987192e-10</v>
+        <v>-0</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.487432978654397e-11</v>
+        <v>-0</v>
       </c>
       <c r="H17" t="n">
         <v>2217600</v>
       </c>
       <c r="I17" t="n">
-        <v>2217599.999999999</v>
+        <v>2217600</v>
       </c>
     </row>
     <row r="18">
@@ -40335,16 +40335,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.307967067987192e-10</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.487432978654397e-11</v>
+        <v>-0</v>
       </c>
       <c r="H18" t="n">
         <v>2217600</v>
       </c>
       <c r="I18" t="n">
-        <v>2217599.999999999</v>
+        <v>2217600.000000017</v>
       </c>
     </row>
     <row r="19">
@@ -40364,10 +40364,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.307967067987192e-10</v>
+        <v>-0</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.487432978654397e-11</v>
+        <v>-0</v>
       </c>
       <c r="H19" t="n">
         <v>2217600</v>
@@ -40393,16 +40393,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.307967067987192e-10</v>
+        <v>-0</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.487432978654397e-11</v>
+        <v>-0</v>
       </c>
       <c r="H20" t="n">
         <v>2217600</v>
       </c>
       <c r="I20" t="n">
-        <v>2217599.999999999</v>
+        <v>2217600.000000017</v>
       </c>
     </row>
     <row r="21">
@@ -40422,16 +40422,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.307967067987192e-10</v>
+        <v>-0</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.487432978654397e-11</v>
+        <v>-0</v>
       </c>
       <c r="H21" t="n">
         <v>2217600</v>
       </c>
       <c r="I21" t="n">
-        <v>2217599.999999999</v>
+        <v>2217600</v>
       </c>
     </row>
     <row r="22">
@@ -40483,13 +40483,13 @@
         <v>-0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.969624463526996e-09</v>
+        <v>-0</v>
       </c>
       <c r="H23" t="n">
         <v>2217600</v>
       </c>
       <c r="I23" t="n">
-        <v>2217599.999999998</v>
+        <v>2217600</v>
       </c>
     </row>
     <row r="24">
@@ -42329,7 +42329,7 @@
         <v>7680000</v>
       </c>
       <c r="O12" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="13">
@@ -42376,7 +42376,7 @@
         <v>7680000</v>
       </c>
       <c r="O13" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="14">
@@ -42423,7 +42423,7 @@
         <v>7680000</v>
       </c>
       <c r="O14" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="15">
@@ -42470,7 +42470,7 @@
         <v>7680000</v>
       </c>
       <c r="O15" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="16">
@@ -42517,7 +42517,7 @@
         <v>7680000</v>
       </c>
       <c r="O16" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="17">
@@ -42564,7 +42564,7 @@
         <v>7680000</v>
       </c>
       <c r="O17" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="18">
@@ -42611,7 +42611,7 @@
         <v>7680000</v>
       </c>
       <c r="O18" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="19">
@@ -42658,7 +42658,7 @@
         <v>7680000</v>
       </c>
       <c r="O19" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="20">
@@ -42705,7 +42705,7 @@
         <v>7680000</v>
       </c>
       <c r="O20" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="21">
@@ -42752,7 +42752,7 @@
         <v>7680000</v>
       </c>
       <c r="O21" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="22">
@@ -42799,7 +42799,7 @@
         <v>7680000</v>
       </c>
       <c r="O22" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="23">
@@ -42846,7 +42846,7 @@
         <v>7680000</v>
       </c>
       <c r="O23" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="24">
@@ -42893,7 +42893,7 @@
         <v>7680000</v>
       </c>
       <c r="O24" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="25">
@@ -42940,7 +42940,7 @@
         <v>7680000</v>
       </c>
       <c r="O25" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="26">
@@ -42987,7 +42987,7 @@
         <v>7680000</v>
       </c>
       <c r="O26" t="n">
-        <v>2.314901106511286e-09</v>
+        <v>1.399312168359757e-09</v>
       </c>
     </row>
     <row r="27">
@@ -43034,7 +43034,7 @@
         <v>7680000</v>
       </c>
       <c r="O27" t="n">
-        <v>4.270361841918202e-10</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -43410,7 +43410,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2.967025529658209e-10</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
         <v>-0</v>
@@ -43419,7 +43419,7 @@
         <v>687627.9069767442</v>
       </c>
       <c r="I12" t="n">
-        <v>687627.9069767456</v>
+        <v>687627.9069767435</v>
       </c>
     </row>
     <row r="13">
@@ -43448,7 +43448,7 @@
         <v>687627.9069767442</v>
       </c>
       <c r="I13" t="n">
-        <v>687627.9069767442</v>
+        <v>687627.9069767435</v>
       </c>
     </row>
     <row r="14">
@@ -43468,7 +43468,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.378159304707255e-11</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
         <v>-0</v>
@@ -43497,7 +43497,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>5.378159304707255e-11</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
         <v>-0</v>
@@ -43526,7 +43526,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5.378159304707255e-11</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
@@ -43700,7 +43700,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0</v>
+        <v>5.122274160385137e-10</v>
       </c>
       <c r="G22" t="n">
         <v>-0</v>
@@ -43709,7 +43709,7 @@
         <v>687627.9069767442</v>
       </c>
       <c r="I22" t="n">
-        <v>687627.9069767435</v>
+        <v>687627.9069767471</v>
       </c>
     </row>
     <row r="23">
@@ -43738,7 +43738,7 @@
         <v>687627.9069767442</v>
       </c>
       <c r="I23" t="n">
-        <v>687627.9069767435</v>
+        <v>687627.9069767442</v>
       </c>
     </row>
     <row r="24">
@@ -46095,7 +46095,7 @@
         <v>15000000</v>
       </c>
       <c r="O23" t="n">
-        <v>-3.047103917714031e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="24">
@@ -46142,7 +46142,7 @@
         <v>15000000</v>
       </c>
       <c r="O24" t="n">
-        <v>-3.047103917714031e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="25">
@@ -46189,7 +46189,7 @@
         <v>15000000</v>
       </c>
       <c r="O25" t="n">
-        <v>-3.047103917714031e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="26">
@@ -46236,7 +46236,7 @@
         <v>15000000</v>
       </c>
       <c r="O26" t="n">
-        <v>-3.047103917714031e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="27">
@@ -46283,7 +46283,7 @@
         <v>15000000</v>
       </c>
       <c r="O27" t="n">
-        <v>8.340550472496487e-10</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -46978,7 +46978,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-8.273440708895702e-11</v>
+        <v>-0</v>
       </c>
       <c r="G23" t="n">
         <v>-0</v>
@@ -47007,7 +47007,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>6.835888423792807e-10</v>
+        <v>-0</v>
       </c>
       <c r="G24" t="n">
         <v>-0</v>
@@ -47016,7 +47016,7 @@
         <v>1343023.255813953</v>
       </c>
       <c r="I24" t="n">
-        <v>1343023.255813958</v>
+        <v>1343023.255813953</v>
       </c>
     </row>
     <row r="25">
@@ -47065,7 +47065,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-8.273440708895702e-11</v>
+        <v>1.024454832077027e-09</v>
       </c>
       <c r="G26" t="n">
         <v>-0</v>
@@ -47074,7 +47074,7 @@
         <v>1343023.255813953</v>
       </c>
       <c r="I26" t="n">
-        <v>1343023.255813963</v>
+        <v>1343023.25581396</v>
       </c>
     </row>
     <row r="27">
@@ -47103,7 +47103,7 @@
         <v>1343023.255813953</v>
       </c>
       <c r="I27" t="n">
-        <v>1343023.255813953</v>
+        <v>1343023.255813963</v>
       </c>
     </row>
   </sheetData>
@@ -49992,7 +49992,7 @@
         <v>15000000</v>
       </c>
       <c r="O24" t="n">
-        <v>-3.047103917714031e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="25">
@@ -50039,7 +50039,7 @@
         <v>15000000</v>
       </c>
       <c r="O25" t="n">
-        <v>-3.047103917714031e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="26">
@@ -50086,7 +50086,7 @@
         <v>15000000</v>
       </c>
       <c r="O26" t="n">
-        <v>-3.047103917714031e-09</v>
+        <v>2.798624336719514e-09</v>
       </c>
     </row>
     <row r="27">
@@ -50133,7 +50133,7 @@
         <v>15000000</v>
       </c>
       <c r="O27" t="n">
-        <v>8.340550472496487e-10</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -50857,7 +50857,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.909571242983197e-11</v>
+        <v>-0</v>
       </c>
       <c r="G24" t="n">
         <v>-0</v>
@@ -50866,7 +50866,7 @@
         <v>1343023.255813953</v>
       </c>
       <c r="I24" t="n">
-        <v>1343023.255813953</v>
+        <v>1343023.255813963</v>
       </c>
     </row>
     <row r="25">
@@ -50886,7 +50886,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.909571242983197e-11</v>
+        <v>-0</v>
       </c>
       <c r="G25" t="n">
         <v>-0</v>
@@ -50915,7 +50915,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.835888423792807e-10</v>
+        <v>1.024454832077027e-09</v>
       </c>
       <c r="G26" t="n">
         <v>-0</v>
@@ -50924,7 +50924,7 @@
         <v>1343023.255813953</v>
       </c>
       <c r="I26" t="n">
-        <v>1343023.255813958</v>
+        <v>1343023.25581396</v>
       </c>
     </row>
     <row r="27">
@@ -54819,7 +54819,7 @@
         <v>1001400000000</v>
       </c>
       <c r="E7" t="n">
-        <v>6787262.907356264</v>
+        <v>6083295.686668341</v>
       </c>
     </row>
     <row r="8">
@@ -54836,7 +54836,7 @@
         <v>1001400000000</v>
       </c>
       <c r="E8" t="n">
-        <v>6162028.862666332</v>
+        <v>6662216.098418279</v>
       </c>
     </row>
     <row r="9">
@@ -54853,7 +54853,7 @@
         <v>1001400000000</v>
       </c>
       <c r="E9" t="n">
-        <v>6358861.802661313</v>
+        <v>6319495.214662317</v>
       </c>
     </row>
     <row r="10">
@@ -55501,19 +55501,19 @@
         <v>46313632.93999498</v>
       </c>
       <c r="C7" t="n">
-        <v>4052442.882249562</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>2315681.646999749</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2894602.058749686</v>
       </c>
       <c r="F7" t="n">
         <v>2894602.058749686</v>
       </c>
       <c r="G7" t="n">
-        <v>2315681.646999745</v>
+        <v>3473522.470499622</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -55548,10 +55548,10 @@
         <v>46313632.93999498</v>
       </c>
       <c r="C8" t="n">
-        <v>1157840.823499872</v>
+        <v>3473522.470499622</v>
       </c>
       <c r="D8" t="n">
-        <v>2315681.646999749</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>2894602.058749686</v>
@@ -55560,7 +55560,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5210283.705749434</v>
+        <v>5210283.705749436</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -55595,7 +55595,7 @@
         <v>46313632.93999498</v>
       </c>
       <c r="C9" t="n">
-        <v>4052442.882249591</v>
+        <v>3473522.470499634</v>
       </c>
       <c r="D9" t="n">
         <v>2315681.646999749</v>
@@ -55604,10 +55604,10 @@
         <v>2894602.058749686</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2894602.058749686</v>
       </c>
       <c r="G9" t="n">
-        <v>2315681.646999715</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -55678,7 +55678,7 @@
         <v>24000000</v>
       </c>
       <c r="O10" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="11">
@@ -55725,7 +55725,7 @@
         <v>24000000</v>
       </c>
       <c r="O11" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="12">
@@ -55772,7 +55772,7 @@
         <v>24000000</v>
       </c>
       <c r="O12" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="13">
@@ -55819,7 +55819,7 @@
         <v>24000000</v>
       </c>
       <c r="O13" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="14">
@@ -55866,7 +55866,7 @@
         <v>24000000</v>
       </c>
       <c r="O14" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="15">
@@ -55913,7 +55913,7 @@
         <v>24000000</v>
       </c>
       <c r="O15" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="16">
@@ -55960,7 +55960,7 @@
         <v>24000000</v>
       </c>
       <c r="O16" t="n">
-        <v>4.783973225161568e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="17">
@@ -56007,7 +56007,7 @@
         <v>24000000</v>
       </c>
       <c r="O17" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="18">
@@ -56054,7 +56054,7 @@
         <v>24000000</v>
       </c>
       <c r="O18" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="19">
@@ -56101,7 +56101,7 @@
         <v>24000000</v>
       </c>
       <c r="O19" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="20">
@@ -56148,7 +56148,7 @@
         <v>24000000</v>
       </c>
       <c r="O20" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="21">
@@ -56195,7 +56195,7 @@
         <v>24000000</v>
       </c>
       <c r="O21" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="22">
@@ -56242,7 +56242,7 @@
         <v>24000000</v>
       </c>
       <c r="O22" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="23">
@@ -56289,7 +56289,7 @@
         <v>24000000</v>
       </c>
       <c r="O23" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="24">
@@ -56336,7 +56336,7 @@
         <v>24000000</v>
       </c>
       <c r="O24" t="n">
-        <v>8.395873010158541e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -56383,7 +56383,7 @@
         <v>24000000</v>
       </c>
       <c r="O25" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="26">
@@ -56430,7 +56430,7 @@
         <v>24000000</v>
       </c>
       <c r="O26" t="n">
-        <v>4.692580181980686e-09</v>
+        <v>5.597248673439027e-09</v>
       </c>
     </row>
     <row r="27">
@@ -56583,7 +56583,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C3" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -56612,7 +56612,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C4" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -56641,7 +56641,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C5" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -56670,7 +56670,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C6" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -56699,7 +56699,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C7" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -56728,7 +56728,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C8" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -56757,7 +56757,7 @@
         <v>6117073.170731707</v>
       </c>
       <c r="C9" t="n">
-        <v>321951.2195121954</v>
+        <v>321951.2195121952</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
